--- a/csenergy/auxiliary calculations/propiedades fluidos.xlsx
+++ b/csenergy/auxiliary calculations/propiedades fluidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paco\0_TFG\csenergy\auxiliary calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172B0FE4-7A22-4AF7-AD94-18EE1BD2CF99}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C8A71B-99C9-4442-84AD-91EC91A18E58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="15" windowWidth="16620" windowHeight="8715" tabRatio="761" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="1470" windowWidth="16620" windowHeight="8715" tabRatio="761" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM" sheetId="2" r:id="rId1"/>
@@ -36,110 +36,137 @@
     <definedName name="solver_adj" localSheetId="11" hidden="1">H_T_DOWA!$N$2</definedName>
     <definedName name="solver_adj" localSheetId="6" hidden="1">H_T_S800!$T$2</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">H_T_VP1!$P$2</definedName>
+    <definedName name="solver_adj" localSheetId="12" hidden="1">mu_DOWA!$G$11</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">mu_VP1!$F$2</definedName>
     <definedName name="solver_cvg" localSheetId="11" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="12" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.00001</definedName>
     <definedName name="solver_drv" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="11" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="12" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="11" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="12" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="11" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="11" hidden="1">H_T_DOWA!$O$2</definedName>
     <definedName name="solver_opt" localSheetId="6" hidden="1">H_T_S800!$U$2</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">H_T_VP1!$Q$2</definedName>
+    <definedName name="solver_opt" localSheetId="12" hidden="1">mu_DOWA!$O$11</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">mu_VP1!$G$2</definedName>
     <definedName name="solver_pre" localSheetId="11" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="12" hidden="1">0.00001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.0000000001</definedName>
     <definedName name="solver_rbv" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="12" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="11" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="12" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="11" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="12" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="12" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="11" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="12" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="11" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="11" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="12" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="11" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="12" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -158,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -336,9 +363,6 @@
     <t>T[H]</t>
   </si>
   <si>
-    <t>DATASHEET DE DOWTERM A</t>
-  </si>
-  <si>
     <t>coeficientes del manual de Dowtherm A</t>
   </si>
   <si>
@@ -359,12 +383,45 @@
   <si>
     <t>K</t>
   </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>MU8</t>
+  </si>
+  <si>
+    <t>MU5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
@@ -374,8 +431,11 @@
     <numFmt numFmtId="170" formatCode="0.0000000000"/>
     <numFmt numFmtId="171" formatCode="0.0"/>
     <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="181" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="200" formatCode="0.00000000000E+00"/>
+    <numFmt numFmtId="215" formatCode="#,##0.0000000000000000000000000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +457,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -431,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -465,20 +531,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -566,12 +623,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="215" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5481,7 +5537,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>mu_DOWA!$I$11</c:f>
+              <c:f>mu_DOWA!$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -5874,6 +5930,402 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>mu_DOWA!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MU8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.1178209108025456E-2"/>
+                  <c:y val="-0.21929692865470923"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.0000000000E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mu_DOWA!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>288.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>338.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>378.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>428.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>478.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>528.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>578.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>628.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>678.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mu_DOWA!$O$2:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.9994290128030638E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5581011813665668E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2615209245128227E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4533468720951994E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7336771268980939E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7706174830122166E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8668503004626302E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5517882244964198E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7403479799140769E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D77D-474E-BAFF-3C6084EE7693}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="623189112"/>
+        <c:axId val="623191856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="623189112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623191856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="623191856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623189112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>CpDowthermA!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -6347,429 +6799,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="623197344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.1134658398647054E-2"/>
-          <c:y val="0.11019847328244277"/>
-          <c:w val="0.88980740029009353"/>
-          <c:h val="0.78501376488406549"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cp!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CP syltherm800</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.9827310471923789E-2"/>
-                  <c:y val="0.21711297246186415"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Cp!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Cp!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.506</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5740000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.643</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7110000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.847</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9159999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.984</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.052</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.121</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.1890000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.2570000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F29F-4F5A-8EDB-2A80611241CF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="623300304"/>
-        <c:axId val="623297560"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="623300304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="623297560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="623297560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="623300304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7445,6 +7474,429 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
+          <c:x val="6.1134658398647054E-2"/>
+          <c:y val="0.11019847328244277"/>
+          <c:w val="0.88980740029009353"/>
+          <c:h val="0.78501376488406549"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cp!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CP syltherm800</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9827310471923789E-2"/>
+                  <c:y val="0.21711297246186415"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cp!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cp!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.052</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.121</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2570000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F29F-4F5A-8EDB-2A80611241CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="623300304"/>
+        <c:axId val="623297560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="623300304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623297560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="623297560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623300304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
           <c:x val="6.1134601913878997E-2"/>
           <c:y val="0.12541112005828675"/>
           <c:w val="0.89356633834011423"/>
@@ -7799,7 +8251,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -8384,7 +8836,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -8961,7 +9413,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -9440,7 +9892,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -14772,6 +15224,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -23824,6 +24316,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -27649,15 +28657,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27686,16 +28694,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>130174</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1013277</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>73477</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27717,6 +28725,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>445115</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>183938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>275664</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDCC3145-F39A-4CA4-8F7B-E9E9CEBD2BA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -30507,7 +31553,7 @@
   </sheetPr>
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -30562,11 +31608,11 @@
         <v>15000000</v>
       </c>
       <c r="D2" s="29">
-        <f>-651100 + 4121 *A2^1 -12.35 *A2^2 + 0.02771 *A2^3 -0.00002777 *A2^4+ 0.00000001106 *A2^5</f>
+        <f t="shared" ref="D2:D40" si="1">-651100 + 4121 *A2^1 -12.35 *A2^2 + 0.02771 *A2^3 -0.00002777 *A2^4+ 0.00000001106 *A2^5</f>
         <v>929.43800078661661</v>
       </c>
       <c r="E2" s="30">
-        <f t="shared" ref="E2:E40" si="1" xml:space="preserve"> -1.75256E-28*D2^5 + 3.31588E-22*D2^4 - 1.42322E-16*D2^3 - 0.000000000182158*D2^2 + 0.000620726*D2^1 + 285.344</f>
+        <f t="shared" ref="E2:E40" si="2" xml:space="preserve"> -1.75256E-28*D2^5 + 3.31588E-22*D2^4 - 1.42322E-16*D2^3 - 0.000000000182158*D2^2 + 0.000620726*D2^1 + 285.344</f>
         <v>285.92076886035471</v>
       </c>
       <c r="N2" s="33">
@@ -30601,11 +31647,11 @@
         <v>15000000</v>
       </c>
       <c r="D3" s="29">
-        <f>-651100 + 4121 *A3^1 -12.35 *A3^2 + 0.02771 *A3^3 -0.00002777 *A3^4+ 0.00000001106 *A3^5</f>
+        <f t="shared" si="1"/>
         <v>17251.909766594617</v>
       </c>
       <c r="E3" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>295.9977918797066</v>
       </c>
       <c r="Q3" s="5">
@@ -30633,11 +31679,11 @@
         <v>15000000</v>
       </c>
       <c r="D4" s="29">
-        <f>-651100 + 4121 *A4^1 -12.35 *A4^2 + 0.02771 *A4^3 -0.00002777 *A4^4+ 0.00000001106 *A4^5</f>
+        <f t="shared" si="1"/>
         <v>33679.401436722706</v>
       </c>
       <c r="E4" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>306.03803990548755</v>
       </c>
       <c r="Q4" s="5">
@@ -30665,11 +31711,11 @@
         <v>15000000</v>
       </c>
       <c r="D5" s="29">
-        <f>-651100 + 4121 *A5^1 -12.35 *A5^2 + 0.02771 *A5^3 -0.00002777 *A5^4+ 0.00000001106 *A5^5</f>
+        <f t="shared" si="1"/>
         <v>50237.701944770663</v>
       </c>
       <c r="E5" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>316.05212340390347</v>
       </c>
       <c r="Q5" s="5">
@@ -30697,11 +31743,11 @@
         <v>15000000</v>
       </c>
       <c r="D6" s="29">
-        <f>-651100 + 4121 *A6^1 -12.35 *A6^2 + 0.02771 *A6^3 -0.00002777 *A6^4+ 0.00000001106 *A6^5</f>
+        <f t="shared" si="1"/>
         <v>66949.996656338626</v>
       </c>
       <c r="E6" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>326.04883323212817</v>
       </c>
       <c r="Q6" s="5">
@@ -30729,11 +31775,11 @@
         <v>15000000</v>
       </c>
       <c r="D7" s="29">
-        <f>-651100 + 4121 *A7^1 -12.35 *A7^2 + 0.02771 *A7^3 -0.00002777 *A7^4+ 0.00000001106 *A7^5</f>
+        <f t="shared" si="1"/>
         <v>83837.00008902658</v>
       </c>
       <c r="E7" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>336.03527272753075</v>
       </c>
       <c r="Q7" s="5">
@@ -30761,11 +31807,11 @@
         <v>15000000</v>
       </c>
       <c r="D8" s="29">
-        <f>-651100 + 4121 *A8^1 -12.35 *A8^2 + 0.02771 *A8^3 -0.00002777 *A8^4+ 0.00000001106 *A8^5</f>
+        <f t="shared" si="1"/>
         <v>100917.08863243455</v>
       </c>
       <c r="E8" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>346.01700047911788</v>
       </c>
       <c r="Q8" s="5">
@@ -30793,11 +31839,11 @@
         <v>15000000</v>
       </c>
       <c r="D9" s="29">
-        <f>-651100 + 4121 *A9^1 -12.35 *A9^2 + 0.02771 *A9^3 -0.00002777 *A9^4+ 0.00000001106 *A9^5</f>
+        <f t="shared" si="1"/>
         <v>118206.43326816267</v>
       </c>
       <c r="E9" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>355.99818127965477</v>
       </c>
       <c r="Q9" s="5">
@@ -30825,11 +31871,11 @@
         <v>15000000</v>
       </c>
       <c r="D10" s="29">
-        <f>-651100 + 4121 *A10^1 -12.35 *A10^2 + 0.02771 *A10^3 -0.00002777 *A10^4+ 0.00000001106 *A10^5</f>
+        <f t="shared" si="1"/>
         <v>135719.13228981069</v>
       </c>
       <c r="E10" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>365.98174292209904</v>
       </c>
       <c r="Q10" s="5">
@@ -30857,11 +31903,11 @@
         <v>15000000</v>
       </c>
       <c r="D11" s="29">
-        <f>-651100 + 4121 *A11^1 -12.35 *A11^2 + 0.02771 *A11^3 -0.00002777 *A11^4+ 0.00000001106 *A11^5</f>
+        <f t="shared" si="1"/>
         <v>153467.34402297862</v>
       </c>
       <c r="E11" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>375.96953659088734</v>
       </c>
       <c r="Q11" s="5">
@@ -30889,11 +31935,11 @@
         <v>15000000</v>
       </c>
       <c r="D12" s="29">
-        <f>-651100 + 4121 *A12^1 -12.35 *A12^2 + 0.02771 *A12^3 -0.00002777 *A12^4+ 0.00000001106 *A12^5</f>
+        <f t="shared" si="1"/>
         <v>171461.41954526666</v>
       </c>
       <c r="E12" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>385.96249863553248</v>
       </c>
       <c r="Q12" s="5">
@@ -30921,11 +31967,11 @@
         <v>15000000</v>
       </c>
       <c r="D13" s="29">
-        <f>-651100 + 4121 *A13^1 -12.35 *A13^2 + 0.02771 *A13^3 -0.00002777 *A13^4+ 0.00000001106 *A13^5</f>
+        <f t="shared" si="1"/>
         <v>189710.03540627446</v>
       </c>
       <c r="E13" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>395.9608115238205</v>
       </c>
       <c r="Q13" s="5">
@@ -30953,11 +31999,11 @@
         <v>15000000</v>
       </c>
       <c r="D14" s="29">
-        <f>-651100 + 4121 *A14^1 -12.35 *A14^2 + 0.02771 *A14^3 -0.00002777 *A14^4+ 0.00000001106 *A14^5</f>
+        <f t="shared" si="1"/>
         <v>208220.32634760244</v>
       </c>
       <c r="E14" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>405.96406177294966</v>
       </c>
       <c r="Q14" s="5">
@@ -30985,11 +32031,11 @@
         <v>15000000</v>
       </c>
       <c r="D15" s="29">
-        <f>-651100 + 4121 *A15^1 -12.35 *A15^2 + 0.02771 *A15^3 -0.00002777 *A15^4+ 0.00000001106 *A15^5</f>
+        <f t="shared" si="1"/>
         <v>226998.01802285045</v>
       </c>
       <c r="E15" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>415.97139266352121</v>
       </c>
       <c r="Q15" s="5">
@@ -31017,11 +32063,11 @@
         <v>15000000</v>
       </c>
       <c r="D16" s="29">
-        <f>-651100 + 4121 *A16^1 -12.35 *A16^2 + 0.02771 *A16^3 -0.00002777 *A16^4+ 0.00000001106 *A16^5</f>
+        <f t="shared" si="1"/>
         <v>246047.55971761831</v>
       </c>
       <c r="E16" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>425.98164956400456</v>
       </c>
       <c r="Q16" s="5">
@@ -31049,11 +32095,11 @@
         <v>15000000</v>
       </c>
       <c r="D17" s="29">
-        <f>-651100 + 4121 *A17^1 -12.35 *A17^2 + 0.02771 *A17^3 -0.00002777 *A17^4+ 0.00000001106 *A17^5</f>
+        <f t="shared" si="1"/>
         <v>265372.25706950645</v>
       </c>
       <c r="E17" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>435.9935157393482</v>
       </c>
       <c r="Q17" s="5">
@@ -31081,11 +32127,11 @@
         <v>15000000</v>
       </c>
       <c r="D18" s="29">
-        <f>-651100 + 4121 *A18^1 -12.35 *A18^2 + 0.02771 *A18^3 -0.00002777 *A18^4+ 0.00000001106 *A18^5</f>
+        <f t="shared" si="1"/>
         <v>284974.40478811436</v>
       </c>
       <c r="E18" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>446.00563659076488</v>
       </c>
       <c r="Q18" s="5">
@@ -31113,11 +32159,11 @@
         <v>15000000</v>
       </c>
       <c r="D19" s="29">
-        <f>-651100 + 4121 *A19^1 -12.35 *A19^2 + 0.02771 *A19^3 -0.00002777 *A19^4+ 0.00000001106 *A19^5</f>
+        <f t="shared" si="1"/>
         <v>304855.4193750422</v>
       </c>
       <c r="E19" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>456.01673037524097</v>
       </c>
       <c r="Q19" s="5">
@@ -31145,11 +32191,11 @@
         <v>15000000</v>
       </c>
       <c r="D20" s="29">
-        <f>-651100 + 4121 *A20^1 -12.35 *A20^2 + 0.02771 *A20^3 -0.00002777 *A20^4+ 0.00000001106 *A20^5</f>
+        <f t="shared" si="1"/>
         <v>325015.97184389044</v>
       </c>
       <c r="E20" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>466.02568358090377</v>
       </c>
       <c r="Q20" s="5">
@@ -31177,11 +32223,11 @@
         <v>15000000</v>
       </c>
       <c r="D21" s="29">
-        <f>-651100 + 4121 *A21^1 -12.35 *A21^2 + 0.02771 *A21^3 -0.00002777 *A21^4+ 0.00000001106 *A21^5</f>
+        <f t="shared" si="1"/>
         <v>345456.12044025847</v>
       </c>
       <c r="E21" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>476.03162928313657</v>
       </c>
       <c r="Q21" s="5">
@@ -31209,11 +32255,11 @@
         <v>15000000</v>
       </c>
       <c r="D22" s="29">
-        <f>-651100 + 4121 *A22^1 -12.35 *A22^2 + 0.02771 *A22^3 -0.00002777 *A22^4+ 0.00000001106 *A22^5</f>
+        <f t="shared" si="1"/>
         <v>366175.44336174638</v>
       </c>
       <c r="E22" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>486.03400696874149</v>
       </c>
       <c r="Q22" s="5">
@@ -31241,11 +32287,11 @@
         <v>15000000</v>
       </c>
       <c r="D23" s="29">
-        <f>-651100 + 4121 *A23^1 -12.35 *A23^2 + 0.02771 *A23^3 -0.00002777 *A23^4+ 0.00000001106 *A23^5</f>
+        <f t="shared" si="1"/>
         <v>387173.17147795443</v>
       </c>
       <c r="E23" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>496.03260248157142</v>
       </c>
       <c r="Q23" s="5">
@@ -31273,11 +32319,11 @@
         <v>15000000</v>
       </c>
       <c r="D24" s="29">
-        <f>-651100 + 4121 *A24^1 -12.35 *A24^2 + 0.02771 *A24^3 -0.00002777 *A24^4+ 0.00000001106 *A24^5</f>
+        <f t="shared" si="1"/>
         <v>408448.3210504821</v>
       </c>
       <c r="E24" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>506.02756690076978</v>
       </c>
       <c r="Q24" s="5">
@@ -31305,11 +32351,11 @@
         <v>15000000</v>
       </c>
       <c r="D25" s="29">
-        <f>-651100 + 4121 *A25^1 -12.35 *A25^2 + 0.02771 *A25^3 -0.00002777 *A25^4+ 0.00000001106 *A25^5</f>
+        <f t="shared" si="1"/>
         <v>429999.82645293052</v>
       </c>
       <c r="E25" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>516.01941329796557</v>
       </c>
       <c r="Q25" s="5">
@@ -31337,11 +32383,11 @@
         <v>15000000</v>
       </c>
       <c r="D26" s="29">
-        <f>-651100 + 4121 *A26^1 -12.35 *A26^2 + 0.02771 *A26^3 -0.00002777 *A26^4+ 0.00000001106 *A26^5</f>
+        <f t="shared" si="1"/>
         <v>451826.67289089819</v>
       </c>
       <c r="E26" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>526.00899041661091</v>
       </c>
       <c r="Q26" s="5">
@@ -31369,11 +32415,11 @@
         <v>15000000</v>
       </c>
       <c r="D27" s="29">
-        <f>-651100 + 4121 *A27^1 -12.35 *A27^2 + 0.02771 *A27^3 -0.00002777 *A27^4+ 0.00000001106 *A27^5</f>
+        <f t="shared" si="1"/>
         <v>473928.02912198612</v>
       </c>
       <c r="E27" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>535.9974323576987</v>
       </c>
       <c r="Q27" s="5">
@@ -31401,11 +32447,11 @@
         <v>15000000</v>
       </c>
       <c r="D28" s="29">
-        <f>-651100 + 4121 *A28^1 -12.35 *A28^2 + 0.02771 *A28^3 -0.00002777 *A28^4+ 0.00000001106 *A28^5</f>
+        <f t="shared" si="1"/>
         <v>496303.38017579378</v>
       </c>
       <c r="E28" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>545.98608332241008</v>
       </c>
       <c r="Q28" s="5">
@@ -31433,11 +32479,11 @@
         <v>15000000</v>
       </c>
       <c r="D29" s="29">
-        <f>-651100 + 4121 *A29^1 -12.35 *A29^2 + 0.02771 *A29^3 -0.00002777 *A29^4+ 0.00000001106 *A29^5</f>
+        <f t="shared" si="1"/>
         <v>518952.66007392236</v>
       </c>
       <c r="E29" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>555.97639633347717</v>
       </c>
       <c r="Q29" s="5">
@@ -31465,11 +32511,11 @@
         <v>15000000</v>
       </c>
       <c r="D30" s="29">
-        <f>-651100 + 4121 *A30^1 -12.35 *A30^2 + 0.02771 *A30^3 -0.00002777 *A30^4+ 0.00000001106 *A30^5</f>
+        <f t="shared" si="1"/>
         <v>541876.38454996992</v>
       </c>
       <c r="E30" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>565.96980461120256</v>
       </c>
       <c r="Q30" s="5">
@@ -31497,11 +32543,11 @@
         <v>15000000</v>
       </c>
       <c r="D31" s="29">
-        <f>-651100 + 4121 *A31^1 -12.35 *A31^2 + 0.02771 *A31^3 -0.00002777 *A31^4+ 0.00000001106 *A31^5</f>
+        <f t="shared" si="1"/>
         <v>565075.78376953816</v>
       </c>
       <c r="E31" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>575.96756389336952</v>
       </c>
       <c r="Q31" s="5">
@@ -31529,11 +32575,11 @@
         <v>15000000</v>
       </c>
       <c r="D32" s="29">
-        <f>-651100 + 4121 *A32^1 -12.35 *A32^2 + 0.02771 *A32^3 -0.00002777 *A32^4+ 0.00000001106 *A32^5</f>
+        <f t="shared" si="1"/>
         <v>588552.93505022675</v>
       </c>
       <c r="E32" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>585.97056343448048</v>
       </c>
       <c r="Q32" s="5">
@@ -31561,11 +32607,11 @@
         <v>15000000</v>
       </c>
       <c r="D33" s="29">
-        <f>-651100 + 4121 *A33^1 -12.35 *A33^2 + 0.02771 *A33^3 -0.00002777 *A33^4+ 0.00000001106 *A33^5</f>
+        <f t="shared" si="1"/>
         <v>612310.89558163437</v>
       </c>
       <c r="E33" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>595.97910266967006</v>
       </c>
       <c r="Q33" s="5">
@@ -31593,11 +32639,11 @@
         <v>15000000</v>
       </c>
       <c r="D34" s="29">
-        <f>-651100 + 4121 *A34^1 -12.35 *A34^2 + 0.02771 *A34^3 -0.00002777 *A34^4+ 0.00000001106 *A34^5</f>
+        <f t="shared" si="1"/>
         <v>636353.83514536312</v>
       </c>
       <c r="E34" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>605.99262954880669</v>
       </c>
       <c r="Q34" s="5">
@@ -31625,11 +32671,11 @@
         <v>15000000</v>
       </c>
       <c r="D35" s="29">
-        <f>-651100 + 4121 *A35^1 -12.35 *A35^2 + 0.02771 *A35^3 -0.00002777 *A35^4+ 0.00000001106 *A35^5</f>
+        <f t="shared" si="1"/>
         <v>660687.16883501038</v>
       </c>
       <c r="E35" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>616.00943529784854</v>
       </c>
       <c r="Q35" s="5">
@@ -31657,11 +32703,11 @@
         <v>15000000</v>
       </c>
       <c r="D36" s="29">
-        <f>-651100 + 4121 *A36^1 -12.35 *A36^2 + 0.02771 *A36^3 -0.00002777 *A36^4+ 0.00000001106 *A36^5</f>
+        <f t="shared" si="1"/>
         <v>685317.68977617868</v>
       </c>
       <c r="E36" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>626.02629880129143</v>
       </c>
       <c r="Q36" s="5">
@@ -31689,11 +32735,11 @@
         <v>15000000</v>
       </c>
       <c r="D37" s="29">
-        <f>-651100 + 4121 *A37^1 -12.35 *A37^2 + 0.02771 *A37^3 -0.00002777 *A37^4+ 0.00000001106 *A37^5</f>
+        <f t="shared" si="1"/>
         <v>710253.70184646687</v>
       </c>
       <c r="E37" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>636.03807186563131</v>
       </c>
       <c r="Q37" s="5">
@@ -31721,11 +32767,11 @@
         <v>15000000</v>
       </c>
       <c r="D38" s="29">
-        <f>-651100 + 4121 *A38^1 -12.35 *A38^2 + 0.02771 *A38^3 -0.00002777 *A38^4+ 0.00000001106 *A38^5</f>
+        <f t="shared" si="1"/>
         <v>735505.15239547379</v>
       </c>
       <c r="E38" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>646.03719425099393</v>
       </c>
       <c r="Q38" s="5">
@@ -31753,11 +32799,11 @@
         <v>15000000</v>
       </c>
       <c r="D39" s="29">
-        <f>-651100 + 4121 *A39^1 -12.35 *A39^2 + 0.02771 *A39^3 -0.00002777 *A39^4+ 0.00000001106 *A39^5</f>
+        <f t="shared" si="1"/>
         <v>761083.76496480312</v>
       </c>
       <c r="E39" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>656.01312446197221</v>
       </c>
       <c r="Q39" s="5">
@@ -31785,11 +32831,11 @@
         <v>15000000</v>
       </c>
       <c r="D40" s="29">
-        <f>-651100 + 4121 *A40^1 -12.35 *A40^2 + 0.02771 *A40^3 -0.00002777 *A40^4+ 0.00000001106 *A40^5</f>
+        <f t="shared" si="1"/>
         <v>787003.17200805084</v>
       </c>
       <c r="E40" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>665.95166876438611</v>
       </c>
       <c r="Q40" s="5">
@@ -31817,10 +32863,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:X411"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31828,13 +32874,24 @@
     <col min="2" max="2" width="17.85546875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" customWidth="1"/>
+    <col min="13" max="13" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" customWidth="1"/>
+    <col min="22" max="22" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>25</v>
       </c>
@@ -31852,8 +32909,14 @@
       <c r="J1" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>288</v>
       </c>
@@ -31866,7 +32929,7 @@
         <v>1.3736319945288941E-2</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="33">
@@ -31883,9 +32946,41 @@
         <f t="shared" ref="J2:J42" si="1">-0.0000000000000096475*A2^5+0.0000000000251799*A2^4-0.0000000260139*A2^3+0.0000133042*A2^2-0.00337267*A2^1+0.34013</f>
         <v>5.0031004097331189E-3</v>
       </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="46">
+        <v>5.1346825999999997</v>
+      </c>
+      <c r="O2" s="43">
+        <f>$M$2+$M$3*G2+$M$4*G2^2+$M$5*G2^3+$M$6*G2^4+$M$7*G2^5+$M$8*G2^6+$M$9*G2^7+$M$10*G2^8</f>
+        <v>4.9994290128030638E-3</v>
+      </c>
+      <c r="P2" s="43">
+        <f>100* I2/O2</f>
+        <v>100.01142104819318</v>
+      </c>
       <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="44">
+        <v>0.34396484535999999</v>
+      </c>
+      <c r="S2" s="44">
+        <f>$R$2+$R$3*G2+$R$4*G2^2+$R$5*G2^3+$R$6*G2^4+$R$7*G2^5</f>
+        <v>4.9829626465710507E-3</v>
+      </c>
+      <c r="T2" s="45">
+        <f>100*(O2-S2)/S2</f>
+        <v>0.33045333469124533</v>
+      </c>
+      <c r="V2" s="46">
+        <v>1.2747820000000001E-21</v>
+      </c>
+      <c r="X2" s="43">
+        <f>$V$2+$V$3*G2+$V$4*G2^2+$V$5*G2^3+$V$6*G2^4+$V$7*G2^5+$V$8*G2^6+$V$9*G2^7+$V$10*G2^8</f>
+        <v>2.4402703955816215E+20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>298</v>
       </c>
@@ -31898,7 +32993,7 @@
         <v>1.3082110411881231E-2</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="33">
@@ -31915,9 +33010,41 @@
         <f t="shared" si="1"/>
         <v>4.0194321618071682E-3</v>
       </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="46">
+        <v>-8.3953589999999995E-2</v>
+      </c>
+      <c r="O3" s="43">
+        <f t="shared" ref="O3:O66" si="4">$M$2+$M$3*G3+$M$4*G3^2+$M$5*G3^3+$M$6*G3^4+$M$7*G3^5+$M$8*G3^6+$M$9*G3^7+$M$10*G3^8</f>
+        <v>1.5581011813665668E-3</v>
+      </c>
+      <c r="P3" s="43">
+        <f t="shared" ref="P3:P10" si="5">100* I3/O3</f>
+        <v>101.40548116485134</v>
+      </c>
       <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="44">
+        <v>-3.4158077787000002E-3</v>
+      </c>
+      <c r="S3" s="44">
+        <f t="shared" ref="S3:S10" si="6">$R$2+$R$3*G3+$R$4*G3^2+$R$5*G3^3+$R$6*G3^4+$R$7*G3^5</f>
+        <v>1.6437456214855733E-3</v>
+      </c>
+      <c r="T3" s="45">
+        <f t="shared" ref="T3:T10" si="7">100*(O3-S3)/S3</f>
+        <v>-5.2103220230392679</v>
+      </c>
+      <c r="V3" s="46">
+        <v>-5.2643677E-18</v>
+      </c>
+      <c r="X3" s="43">
+        <f t="shared" ref="X3:X10" si="8">$V$2+$V$3*G3+$V$4*G3^2+$V$5*G3^3+$V$6*G3^4+$V$7*G3^5+$V$8*G3^6+$V$9*G3^7+$V$10*G3^8</f>
+        <v>8.7774373397554319E+20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>308</v>
       </c>
@@ -31930,7 +33057,7 @@
         <v>1.2824561283083527E-2</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="33">
@@ -31947,9 +33074,41 @@
         <f t="shared" si="1"/>
         <v>3.2182106962613255E-3</v>
       </c>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="46">
+        <v>5.9705155E-4</v>
+      </c>
+      <c r="O4" s="43">
+        <f t="shared" si="4"/>
+        <v>9.2615209245128227E-4</v>
+      </c>
+      <c r="P4" s="43">
+        <f t="shared" si="5"/>
+        <v>98.25600000443427</v>
+      </c>
       <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="44">
+        <v>1.34936065E-5</v>
+      </c>
+      <c r="S4" s="44">
+        <f t="shared" si="6"/>
+        <v>8.1154453417819905E-4</v>
+      </c>
+      <c r="T4" s="45">
+        <f t="shared" si="7"/>
+        <v>14.122152691119927</v>
+      </c>
+      <c r="V4" s="46">
+        <v>9.4330296999999994E-15</v>
+      </c>
+      <c r="X4" s="43">
+        <f t="shared" si="8"/>
+        <v>2.1468794692885516E+21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>318</v>
       </c>
@@ -31977,9 +33136,41 @@
         <f t="shared" si="1"/>
         <v>2.5733027349951754E-3</v>
       </c>
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="46">
+        <v>-2.4092211E-6</v>
+      </c>
+      <c r="O5" s="43">
+        <f t="shared" si="4"/>
+        <v>5.4533468720951994E-4</v>
+      </c>
+      <c r="P5" s="43">
+        <f t="shared" si="5"/>
+        <v>102.68923161032038</v>
+      </c>
       <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="44">
+        <v>-2.6421050511999999E-8</v>
+      </c>
+      <c r="S5" s="44">
+        <f t="shared" si="6"/>
+        <v>5.6535039488311845E-4</v>
+      </c>
+      <c r="T5" s="45">
+        <f t="shared" si="7"/>
+        <v>-3.5404074808750399</v>
+      </c>
+      <c r="V5" s="46">
+        <v>-9.5788095000000002E-12</v>
+      </c>
+      <c r="X5" s="43">
+        <f t="shared" si="8"/>
+        <v>5.7978183540064807E+21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>328</v>
       </c>
@@ -32007,9 +33198,41 @@
         <f t="shared" si="1"/>
         <v>2.0610524599095625E-3</v>
       </c>
+      <c r="L6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="46">
+        <v>6.0292345000000001E-9</v>
+      </c>
+      <c r="O6" s="43">
+        <f t="shared" si="4"/>
+        <v>3.7336771268980939E-4</v>
+      </c>
+      <c r="P6" s="43">
+        <f t="shared" si="5"/>
+        <v>101.77634195051586</v>
+      </c>
       <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="44">
+        <v>2.5609227873E-11</v>
+      </c>
+      <c r="S6" s="44">
+        <f t="shared" si="6"/>
+        <v>4.3837942129049123E-4</v>
+      </c>
+      <c r="T6" s="45">
+        <f t="shared" si="7"/>
+        <v>-14.830009221076544</v>
+      </c>
+      <c r="V6" s="46">
+        <v>6.0292345000000001E-9</v>
+      </c>
+      <c r="X6" s="43">
+        <f t="shared" si="8"/>
+        <v>1.4028525731481662E+22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>338</v>
       </c>
@@ -32037,9 +33260,41 @@
         <f t="shared" si="1"/>
         <v>1.6601657429031191E-3</v>
       </c>
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="46">
+        <v>-9.5788095000000002E-12</v>
+      </c>
+      <c r="O7" s="43">
+        <f t="shared" si="4"/>
+        <v>2.7706174830122166E-4</v>
+      </c>
+      <c r="P7" s="43">
+        <f t="shared" si="5"/>
+        <v>97.451200555645045</v>
+      </c>
       <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="44">
+        <v>-9.8255692045000004E-15</v>
+      </c>
+      <c r="S7" s="44">
+        <f t="shared" si="6"/>
+        <v>2.5102060457926623E-4</v>
+      </c>
+      <c r="T7" s="45">
+        <f t="shared" si="7"/>
+        <v>10.374106048227713</v>
+      </c>
+      <c r="V7" s="46">
+        <v>-2.4092211E-6</v>
+      </c>
+      <c r="X7" s="43">
+        <f t="shared" si="8"/>
+        <v>3.1085541076006018E+22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>348</v>
       </c>
@@ -32067,9 +33322,38 @@
         <f t="shared" si="1"/>
         <v>1.3515943758773408E-3</v>
       </c>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="46">
+        <v>9.4330296999999994E-15</v>
+      </c>
+      <c r="O8" s="43">
+        <f t="shared" si="4"/>
+        <v>1.8668503004626302E-4</v>
+      </c>
+      <c r="P8" s="43">
+        <f t="shared" si="5"/>
+        <v>107.13231797452498</v>
+      </c>
       <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S8" s="44">
+        <f t="shared" si="6"/>
+        <v>1.4147518053331254E-4</v>
+      </c>
+      <c r="T8" s="45">
+        <f t="shared" si="7"/>
+        <v>31.956028854336836</v>
+      </c>
+      <c r="V8" s="46">
+        <v>5.9705155E-4</v>
+      </c>
+      <c r="X8" s="43">
+        <f t="shared" si="8"/>
+        <v>6.4095207918437533E+22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>358</v>
       </c>
@@ -32097,9 +33381,38 @@
         <f t="shared" si="1"/>
         <v>1.1184203007312266E-3</v>
       </c>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="46">
+        <v>-5.2643677E-18</v>
+      </c>
+      <c r="O9" s="43">
+        <f t="shared" si="4"/>
+        <v>1.5517882244964198E-4</v>
+      </c>
+      <c r="P9" s="43">
+        <f t="shared" si="5"/>
+        <v>103.10685277427116</v>
+      </c>
       <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S9" s="44">
+        <f t="shared" si="6"/>
+        <v>1.9729778436528012E-4</v>
+      </c>
+      <c r="T9" s="45">
+        <f t="shared" si="7"/>
+        <v>-21.347914296725424</v>
+      </c>
+      <c r="V9" s="46">
+        <v>-8.3953589999999995E-2</v>
+      </c>
+      <c r="X9" s="43">
+        <f t="shared" si="8"/>
+        <v>1.2445410081349515E+23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>368</v>
       </c>
@@ -32127,9 +33440,38 @@
         <f t="shared" si="1"/>
         <v>9.4573983936524497E-4</v>
       </c>
+      <c r="L10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="46">
+        <v>1.2747820000000001E-21</v>
+      </c>
+      <c r="O10" s="43">
+        <f t="shared" si="4"/>
+        <v>9.7403479799140769E-5</v>
+      </c>
+      <c r="P10" s="43">
+        <f t="shared" si="5"/>
+        <v>123.19888390790177</v>
+      </c>
       <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S10" s="44">
+        <f t="shared" si="6"/>
+        <v>8.6937605553227826E-5</v>
+      </c>
+      <c r="T10" s="45">
+        <f t="shared" si="7"/>
+        <v>12.038374164221924</v>
+      </c>
+      <c r="V10" s="46">
+        <v>5.1346825999999997</v>
+      </c>
+      <c r="X10" s="43">
+        <f t="shared" si="8"/>
+        <v>2.2967263904956384E+23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>378</v>
       </c>
@@ -32143,18 +33485,21 @@
       </c>
       <c r="D11" s="15"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
+      <c r="G11">
+        <v>400</v>
+      </c>
       <c r="J11" s="32">
         <f t="shared" si="1"/>
         <v>8.2054792367941554E-4</v>
       </c>
+      <c r="M11" s="46"/>
+      <c r="O11" s="43">
+        <f t="shared" si="4"/>
+        <v>7.2886304002262037E-4</v>
+      </c>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>388</v>
       </c>
@@ -32168,13 +33513,20 @@
       </c>
       <c r="D12" s="15"/>
       <c r="F12" s="24"/>
+      <c r="G12">
+        <v>401</v>
+      </c>
       <c r="J12" s="32">
         <f t="shared" si="1"/>
         <v>7.3162232557305584E-4</v>
       </c>
+      <c r="O12" s="43">
+        <f t="shared" si="4"/>
+        <v>7.2106686412398702E-4</v>
+      </c>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>398</v>
       </c>
@@ -32188,13 +33540,20 @@
       </c>
       <c r="D13" s="15"/>
       <c r="F13" s="24"/>
+      <c r="G13">
+        <v>402</v>
+      </c>
       <c r="J13" s="32">
         <f t="shared" si="1"/>
         <v>6.6940788694708209E-4</v>
       </c>
+      <c r="O13" s="43">
+        <f t="shared" si="4"/>
+        <v>7.1336846193159609E-4</v>
+      </c>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>408</v>
       </c>
@@ -32208,13 +33567,20 @@
       </c>
       <c r="D14" s="15"/>
       <c r="F14" s="24"/>
+      <c r="G14">
+        <v>403</v>
+      </c>
       <c r="J14" s="32">
         <f t="shared" si="1"/>
         <v>6.2590074970109155E-4</v>
       </c>
+      <c r="O14" s="43">
+        <f t="shared" si="4"/>
+        <v>7.0576718360837454E-4</v>
+      </c>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>418</v>
       </c>
@@ -32228,13 +33594,20 @@
       </c>
       <c r="D15" s="15"/>
       <c r="F15" s="24"/>
+      <c r="G15">
+        <v>404</v>
+      </c>
       <c r="J15" s="32">
         <f t="shared" si="1"/>
         <v>5.9453258573566314E-4</v>
       </c>
+      <c r="O15" s="43">
+        <f t="shared" si="4"/>
+        <v>6.9826244037418661E-4</v>
+      </c>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>428</v>
       </c>
@@ -32248,13 +33621,20 @@
       </c>
       <c r="D16" s="15"/>
       <c r="F16" s="24"/>
+      <c r="G16">
+        <v>405</v>
+      </c>
       <c r="J16" s="32">
         <f t="shared" si="1"/>
         <v>5.7005482694910681E-4</v>
       </c>
+      <c r="O16" s="43">
+        <f t="shared" si="4"/>
+        <v>6.908536982154212E-4</v>
+      </c>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>438</v>
       </c>
@@ -32268,13 +33648,20 @@
       </c>
       <c r="D17" s="15"/>
       <c r="F17" s="24"/>
+      <c r="G17">
+        <v>406</v>
+      </c>
       <c r="J17" s="32">
         <f t="shared" si="1"/>
         <v>5.4842289524320575E-4</v>
       </c>
+      <c r="O17" s="43">
+        <f t="shared" si="4"/>
+        <v>6.8354047196905743E-4</v>
+      </c>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>448</v>
       </c>
@@ -32288,13 +33675,22 @@
       </c>
       <c r="D18" s="15"/>
       <c r="F18" s="24"/>
+      <c r="G18">
+        <v>407</v>
+      </c>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="32">
         <f t="shared" si="1"/>
         <v>5.2668043251741237E-4</v>
       </c>
+      <c r="O18" s="43">
+        <f t="shared" si="4"/>
+        <v>6.7632231913594687E-4</v>
+      </c>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>458</v>
       </c>
@@ -32308,13 +33704,20 @@
       </c>
       <c r="D19" s="15"/>
       <c r="F19" s="24"/>
+      <c r="G19">
+        <v>408</v>
+      </c>
       <c r="J19" s="32">
         <f t="shared" si="1"/>
         <v>5.0284353067170384E-4</v>
       </c>
+      <c r="O19" s="43">
+        <f t="shared" si="4"/>
+        <v>6.6919883464933161E-4</v>
+      </c>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>468</v>
       </c>
@@ -32328,13 +33731,20 @@
       </c>
       <c r="D20" s="15"/>
       <c r="F20" s="24"/>
+      <c r="G20">
+        <v>409</v>
+      </c>
       <c r="J20" s="32">
         <f t="shared" si="1"/>
         <v>4.7578496160566308E-4</v>
       </c>
+      <c r="O20" s="43">
+        <f t="shared" si="4"/>
+        <v>6.6216964539989043E-4</v>
+      </c>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>478</v>
       </c>
@@ -32348,13 +33758,20 @@
       </c>
       <c r="D21" s="15"/>
       <c r="F21" s="24"/>
+      <c r="G21">
+        <v>410</v>
+      </c>
       <c r="J21" s="32">
         <f t="shared" si="1"/>
         <v>4.4511840721911389E-4</v>
       </c>
+      <c r="O21" s="43">
+        <f t="shared" si="4"/>
+        <v>6.5523440504655639E-4</v>
+      </c>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>488</v>
       </c>
@@ -32368,13 +33785,23 @@
       </c>
       <c r="D22" s="15"/>
       <c r="F22" s="24"/>
+      <c r="G22">
+        <v>411</v>
+      </c>
       <c r="J22" s="32">
         <f t="shared" si="1"/>
         <v>4.1108268941364434E-4</v>
       </c>
+      <c r="O22" s="43">
+        <f t="shared" si="4"/>
+        <v>6.4839278948847223E-4</v>
+      </c>
       <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W22" s="46">
+        <v>1.2747820000000001E-21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>498</v>
       </c>
@@ -32388,13 +33815,23 @@
       </c>
       <c r="D23" s="15"/>
       <c r="F23" s="24"/>
+      <c r="G23">
+        <v>412</v>
+      </c>
       <c r="J23" s="32">
         <f t="shared" si="1"/>
         <v>3.7442600008746885E-4</v>
       </c>
+      <c r="O23" s="43">
+        <f t="shared" si="4"/>
+        <v>6.4164449208581331E-4</v>
+      </c>
       <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W23" s="46">
+        <v>-5.2643677E-18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>508</v>
       </c>
@@ -32408,13 +33845,23 @@
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="24"/>
+      <c r="G24">
+        <v>413</v>
+      </c>
       <c r="J24" s="32">
         <f t="shared" si="1"/>
         <v>3.3629013114139239E-4</v>
       </c>
+      <c r="O24" s="43">
+        <f t="shared" si="4"/>
+        <v>6.3498921938842656E-4</v>
+      </c>
       <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W24" s="46">
+        <v>9.4330296999999994E-15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>518</v>
       </c>
@@ -32428,13 +33875,23 @@
       </c>
       <c r="D25" s="15"/>
       <c r="F25" s="24"/>
+      <c r="G25">
+        <v>414</v>
+      </c>
       <c r="J25" s="32">
         <f t="shared" si="1"/>
         <v>2.9809470447567099E-4</v>
       </c>
+      <c r="O25" s="43">
+        <f t="shared" si="4"/>
+        <v>6.2842668692364434E-4</v>
+      </c>
       <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W25" s="46">
+        <v>-9.5788095000000002E-12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>528</v>
       </c>
@@ -32448,13 +33905,23 @@
       </c>
       <c r="D26" s="15"/>
       <c r="F26" s="24"/>
+      <c r="G26">
+        <v>415</v>
+      </c>
       <c r="J26" s="32">
         <f t="shared" si="1"/>
         <v>2.6142140198931463E-4</v>
       </c>
+      <c r="O26" s="43">
+        <f t="shared" si="4"/>
+        <v>6.2195661536534885E-4</v>
+      </c>
       <c r="Q26" s="5"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W26" s="46">
+        <v>6.0292345000000001E-9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>538</v>
       </c>
@@ -32468,13 +33935,23 @@
       </c>
       <c r="D27" s="15"/>
       <c r="F27" s="24"/>
+      <c r="G27">
+        <v>416</v>
+      </c>
       <c r="J27" s="32">
         <f t="shared" si="1"/>
         <v>2.2789819558405311E-4</v>
       </c>
+      <c r="O27" s="43">
+        <f t="shared" si="4"/>
+        <v>6.1557872691930804E-4</v>
+      </c>
       <c r="Q27" s="5"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W27" s="46">
+        <v>-2.4092211E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>548</v>
       </c>
@@ -32488,13 +33965,23 @@
       </c>
       <c r="D28" s="15"/>
       <c r="F28" s="24"/>
+      <c r="G28">
+        <v>417</v>
+      </c>
       <c r="J28" s="32">
         <f t="shared" si="1"/>
         <v>1.9908357715808789E-4</v>
       </c>
+      <c r="O28" s="43">
+        <f t="shared" si="4"/>
+        <v>6.0929274179000181E-4</v>
+      </c>
       <c r="Q28" s="5"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W28" s="46">
+        <v>5.9705155E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>558</v>
       </c>
@@ -32508,13 +33995,23 @@
       </c>
       <c r="D29" s="15"/>
       <c r="F29" s="24"/>
+      <c r="G29">
+        <v>418</v>
+      </c>
       <c r="J29" s="32">
         <f t="shared" si="1"/>
         <v>1.7635078861205633E-4</v>
       </c>
+      <c r="O29" s="43">
+        <f t="shared" si="4"/>
+        <v>6.0309837485816864E-4</v>
+      </c>
       <c r="Q29" s="5"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W29" s="46">
+        <v>-8.3953589999999995E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>568</v>
       </c>
@@ -32528,13 +34025,23 @@
       </c>
       <c r="D30" s="15"/>
       <c r="F30" s="24"/>
+      <c r="G30">
+        <v>419</v>
+      </c>
       <c r="J30" s="32">
         <f t="shared" si="1"/>
         <v>1.6077205184567012E-4</v>
       </c>
+      <c r="O30" s="43">
+        <f t="shared" si="4"/>
+        <v>5.969953327435995E-4</v>
+      </c>
       <c r="Q30" s="5"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W30" s="46">
+        <v>5.1346825999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>578</v>
       </c>
@@ -32548,13 +34055,20 @@
       </c>
       <c r="D31" s="15"/>
       <c r="F31" s="24"/>
+      <c r="G31">
+        <v>420</v>
+      </c>
       <c r="J31" s="32">
         <f t="shared" si="1"/>
         <v>1.530027987596827E-4</v>
       </c>
+      <c r="O31" s="43">
+        <f t="shared" si="4"/>
+        <v>5.9098331083751177E-4</v>
+      </c>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>588</v>
       </c>
@@ -32568,9 +34082,16 @@
       </c>
       <c r="D32" s="15"/>
       <c r="F32" s="24"/>
+      <c r="G32">
+        <v>421</v>
+      </c>
       <c r="J32" s="32">
         <f t="shared" si="1"/>
         <v>1.5316590125341589E-4</v>
+      </c>
+      <c r="O32" s="43">
+        <f t="shared" si="4"/>
+        <v>5.8506199074015441E-4</v>
       </c>
       <c r="Q32" s="5"/>
     </row>
@@ -32588,9 +34109,16 @@
       </c>
       <c r="D33" s="15"/>
       <c r="F33" s="24"/>
+      <c r="G33">
+        <v>422</v>
+      </c>
       <c r="J33" s="32">
         <f t="shared" si="1"/>
         <v>1.6073590122828163E-4</v>
+      </c>
+      <c r="O33" s="43">
+        <f t="shared" si="4"/>
+        <v>5.7923103774171203E-4</v>
       </c>
       <c r="Q33" s="5"/>
     </row>
@@ -32608,9 +34136,16 @@
       </c>
       <c r="D34" s="15"/>
       <c r="F34" s="24"/>
+      <c r="G34">
+        <v>423</v>
+      </c>
       <c r="J34" s="32">
         <f t="shared" si="1"/>
         <v>1.7442324058086767E-4</v>
+      </c>
+      <c r="O34" s="43">
+        <f t="shared" si="4"/>
+        <v>5.734900983831448E-4</v>
       </c>
       <c r="Q34" s="5"/>
     </row>
@@ -32628,9 +34163,16 @@
       </c>
       <c r="D35" s="15"/>
       <c r="F35" s="24"/>
+      <c r="G35">
+        <v>424</v>
+      </c>
       <c r="J35" s="32">
         <f t="shared" si="1"/>
         <v>1.9205849121489704E-4</v>
+      </c>
+      <c r="O35" s="43">
+        <f t="shared" si="4"/>
+        <v>5.678387985754707E-4</v>
       </c>
       <c r="Q35" s="5"/>
     </row>
@@ -32648,9 +34190,16 @@
       </c>
       <c r="D36" s="15"/>
       <c r="F36" s="24"/>
+      <c r="G36">
+        <v>425</v>
+      </c>
       <c r="J36" s="32">
         <f t="shared" si="1"/>
         <v>2.1047658502942879E-4</v>
+      </c>
+      <c r="O36" s="43">
+        <f t="shared" si="4"/>
+        <v>5.6227674151854146E-4</v>
       </c>
       <c r="Q36" s="5"/>
     </row>
@@ -32668,9 +34217,16 @@
       </c>
       <c r="D37" s="15"/>
       <c r="F37" s="24"/>
+      <c r="G37">
+        <v>426</v>
+      </c>
       <c r="J37" s="32">
         <f t="shared" si="1"/>
         <v>2.254010439243781E-4</v>
+      </c>
+      <c r="O37" s="43">
+        <f t="shared" si="4"/>
+        <v>5.568035058149956E-4</v>
       </c>
       <c r="Q37" s="5"/>
     </row>
@@ -32688,9 +34244,16 @@
       </c>
       <c r="D38" s="15"/>
       <c r="F38" s="24"/>
+      <c r="G38">
+        <v>427</v>
+      </c>
       <c r="J38" s="32">
         <f t="shared" si="1"/>
         <v>2.3132820979759883E-4</v>
+      </c>
+      <c r="O38" s="43">
+        <f t="shared" si="4"/>
+        <v>5.5141864403251972E-4</v>
       </c>
       <c r="Q38" s="5"/>
     </row>
@@ -32708,9 +34271,16 @@
       </c>
       <c r="D39" s="15"/>
       <c r="F39" s="24"/>
+      <c r="G39">
+        <v>428</v>
+      </c>
       <c r="J39" s="32">
         <f t="shared" si="1"/>
         <v>2.2141147455129184E-4</v>
+      </c>
+      <c r="O39" s="43">
+        <f t="shared" si="4"/>
+        <v>5.4612168112355697E-4</v>
       </c>
       <c r="Q39" s="5"/>
     </row>
@@ -32728,9 +34298,16 @@
       </c>
       <c r="D40" s="15"/>
       <c r="F40" s="24"/>
+      <c r="G40">
+        <v>429</v>
+      </c>
       <c r="J40" s="32">
         <f t="shared" si="1"/>
         <v>1.8734551008597888E-4</v>
+      </c>
+      <c r="O40" s="43">
+        <f t="shared" si="4"/>
+        <v>5.4091211320606014E-4</v>
       </c>
       <c r="Q40" s="5"/>
     </row>
@@ -32744,9 +34321,16 @@
       </c>
       <c r="D41" s="15"/>
       <c r="F41" s="24"/>
+      <c r="G41">
+        <v>430</v>
+      </c>
       <c r="J41" s="32">
         <f t="shared" si="1"/>
         <v>2.2141147455129184E-4</v>
+      </c>
+      <c r="O41" s="43">
+        <f t="shared" si="4"/>
+        <v>5.357894062318902E-4</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -32759,15 +34343,3341 @@
       </c>
       <c r="D42" s="15"/>
       <c r="F42" s="24"/>
+      <c r="G42">
+        <v>431</v>
+      </c>
       <c r="J42" s="32">
         <f t="shared" si="1"/>
         <v>1.8734551008597888E-4</v>
       </c>
+      <c r="O42" s="43">
+        <f t="shared" si="4"/>
+        <v>5.307529951801282E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>432</v>
+      </c>
+      <c r="O43" s="43">
+        <f t="shared" si="4"/>
+        <v>5.2580228303367171E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>433</v>
+      </c>
+      <c r="O44" s="43">
+        <f t="shared" si="4"/>
+        <v>5.2093663997010431E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>434</v>
+      </c>
+      <c r="O45" s="43">
+        <f t="shared" si="4"/>
+        <v>5.1615540292493378E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>435</v>
+      </c>
+      <c r="O46" s="43">
+        <f t="shared" si="4"/>
+        <v>5.1145787507311802E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>436</v>
+      </c>
+      <c r="O47" s="43">
+        <f t="shared" si="4"/>
+        <v>5.0684332530925857E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>437</v>
+      </c>
+      <c r="O48" s="43">
+        <f t="shared" si="4"/>
+        <v>5.0231098808795061E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>438</v>
+      </c>
+      <c r="O49" s="43">
+        <f t="shared" si="4"/>
+        <v>4.9786006325103216E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>439</v>
+      </c>
+      <c r="O50" s="43">
+        <f t="shared" si="4"/>
+        <v>4.9348971621410165E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>440</v>
+      </c>
+      <c r="O51" s="43">
+        <f t="shared" si="4"/>
+        <v>4.8919907766276083E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>441</v>
+      </c>
+      <c r="O52" s="43">
+        <f t="shared" si="4"/>
+        <v>4.8498724395229509E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>442</v>
+      </c>
+      <c r="O53" s="43">
+        <f t="shared" si="4"/>
+        <v>4.8085327743807582E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>443</v>
+      </c>
+      <c r="O54" s="43">
+        <f t="shared" si="4"/>
+        <v>4.7679620671425837E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>444</v>
+      </c>
+      <c r="O55" s="43">
+        <f t="shared" si="4"/>
+        <v>4.7281502709450862E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>445</v>
+      </c>
+      <c r="O56" s="43">
+        <f t="shared" si="4"/>
+        <v>4.6890870117644035E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>446</v>
+      </c>
+      <c r="O57" s="43">
+        <f t="shared" si="4"/>
+        <v>4.650761594422459E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>447</v>
+      </c>
+      <c r="O58" s="43">
+        <f t="shared" si="4"/>
+        <v>4.6131630105961108E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>448</v>
+      </c>
+      <c r="O59" s="43">
+        <f t="shared" si="4"/>
+        <v>4.5762799439286184E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>449</v>
+      </c>
+      <c r="O60" s="43">
+        <f t="shared" si="4"/>
+        <v>4.5401007827328144E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>450</v>
+      </c>
+      <c r="O61" s="43">
+        <f t="shared" si="4"/>
+        <v>4.5046136232596012E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>451</v>
+      </c>
+      <c r="O62" s="43">
+        <f t="shared" si="4"/>
+        <v>4.4698062857673193E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>452</v>
+      </c>
+      <c r="O63" s="43">
+        <f t="shared" si="4"/>
+        <v>4.4356663206590596E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>453</v>
+      </c>
+      <c r="O64" s="43">
+        <f t="shared" si="4"/>
+        <v>4.4021810199490474E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>454</v>
+      </c>
+      <c r="O65" s="43">
+        <f t="shared" si="4"/>
+        <v>4.3693374304831778E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>455</v>
+      </c>
+      <c r="O66" s="43">
+        <f t="shared" si="4"/>
+        <v>4.3371223633359435E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>456</v>
+      </c>
+      <c r="O67" s="43">
+        <f t="shared" ref="O67:O130" si="9">$M$2+$M$3*G67+$M$4*G67^2+$M$5*G67^3+$M$6*G67^4+$M$7*G67^5+$M$8*G67^6+$M$9*G67^7+$M$10*G67^8</f>
+        <v>4.3055224094645794E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>457</v>
+      </c>
+      <c r="O68" s="43">
+        <f t="shared" si="9"/>
+        <v>4.2745239496388976E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>458</v>
+      </c>
+      <c r="O69" s="43">
+        <f t="shared" si="9"/>
+        <v>4.244113168061503E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>459</v>
+      </c>
+      <c r="O70" s="43">
+        <f t="shared" si="9"/>
+        <v>4.2142760662899903E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>460</v>
+      </c>
+      <c r="O71" s="43">
+        <f t="shared" si="9"/>
+        <v>4.1849984795438999E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>461</v>
+      </c>
+      <c r="O72" s="43">
+        <f t="shared" si="9"/>
+        <v>4.1562660872340729E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>462</v>
+      </c>
+      <c r="O73" s="43">
+        <f t="shared" si="9"/>
+        <v>4.1280644297980729E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>463</v>
+      </c>
+      <c r="O74" s="43">
+        <f t="shared" si="9"/>
+        <v>4.1003789210014574E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>464</v>
+      </c>
+      <c r="O75" s="43">
+        <f t="shared" si="9"/>
+        <v>4.073194867149077E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>465</v>
+      </c>
+      <c r="O76" s="43">
+        <f t="shared" si="9"/>
+        <v>4.0464974790710428E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>466</v>
+      </c>
+      <c r="O77" s="43">
+        <f t="shared" si="9"/>
+        <v>4.0202718876747312E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>467</v>
+      </c>
+      <c r="O78" s="43">
+        <f t="shared" si="9"/>
+        <v>3.9945031591503977E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>468</v>
+      </c>
+      <c r="O79" s="43">
+        <f t="shared" si="9"/>
+        <v>3.969176313134426E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>469</v>
+      </c>
+      <c r="O80" s="43">
+        <f t="shared" si="9"/>
+        <v>3.9442763353747523E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>470</v>
+      </c>
+      <c r="O81" s="43">
+        <f t="shared" si="9"/>
+        <v>3.9197881964092574E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>471</v>
+      </c>
+      <c r="O82" s="43">
+        <f t="shared" si="9"/>
+        <v>3.8956968627568145E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>472</v>
+      </c>
+      <c r="O83" s="43">
+        <f t="shared" si="9"/>
+        <v>3.8719873192594179E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>473</v>
+      </c>
+      <c r="O84" s="43">
+        <f t="shared" si="9"/>
+        <v>3.8486445767427213E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>474</v>
+      </c>
+      <c r="O85" s="43">
+        <f t="shared" si="9"/>
+        <v>3.8256536959568876E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>475</v>
+      </c>
+      <c r="O86" s="43">
+        <f t="shared" si="9"/>
+        <v>3.8029997984168062E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>476</v>
+      </c>
+      <c r="O87" s="43">
+        <f t="shared" si="9"/>
+        <v>3.7806680822560779E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>477</v>
+      </c>
+      <c r="O88" s="43">
+        <f t="shared" si="9"/>
+        <v>3.7586438390135868E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>478</v>
+      </c>
+      <c r="O89" s="43">
+        <f t="shared" si="9"/>
+        <v>3.7369124691588596E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>479</v>
+      </c>
+      <c r="O90" s="43">
+        <f t="shared" si="9"/>
+        <v>3.7154594943444863E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>480</v>
+      </c>
+      <c r="O91" s="43">
+        <f t="shared" si="9"/>
+        <v>3.6942705785314445E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>481</v>
+      </c>
+      <c r="O92" s="43">
+        <f t="shared" si="9"/>
+        <v>3.673331534645996E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>482</v>
+      </c>
+      <c r="O93" s="43">
+        <f t="shared" si="9"/>
+        <v>3.6526283483873101E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>483</v>
+      </c>
+      <c r="O94" s="43">
+        <f t="shared" si="9"/>
+        <v>3.6321471837030828E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>484</v>
+      </c>
+      <c r="O95" s="43">
+        <f t="shared" si="9"/>
+        <v>3.6118744027691108E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>485</v>
+      </c>
+      <c r="O96" s="43">
+        <f t="shared" si="9"/>
+        <v>3.5917965784681982E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>486</v>
+      </c>
+      <c r="O97" s="43">
+        <f t="shared" si="9"/>
+        <v>3.5719005085965705E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>487</v>
+      </c>
+      <c r="O98" s="43">
+        <f t="shared" si="9"/>
+        <v>3.5521732262466799E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>488</v>
+      </c>
+      <c r="O99" s="43">
+        <f t="shared" si="9"/>
+        <v>3.532602017939368E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>489</v>
+      </c>
+      <c r="O100" s="43">
+        <f t="shared" si="9"/>
+        <v>3.5131744302230317E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>490</v>
+      </c>
+      <c r="O101" s="43">
+        <f t="shared" si="9"/>
+        <v>3.4938782877613761E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <v>491</v>
+      </c>
+      <c r="O102" s="43">
+        <f t="shared" si="9"/>
+        <v>3.474701701859928E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>492</v>
+      </c>
+      <c r="O103" s="43">
+        <f t="shared" si="9"/>
+        <v>3.4556330837975935E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>493</v>
+      </c>
+      <c r="O104" s="43">
+        <f t="shared" si="9"/>
+        <v>3.4366611531844171E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <v>494</v>
+      </c>
+      <c r="O105" s="43">
+        <f t="shared" si="9"/>
+        <v>3.4177749543040647E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <v>495</v>
+      </c>
+      <c r="O106" s="43">
+        <f t="shared" si="9"/>
+        <v>3.3989638601017447E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>496</v>
+      </c>
+      <c r="O107" s="43">
+        <f t="shared" si="9"/>
+        <v>3.3802175864749984E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>497</v>
+      </c>
+      <c r="O108" s="43">
+        <f t="shared" si="9"/>
+        <v>3.3615262000985524E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <v>498</v>
+      </c>
+      <c r="O109" s="43">
+        <f t="shared" si="9"/>
+        <v>3.3428801302992639E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>499</v>
+      </c>
+      <c r="O110" s="43">
+        <f t="shared" si="9"/>
+        <v>3.32427017179171E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>500</v>
+      </c>
+      <c r="O111" s="43">
+        <f t="shared" si="9"/>
+        <v>3.3056875002657193E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <v>501</v>
+      </c>
+      <c r="O112" s="43">
+        <f t="shared" si="9"/>
+        <v>3.2871236726883524E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>502</v>
+      </c>
+      <c r="O113" s="43">
+        <f t="shared" si="9"/>
+        <v>3.2685706430157779E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <v>503</v>
+      </c>
+      <c r="O114" s="43">
+        <f t="shared" si="9"/>
+        <v>3.2500207589158947E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <v>504</v>
+      </c>
+      <c r="O115" s="43">
+        <f t="shared" si="9"/>
+        <v>3.2314667774713257E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <v>505</v>
+      </c>
+      <c r="O116" s="43">
+        <f t="shared" si="9"/>
+        <v>3.2129018646198659E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <v>506</v>
+      </c>
+      <c r="O117" s="43">
+        <f t="shared" si="9"/>
+        <v>3.1943196021799736E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <v>507</v>
+      </c>
+      <c r="O118" s="43">
+        <f t="shared" si="9"/>
+        <v>3.1757139936328116E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <v>508</v>
+      </c>
+      <c r="O119" s="43">
+        <f t="shared" si="9"/>
+        <v>3.1570794695667814E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <v>509</v>
+      </c>
+      <c r="O120" s="43">
+        <f t="shared" si="9"/>
+        <v>3.1384108842136271E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <v>510</v>
+      </c>
+      <c r="O121" s="43">
+        <f t="shared" si="9"/>
+        <v>3.1197035261598671E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <v>511</v>
+      </c>
+      <c r="O122" s="43">
+        <f t="shared" si="9"/>
+        <v>3.1009531197234708E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <v>512</v>
+      </c>
+      <c r="O123" s="43">
+        <f t="shared" si="9"/>
+        <v>3.0821558230353929E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <v>513</v>
+      </c>
+      <c r="O124" s="43">
+        <f t="shared" si="9"/>
+        <v>3.0633082321429583E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <v>514</v>
+      </c>
+      <c r="O125" s="43">
+        <f t="shared" si="9"/>
+        <v>3.0444073838431507E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <v>515</v>
+      </c>
+      <c r="O126" s="43">
+        <f t="shared" si="9"/>
+        <v>3.0254507499005712E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <v>516</v>
+      </c>
+      <c r="O127" s="43">
+        <f t="shared" si="9"/>
+        <v>3.006436244268329E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <v>517</v>
+      </c>
+      <c r="O128" s="43">
+        <f t="shared" si="9"/>
+        <v>2.9873622158493873E-4</v>
+      </c>
+    </row>
+    <row r="129" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <v>518</v>
+      </c>
+      <c r="O129" s="43">
+        <f t="shared" si="9"/>
+        <v>2.9682274520048679E-4</v>
+      </c>
+    </row>
+    <row r="130" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <v>519</v>
+      </c>
+      <c r="O130" s="43">
+        <f t="shared" si="9"/>
+        <v>2.9490311721680484E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <v>520</v>
+      </c>
+      <c r="O131" s="43">
+        <f t="shared" ref="O131:O194" si="10">$M$2+$M$3*G131+$M$4*G131^2+$M$5*G131^3+$M$6*G131^4+$M$7*G131^5+$M$8*G131^6+$M$9*G131^7+$M$10*G131^8</f>
+        <v>2.9297730319388648E-4</v>
+      </c>
+    </row>
+    <row r="132" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <v>521</v>
+      </c>
+      <c r="O132" s="43">
+        <f t="shared" si="10"/>
+        <v>2.9104531096812991E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <v>522</v>
+      </c>
+      <c r="O133" s="43">
+        <f t="shared" si="10"/>
+        <v>2.8910719143304675E-4</v>
+      </c>
+    </row>
+    <row r="134" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <v>523</v>
+      </c>
+      <c r="O134" s="43">
+        <f t="shared" si="10"/>
+        <v>2.871630373810774E-4</v>
+      </c>
+    </row>
+    <row r="135" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <v>524</v>
+      </c>
+      <c r="O135" s="43">
+        <f t="shared" si="10"/>
+        <v>2.8521298315453691E-4</v>
+      </c>
+    </row>
+    <row r="136" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <v>525</v>
+      </c>
+      <c r="O136" s="43">
+        <f t="shared" si="10"/>
+        <v>2.8325720444222213E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <v>526</v>
+      </c>
+      <c r="O137" s="43">
+        <f t="shared" si="10"/>
+        <v>2.8129591718695224E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <v>527</v>
+      </c>
+      <c r="O138" s="43">
+        <f t="shared" si="10"/>
+        <v>2.7932937744523656E-4</v>
+      </c>
+    </row>
+    <row r="139" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <v>528</v>
+      </c>
+      <c r="O139" s="43">
+        <f t="shared" si="10"/>
+        <v>2.7735788031968411E-4</v>
+      </c>
+    </row>
+    <row r="140" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <v>529</v>
+      </c>
+      <c r="O140" s="43">
+        <f t="shared" si="10"/>
+        <v>2.7538175933816689E-4</v>
+      </c>
+    </row>
+    <row r="141" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <v>530</v>
+      </c>
+      <c r="O141" s="43">
+        <f t="shared" si="10"/>
+        <v>2.7340138583031859E-4</v>
+      </c>
+    </row>
+    <row r="142" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <v>531</v>
+      </c>
+      <c r="O142" s="43">
+        <f t="shared" si="10"/>
+        <v>2.7141716783418701E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <v>532</v>
+      </c>
+      <c r="O143" s="43">
+        <f t="shared" si="10"/>
+        <v>2.6942954919917383E-4</v>
+      </c>
+    </row>
+    <row r="144" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <v>533</v>
+      </c>
+      <c r="O144" s="43">
+        <f t="shared" si="10"/>
+        <v>2.67439008771575E-4</v>
+      </c>
+    </row>
+    <row r="145" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <v>534</v>
+      </c>
+      <c r="O145" s="43">
+        <f t="shared" si="10"/>
+        <v>2.6544605939804455E-4</v>
+      </c>
+    </row>
+    <row r="146" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <v>535</v>
+      </c>
+      <c r="O146" s="43">
+        <f t="shared" si="10"/>
+        <v>2.6345124670434927E-4</v>
+      </c>
+    </row>
+    <row r="147" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <v>536</v>
+      </c>
+      <c r="O147" s="43">
+        <f t="shared" si="10"/>
+        <v>2.6145514808462167E-4</v>
+      </c>
+    </row>
+    <row r="148" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <v>537</v>
+      </c>
+      <c r="O148" s="43">
+        <f t="shared" si="10"/>
+        <v>2.5945837153962259E-4</v>
+      </c>
+    </row>
+    <row r="149" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <v>538</v>
+      </c>
+      <c r="O149" s="43">
+        <f t="shared" si="10"/>
+        <v>2.5746155455586006E-4</v>
+      </c>
+    </row>
+    <row r="150" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <v>539</v>
+      </c>
+      <c r="O150" s="43">
+        <f t="shared" si="10"/>
+        <v>2.5546536272713638E-4</v>
+      </c>
+    </row>
+    <row r="151" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <v>540</v>
+      </c>
+      <c r="O151" s="43">
+        <f t="shared" si="10"/>
+        <v>2.534704883760952E-4</v>
+      </c>
+    </row>
+    <row r="152" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <v>541</v>
+      </c>
+      <c r="O152" s="43">
+        <f t="shared" si="10"/>
+        <v>2.5147764981703347E-4</v>
+      </c>
+    </row>
+    <row r="153" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <v>542</v>
+      </c>
+      <c r="O153" s="43">
+        <f t="shared" si="10"/>
+        <v>2.4948758887255451E-4</v>
+      </c>
+    </row>
+    <row r="154" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <v>543</v>
+      </c>
+      <c r="O154" s="43">
+        <f t="shared" si="10"/>
+        <v>2.4750107084337003E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <v>544</v>
+      </c>
+      <c r="O155" s="43">
+        <f t="shared" si="10"/>
+        <v>2.4551888149026979E-4</v>
+      </c>
+    </row>
+    <row r="156" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <v>545</v>
+      </c>
+      <c r="O156" s="43">
+        <f t="shared" si="10"/>
+        <v>2.4354182697194915E-4</v>
+      </c>
+    </row>
+    <row r="157" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>546</v>
+      </c>
+      <c r="O157" s="43">
+        <f t="shared" si="10"/>
+        <v>2.4157073153219244E-4</v>
+      </c>
+    </row>
+    <row r="158" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <v>547</v>
+      </c>
+      <c r="O158" s="43">
+        <f t="shared" si="10"/>
+        <v>2.3960643575371421E-4</v>
+      </c>
+    </row>
+    <row r="159" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>548</v>
+      </c>
+      <c r="O159" s="43">
+        <f t="shared" si="10"/>
+        <v>2.3764979592755253E-4</v>
+      </c>
+    </row>
+    <row r="160" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <v>549</v>
+      </c>
+      <c r="O160" s="43">
+        <f t="shared" si="10"/>
+        <v>2.3570168100661704E-4</v>
+      </c>
+    </row>
+    <row r="161" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <v>550</v>
+      </c>
+      <c r="O161" s="43">
+        <f t="shared" si="10"/>
+        <v>2.337629720994272E-4</v>
+      </c>
+    </row>
+    <row r="162" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <v>551</v>
+      </c>
+      <c r="O162" s="43">
+        <f t="shared" si="10"/>
+        <v>2.3183456044684192E-4</v>
+      </c>
+    </row>
+    <row r="163" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <v>552</v>
+      </c>
+      <c r="O163" s="43">
+        <f t="shared" si="10"/>
+        <v>2.299173455284631E-4</v>
+      </c>
+    </row>
+    <row r="164" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>553</v>
+      </c>
+      <c r="O164" s="43">
+        <f t="shared" si="10"/>
+        <v>2.2801223306601059E-4</v>
+      </c>
+    </row>
+    <row r="165" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>554</v>
+      </c>
+      <c r="O165" s="43">
+        <f t="shared" si="10"/>
+        <v>2.261201334707863E-4</v>
+      </c>
+    </row>
+    <row r="166" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <v>555</v>
+      </c>
+      <c r="O166" s="43">
+        <f t="shared" si="10"/>
+        <v>2.2424196080805814E-4</v>
+      </c>
+    </row>
+    <row r="167" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>556</v>
+      </c>
+      <c r="O167" s="43">
+        <f t="shared" si="10"/>
+        <v>2.223786296546848E-4</v>
+      </c>
+    </row>
+    <row r="168" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <v>557</v>
+      </c>
+      <c r="O168" s="43">
+        <f t="shared" si="10"/>
+        <v>2.2053105384856053E-4</v>
+      </c>
+    </row>
+    <row r="169" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <v>558</v>
+      </c>
+      <c r="O169" s="43">
+        <f t="shared" si="10"/>
+        <v>2.1870014478153621E-4</v>
+      </c>
+    </row>
+    <row r="170" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <v>559</v>
+      </c>
+      <c r="O170" s="43">
+        <f t="shared" si="10"/>
+        <v>2.1688680969944585E-4</v>
+      </c>
+    </row>
+    <row r="171" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <v>560</v>
+      </c>
+      <c r="O171" s="43">
+        <f t="shared" si="10"/>
+        <v>2.1509194845137358E-4</v>
+      </c>
+    </row>
+    <row r="172" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <v>561</v>
+      </c>
+      <c r="O172" s="43">
+        <f t="shared" si="10"/>
+        <v>2.1331645390887388E-4</v>
+      </c>
+    </row>
+    <row r="173" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <v>562</v>
+      </c>
+      <c r="O173" s="43">
+        <f t="shared" si="10"/>
+        <v>2.1156120769738607E-4</v>
+      </c>
+    </row>
+    <row r="174" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <v>563</v>
+      </c>
+      <c r="O174" s="43">
+        <f t="shared" si="10"/>
+        <v>2.0982707971661796E-4</v>
+      </c>
+    </row>
+    <row r="175" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <v>564</v>
+      </c>
+      <c r="O175" s="43">
+        <f t="shared" si="10"/>
+        <v>2.0811492592720526E-4</v>
+      </c>
+    </row>
+    <row r="176" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <v>565</v>
+      </c>
+      <c r="O176" s="43">
+        <f t="shared" si="10"/>
+        <v>2.0642558579986314E-4</v>
+      </c>
+    </row>
+    <row r="177" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <v>566</v>
+      </c>
+      <c r="O177" s="43">
+        <f t="shared" si="10"/>
+        <v>2.0475988141122059E-4</v>
+      </c>
+    </row>
+    <row r="178" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <v>567</v>
+      </c>
+      <c r="O178" s="43">
+        <f t="shared" si="10"/>
+        <v>2.0311861506883133E-4</v>
+      </c>
+    </row>
+    <row r="179" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <v>568</v>
+      </c>
+      <c r="O179" s="43">
+        <f t="shared" si="10"/>
+        <v>2.015025664849901E-4</v>
+      </c>
+    </row>
+    <row r="180" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <v>569</v>
+      </c>
+      <c r="O180" s="43">
+        <f t="shared" si="10"/>
+        <v>1.9991249255646437E-4</v>
+      </c>
+    </row>
+    <row r="181" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G181">
+        <v>570</v>
+      </c>
+      <c r="O181" s="43">
+        <f t="shared" si="10"/>
+        <v>1.9834912418303929E-4</v>
+      </c>
+    </row>
+    <row r="182" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G182">
+        <v>571</v>
+      </c>
+      <c r="O182" s="43">
+        <f t="shared" si="10"/>
+        <v>1.968131647966942E-4</v>
+      </c>
+    </row>
+    <row r="183" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <v>572</v>
+      </c>
+      <c r="O183" s="43">
+        <f t="shared" si="10"/>
+        <v>1.9530528848044071E-4</v>
+      </c>
+    </row>
+    <row r="184" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <v>573</v>
+      </c>
+      <c r="O184" s="43">
+        <f t="shared" si="10"/>
+        <v>1.9382613814400429E-4</v>
+      </c>
+    </row>
+    <row r="185" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <v>574</v>
+      </c>
+      <c r="O185" s="43">
+        <f t="shared" si="10"/>
+        <v>1.9237632342772315E-4</v>
+      </c>
+    </row>
+    <row r="186" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <v>575</v>
+      </c>
+      <c r="O186" s="43">
+        <f t="shared" si="10"/>
+        <v>1.9095641939514962E-4</v>
+      </c>
+    </row>
+    <row r="187" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <v>576</v>
+      </c>
+      <c r="O187" s="43">
+        <f t="shared" si="10"/>
+        <v>1.8956696426997155E-4</v>
+      </c>
+    </row>
+    <row r="188" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G188">
+        <v>577</v>
+      </c>
+      <c r="O188" s="43">
+        <f t="shared" si="10"/>
+        <v>1.8820845761702287E-4</v>
+      </c>
+    </row>
+    <row r="189" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G189">
+        <v>578</v>
+      </c>
+      <c r="O189" s="43">
+        <f t="shared" si="10"/>
+        <v>1.8688135937416916E-4</v>
+      </c>
+    </row>
+    <row r="190" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <v>579</v>
+      </c>
+      <c r="O190" s="43">
+        <f t="shared" si="10"/>
+        <v>1.8558608701013668E-4</v>
+      </c>
+    </row>
+    <row r="191" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <v>580</v>
+      </c>
+      <c r="O191" s="43">
+        <f t="shared" si="10"/>
+        <v>1.8432301523674255E-4</v>
+      </c>
+    </row>
+    <row r="192" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G192">
+        <v>581</v>
+      </c>
+      <c r="O192" s="43">
+        <f t="shared" si="10"/>
+        <v>1.83092472624935E-4</v>
+      </c>
+    </row>
+    <row r="193" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <v>582</v>
+      </c>
+      <c r="O193" s="43">
+        <f t="shared" si="10"/>
+        <v>1.8189474219809654E-4</v>
+      </c>
+    </row>
+    <row r="194" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G194">
+        <v>583</v>
+      </c>
+      <c r="O194" s="43">
+        <f t="shared" si="10"/>
+        <v>1.8073005794150276E-4</v>
+      </c>
+    </row>
+    <row r="195" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <v>584</v>
+      </c>
+      <c r="O195" s="43">
+        <f t="shared" ref="O195:O258" si="11">$M$2+$M$3*G195+$M$4*G195^2+$M$5*G195^3+$M$6*G195^4+$M$7*G195^5+$M$8*G195^6+$M$9*G195^7+$M$10*G195^8</f>
+        <v>1.7959860460692312E-4</v>
+      </c>
+    </row>
+    <row r="196" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G196">
+        <v>585</v>
+      </c>
+      <c r="O196" s="43">
+        <f t="shared" si="11"/>
+        <v>1.7850051565559966E-4</v>
+      </c>
+    </row>
+    <row r="197" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G197">
+        <v>586</v>
+      </c>
+      <c r="O197" s="43">
+        <f t="shared" si="11"/>
+        <v>1.7743587238072678E-4</v>
+      </c>
+    </row>
+    <row r="198" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G198">
+        <v>587</v>
+      </c>
+      <c r="O198" s="43">
+        <f t="shared" si="11"/>
+        <v>1.7640470192503699E-4</v>
+      </c>
+    </row>
+    <row r="199" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G199">
+        <v>588</v>
+      </c>
+      <c r="O199" s="43">
+        <f t="shared" si="11"/>
+        <v>1.7540697718487763E-4</v>
+      </c>
+    </row>
+    <row r="200" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G200">
+        <v>589</v>
+      </c>
+      <c r="O200" s="43">
+        <f t="shared" si="11"/>
+        <v>1.7444261428423147E-4</v>
+      </c>
+    </row>
+    <row r="201" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G201">
+        <v>590</v>
+      </c>
+      <c r="O201" s="43">
+        <f t="shared" si="11"/>
+        <v>1.7351147243616083E-4</v>
+      </c>
+    </row>
+    <row r="202" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <v>591</v>
+      </c>
+      <c r="O202" s="43">
+        <f t="shared" si="11"/>
+        <v>1.7261335254303845E-4</v>
+      </c>
+    </row>
+    <row r="203" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G203">
+        <v>592</v>
+      </c>
+      <c r="O203" s="43">
+        <f t="shared" si="11"/>
+        <v>1.717479969798319E-4</v>
+      </c>
+    </row>
+    <row r="204" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <v>593</v>
+      </c>
+      <c r="O204" s="43">
+        <f t="shared" si="11"/>
+        <v>1.7091508735234129E-4</v>
+      </c>
+    </row>
+    <row r="205" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <v>594</v>
+      </c>
+      <c r="O205" s="43">
+        <f t="shared" si="11"/>
+        <v>1.7011424510471329E-4</v>
+      </c>
+    </row>
+    <row r="206" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <v>595</v>
+      </c>
+      <c r="O206" s="43">
+        <f t="shared" si="11"/>
+        <v>1.6934502995624712E-4</v>
+      </c>
+    </row>
+    <row r="207" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G207">
+        <v>596</v>
+      </c>
+      <c r="O207" s="43">
+        <f t="shared" si="11"/>
+        <v>1.686069401287682E-4</v>
+      </c>
+    </row>
+    <row r="208" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G208">
+        <v>597</v>
+      </c>
+      <c r="O208" s="43">
+        <f t="shared" si="11"/>
+        <v>1.6789941100370243E-4</v>
+      </c>
+    </row>
+    <row r="209" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <v>598</v>
+      </c>
+      <c r="O209" s="43">
+        <f t="shared" si="11"/>
+        <v>1.6722181520023582E-4</v>
+      </c>
+    </row>
+    <row r="210" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G210">
+        <v>599</v>
+      </c>
+      <c r="O210" s="43">
+        <f t="shared" si="11"/>
+        <v>1.6657346268900142E-4</v>
+      </c>
+    </row>
+    <row r="211" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G211">
+        <v>600</v>
+      </c>
+      <c r="O211" s="43">
+        <f t="shared" si="11"/>
+        <v>1.6595360003179849E-4</v>
+      </c>
+    </row>
+    <row r="212" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G212">
+        <v>601</v>
+      </c>
+      <c r="O212" s="43">
+        <f t="shared" si="11"/>
+        <v>1.6536141021106232E-4</v>
+      </c>
+    </row>
+    <row r="213" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G213">
+        <v>602</v>
+      </c>
+      <c r="O213" s="43">
+        <f t="shared" si="11"/>
+        <v>1.6479601404384425E-4</v>
+      </c>
+    </row>
+    <row r="214" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G214">
+        <v>603</v>
+      </c>
+      <c r="O214" s="43">
+        <f t="shared" si="11"/>
+        <v>1.6425646832374241E-4</v>
+      </c>
+    </row>
+    <row r="215" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G215">
+        <v>604</v>
+      </c>
+      <c r="O215" s="43">
+        <f t="shared" si="11"/>
+        <v>1.6374176810529661E-4</v>
+      </c>
+    </row>
+    <row r="216" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G216">
+        <v>605</v>
+      </c>
+      <c r="O216" s="43">
+        <f t="shared" si="11"/>
+        <v>1.6325084556356728E-4</v>
+      </c>
+    </row>
+    <row r="217" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G217">
+        <v>606</v>
+      </c>
+      <c r="O217" s="43">
+        <f t="shared" si="11"/>
+        <v>1.6278257245971872E-4</v>
+      </c>
+    </row>
+    <row r="218" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G218">
+        <v>607</v>
+      </c>
+      <c r="O218" s="43">
+        <f t="shared" si="11"/>
+        <v>1.6233575859203597E-4</v>
+      </c>
+    </row>
+    <row r="219" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G219">
+        <v>608</v>
+      </c>
+      <c r="O219" s="43">
+        <f t="shared" si="11"/>
+        <v>1.6190915476244072E-4</v>
+      </c>
+    </row>
+    <row r="220" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G220">
+        <v>609</v>
+      </c>
+      <c r="O220" s="43">
+        <f t="shared" si="11"/>
+        <v>1.6150145286886186E-4</v>
+      </c>
+    </row>
+    <row r="221" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G221">
+        <v>610</v>
+      </c>
+      <c r="O221" s="43">
+        <f t="shared" si="11"/>
+        <v>1.6111128701012944E-4</v>
+      </c>
+    </row>
+    <row r="222" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G222">
+        <v>611</v>
+      </c>
+      <c r="O222" s="43">
+        <f t="shared" si="11"/>
+        <v>1.607372351521974E-4</v>
+      </c>
+    </row>
+    <row r="223" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G223">
+        <v>612</v>
+      </c>
+      <c r="O223" s="43">
+        <f t="shared" si="11"/>
+        <v>1.6037782073752282E-4</v>
+      </c>
+    </row>
+    <row r="224" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G224">
+        <v>613</v>
+      </c>
+      <c r="O224" s="43">
+        <f t="shared" si="11"/>
+        <v>1.6003151407772975E-4</v>
+      </c>
+    </row>
+    <row r="225" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G225">
+        <v>614</v>
+      </c>
+      <c r="O225" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5969673417615127E-4</v>
+      </c>
+    </row>
+    <row r="226" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G226">
+        <v>615</v>
+      </c>
+      <c r="O226" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5937185125736164E-4</v>
+      </c>
+    </row>
+    <row r="227" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G227">
+        <v>616</v>
+      </c>
+      <c r="O227" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5905518900183324E-4</v>
+      </c>
+    </row>
+    <row r="228" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G228">
+        <v>617</v>
+      </c>
+      <c r="O228" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5874502619084296E-4</v>
+      </c>
+    </row>
+    <row r="229" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G229">
+        <v>618</v>
+      </c>
+      <c r="O229" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5843959985772926E-4</v>
+      </c>
+    </row>
+    <row r="230" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G230">
+        <v>619</v>
+      </c>
+      <c r="O230" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5813710849599261E-4</v>
+      </c>
+    </row>
+    <row r="231" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G231">
+        <v>620</v>
+      </c>
+      <c r="O231" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5783571473448887E-4</v>
+      </c>
+    </row>
+    <row r="232" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G232">
+        <v>621</v>
+      </c>
+      <c r="O232" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5753354794156849E-4</v>
+      </c>
+    </row>
+    <row r="233" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G233">
+        <v>622</v>
+      </c>
+      <c r="O233" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5722870882584061E-4</v>
+      </c>
+    </row>
+    <row r="234" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G234">
+        <v>623</v>
+      </c>
+      <c r="O234" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5691927243466353E-4</v>
+      </c>
+    </row>
+    <row r="235" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G235">
+        <v>624</v>
+      </c>
+      <c r="O235" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5660329198752265E-4</v>
+      </c>
+    </row>
+    <row r="236" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G236">
+        <v>625</v>
+      </c>
+      <c r="O236" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5627880339152966E-4</v>
+      </c>
+    </row>
+    <row r="237" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G237">
+        <v>626</v>
+      </c>
+      <c r="O237" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5594382951178432E-4</v>
+      </c>
+    </row>
+    <row r="238" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G238">
+        <v>627</v>
+      </c>
+      <c r="O238" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5559638421436262E-4</v>
+      </c>
+    </row>
+    <row r="239" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G239">
+        <v>628</v>
+      </c>
+      <c r="O239" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5523447848764249E-4</v>
+      </c>
+    </row>
+    <row r="240" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G240">
+        <v>629</v>
+      </c>
+      <c r="O240" s="43">
+        <f t="shared" si="11"/>
+        <v>1.548561239239632E-4</v>
+      </c>
+    </row>
+    <row r="241" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G241">
+        <v>630</v>
+      </c>
+      <c r="O241" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5445933975044568E-4</v>
+      </c>
+    </row>
+    <row r="242" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G242">
+        <v>631</v>
+      </c>
+      <c r="O242" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5404215683645361E-4</v>
+      </c>
+    </row>
+    <row r="243" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G243">
+        <v>632</v>
+      </c>
+      <c r="O243" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5360262509034328E-4</v>
+      </c>
+    </row>
+    <row r="244" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G244">
+        <v>633</v>
+      </c>
+      <c r="O244" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5313881878853408E-4</v>
+      </c>
+    </row>
+    <row r="245" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G245">
+        <v>634</v>
+      </c>
+      <c r="O245" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5264884275012491E-4</v>
+      </c>
+    </row>
+    <row r="246" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G246">
+        <v>635</v>
+      </c>
+      <c r="O246" s="43">
+        <f t="shared" si="11"/>
+        <v>1.521308406040589E-4</v>
+      </c>
+    </row>
+    <row r="247" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G247">
+        <v>636</v>
+      </c>
+      <c r="O247" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5158299959949773E-4</v>
+      </c>
+    </row>
+    <row r="248" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G248">
+        <v>637</v>
+      </c>
+      <c r="O248" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5100355994945858E-4</v>
+      </c>
+    </row>
+    <row r="249" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G249">
+        <v>638</v>
+      </c>
+      <c r="O249" s="43">
+        <f t="shared" si="11"/>
+        <v>1.5039082160228645E-4</v>
+      </c>
+    </row>
+    <row r="250" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G250">
+        <v>639</v>
+      </c>
+      <c r="O250" s="43">
+        <f t="shared" si="11"/>
+        <v>1.4974315177340713E-4</v>
+      </c>
+    </row>
+    <row r="251" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G251">
+        <v>640</v>
+      </c>
+      <c r="O251" s="43">
+        <f t="shared" si="11"/>
+        <v>1.4905899449502158E-4</v>
+      </c>
+    </row>
+    <row r="252" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G252">
+        <v>641</v>
+      </c>
+      <c r="O252" s="43">
+        <f t="shared" si="11"/>
+        <v>1.4833687843918142E-4</v>
+      </c>
+    </row>
+    <row r="253" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G253">
+        <v>642</v>
+      </c>
+      <c r="O253" s="43">
+        <f t="shared" si="11"/>
+        <v>1.4757542514587385E-4</v>
+      </c>
+    </row>
+    <row r="254" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G254">
+        <v>643</v>
+      </c>
+      <c r="O254" s="43">
+        <f t="shared" si="11"/>
+        <v>1.4677335999380148E-4</v>
+      </c>
+    </row>
+    <row r="255" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G255">
+        <v>644</v>
+      </c>
+      <c r="O255" s="43">
+        <f t="shared" si="11"/>
+        <v>1.4592951988845471E-4</v>
+      </c>
+    </row>
+    <row r="256" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G256">
+        <v>645</v>
+      </c>
+      <c r="O256" s="43">
+        <f t="shared" si="11"/>
+        <v>1.4504286547634138E-4</v>
+      </c>
+    </row>
+    <row r="257" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G257">
+        <v>646</v>
+      </c>
+      <c r="O257" s="43">
+        <f t="shared" si="11"/>
+        <v>1.4411248970702673E-4</v>
+      </c>
+    </row>
+    <row r="258" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G258">
+        <v>647</v>
+      </c>
+      <c r="O258" s="43">
+        <f t="shared" si="11"/>
+        <v>1.4313762856943413E-4</v>
+      </c>
+    </row>
+    <row r="259" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G259">
+        <v>648</v>
+      </c>
+      <c r="O259" s="43">
+        <f t="shared" ref="O259:O322" si="12">$M$2+$M$3*G259+$M$4*G259^2+$M$5*G259^3+$M$6*G259^4+$M$7*G259^5+$M$8*G259^6+$M$9*G259^7+$M$10*G259^8</f>
+        <v>1.4211767356187011E-4</v>
+      </c>
+    </row>
+    <row r="260" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G260">
+        <v>649</v>
+      </c>
+      <c r="O260" s="43">
+        <f t="shared" si="12"/>
+        <v>1.4105218144067067E-4</v>
+      </c>
+    </row>
+    <row r="261" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G261">
+        <v>650</v>
+      </c>
+      <c r="O261" s="43">
+        <f t="shared" si="12"/>
+        <v>1.3994088767077528E-4</v>
+      </c>
+    </row>
+    <row r="262" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G262">
+        <v>651</v>
+      </c>
+      <c r="O262" s="43">
+        <f t="shared" si="12"/>
+        <v>1.3878371711228965E-4</v>
+      </c>
+    </row>
+    <row r="263" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G263">
+        <v>652</v>
+      </c>
+      <c r="O263" s="43">
+        <f t="shared" si="12"/>
+        <v>1.3758079776238219E-4</v>
+      </c>
+    </row>
+    <row r="264" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G264">
+        <v>653</v>
+      </c>
+      <c r="O264" s="43">
+        <f t="shared" si="12"/>
+        <v>1.363324730547788E-4</v>
+      </c>
+    </row>
+    <row r="265" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G265">
+        <v>654</v>
+      </c>
+      <c r="O265" s="43">
+        <f t="shared" si="12"/>
+        <v>1.3503931587877105E-4</v>
+      </c>
+    </row>
+    <row r="266" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G266">
+        <v>655</v>
+      </c>
+      <c r="O266" s="43">
+        <f t="shared" si="12"/>
+        <v>1.3370214203689557E-4</v>
+      </c>
+    </row>
+    <row r="267" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G267">
+        <v>656</v>
+      </c>
+      <c r="O267" s="43">
+        <f t="shared" si="12"/>
+        <v>1.3232202449131591E-4</v>
+      </c>
+    </row>
+    <row r="268" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G268">
+        <v>657</v>
+      </c>
+      <c r="O268" s="43">
+        <f t="shared" si="12"/>
+        <v>1.3090030871154568E-4</v>
+      </c>
+    </row>
+    <row r="269" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G269">
+        <v>658</v>
+      </c>
+      <c r="O269" s="43">
+        <f t="shared" si="12"/>
+        <v>1.29438626167655E-4</v>
+      </c>
+    </row>
+    <row r="270" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G270">
+        <v>659</v>
+      </c>
+      <c r="O270" s="43">
+        <f t="shared" si="12"/>
+        <v>1.2793891215778785E-4</v>
+      </c>
+    </row>
+    <row r="271" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G271">
+        <v>660</v>
+      </c>
+      <c r="O271" s="43">
+        <f t="shared" si="12"/>
+        <v>1.2640342025349582E-4</v>
+      </c>
+    </row>
+    <row r="272" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G272">
+        <v>661</v>
+      </c>
+      <c r="O272" s="43">
+        <f t="shared" si="12"/>
+        <v>1.2483473927460409E-4</v>
+      </c>
+    </row>
+    <row r="273" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G273">
+        <v>662</v>
+      </c>
+      <c r="O273" s="43">
+        <f t="shared" si="12"/>
+        <v>1.2323581023565566E-4</v>
+      </c>
+    </row>
+    <row r="274" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G274">
+        <v>663</v>
+      </c>
+      <c r="O274" s="43">
+        <f t="shared" si="12"/>
+        <v>1.2160994423737748E-4</v>
+      </c>
+    </row>
+    <row r="275" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G275">
+        <v>664</v>
+      </c>
+      <c r="O275" s="43">
+        <f t="shared" si="12"/>
+        <v>1.1996083924259437E-4</v>
+      </c>
+    </row>
+    <row r="276" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G276">
+        <v>665</v>
+      </c>
+      <c r="O276" s="43">
+        <f t="shared" si="12"/>
+        <v>1.1829260006379627E-4</v>
+      </c>
+    </row>
+    <row r="277" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G277">
+        <v>666</v>
+      </c>
+      <c r="O277" s="43">
+        <f t="shared" si="12"/>
+        <v>1.1660975557248321E-4</v>
+      </c>
+    </row>
+    <row r="278" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G278">
+        <v>667</v>
+      </c>
+      <c r="O278" s="43">
+        <f t="shared" si="12"/>
+        <v>1.1491727956070008E-4</v>
+      </c>
+    </row>
+    <row r="279" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G279">
+        <v>668</v>
+      </c>
+      <c r="O279" s="43">
+        <f t="shared" si="12"/>
+        <v>1.1322060995411221E-4</v>
+      </c>
+    </row>
+    <row r="280" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G280">
+        <v>669</v>
+      </c>
+      <c r="O280" s="43">
+        <f t="shared" si="12"/>
+        <v>1.1152566958827492E-4</v>
+      </c>
+    </row>
+    <row r="281" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G281">
+        <v>670</v>
+      </c>
+      <c r="O281" s="43">
+        <f t="shared" si="12"/>
+        <v>1.0983888603277592E-4</v>
+      </c>
+    </row>
+    <row r="282" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G282">
+        <v>671</v>
+      </c>
+      <c r="O282" s="43">
+        <f t="shared" si="12"/>
+        <v>1.0816721583495337E-4</v>
+      </c>
+    </row>
+    <row r="283" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G283">
+        <v>672</v>
+      </c>
+      <c r="O283" s="43">
+        <f t="shared" si="12"/>
+        <v>1.0651816290163652E-4</v>
+      </c>
+    </row>
+    <row r="284" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G284">
+        <v>673</v>
+      </c>
+      <c r="O284" s="43">
+        <f t="shared" si="12"/>
+        <v>1.0489980483185946E-4</v>
+      </c>
+    </row>
+    <row r="285" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G285">
+        <v>674</v>
+      </c>
+      <c r="O285" s="43">
+        <f t="shared" si="12"/>
+        <v>1.0332081296837714E-4</v>
+      </c>
+    </row>
+    <row r="286" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G286">
+        <v>675</v>
+      </c>
+      <c r="O286" s="43">
+        <f t="shared" si="12"/>
+        <v>1.0179047730218826E-4</v>
+      </c>
+    </row>
+    <row r="287" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G287">
+        <v>676</v>
+      </c>
+      <c r="O287" s="43">
+        <f t="shared" si="12"/>
+        <v>1.0031873259919166E-4</v>
+      </c>
+    </row>
+    <row r="288" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G288">
+        <v>677</v>
+      </c>
+      <c r="O288" s="43">
+        <f t="shared" si="12"/>
+        <v>9.8916179865682352E-5</v>
+      </c>
+    </row>
+    <row r="289" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G289">
+        <v>678</v>
+      </c>
+      <c r="O289" s="43">
+        <f t="shared" si="12"/>
+        <v>9.7594114421895028E-5</v>
+      </c>
+    </row>
+    <row r="290" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G290">
+        <v>679</v>
+      </c>
+      <c r="O290" s="43">
+        <f t="shared" si="12"/>
+        <v>9.6364551247063446E-5</v>
+      </c>
+    </row>
+    <row r="291" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G291">
+        <v>680</v>
+      </c>
+      <c r="O291" s="43">
+        <f t="shared" si="12"/>
+        <v>9.524025143292647E-5</v>
+      </c>
+    </row>
+    <row r="292" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G292">
+        <v>681</v>
+      </c>
+      <c r="O292" s="43">
+        <f t="shared" si="12"/>
+        <v>9.4234749219879177E-5</v>
+      </c>
+    </row>
+    <row r="293" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G293">
+        <v>682</v>
+      </c>
+      <c r="O293" s="43">
+        <f t="shared" si="12"/>
+        <v>9.3362381655026638E-5</v>
+      </c>
+    </row>
+    <row r="294" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G294">
+        <v>683</v>
+      </c>
+      <c r="O294" s="43">
+        <f t="shared" si="12"/>
+        <v>9.2638314264092969E-5</v>
+      </c>
+    </row>
+    <row r="295" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G295">
+        <v>684</v>
+      </c>
+      <c r="O295" s="43">
+        <f t="shared" si="12"/>
+        <v>9.2078573004528153E-5</v>
+      </c>
+    </row>
+    <row r="296" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G296">
+        <v>685</v>
+      </c>
+      <c r="O296" s="43">
+        <f t="shared" si="12"/>
+        <v>9.1700072779588027E-5</v>
+      </c>
+    </row>
+    <row r="297" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G297">
+        <v>686</v>
+      </c>
+      <c r="O297" s="43">
+        <f t="shared" si="12"/>
+        <v>9.1520648375364999E-5</v>
+      </c>
+    </row>
+    <row r="298" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G298">
+        <v>687</v>
+      </c>
+      <c r="O298" s="43">
+        <f t="shared" si="12"/>
+        <v>9.1559085014125685E-5</v>
+      </c>
+    </row>
+    <row r="299" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G299">
+        <v>688</v>
+      </c>
+      <c r="O299" s="43">
+        <f t="shared" si="12"/>
+        <v>9.1835151067698462E-5</v>
+      </c>
+    </row>
+    <row r="300" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G300">
+        <v>689</v>
+      </c>
+      <c r="O300" s="43">
+        <f t="shared" si="12"/>
+        <v>9.2369630166899697E-5</v>
+      </c>
+    </row>
+    <row r="301" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G301">
+        <v>690</v>
+      </c>
+      <c r="O301" s="43">
+        <f t="shared" si="12"/>
+        <v>9.3184354241770961E-5</v>
+      </c>
+    </row>
+    <row r="302" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G302">
+        <v>691</v>
+      </c>
+      <c r="O302" s="43">
+        <f t="shared" si="12"/>
+        <v>9.4302238352383938E-5</v>
+      </c>
+    </row>
+    <row r="303" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G303">
+        <v>692</v>
+      </c>
+      <c r="O303" s="43">
+        <f t="shared" si="12"/>
+        <v>9.5747314048821863E-5</v>
+      </c>
+    </row>
+    <row r="304" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G304">
+        <v>693</v>
+      </c>
+      <c r="O304" s="43">
+        <f t="shared" si="12"/>
+        <v>9.7544766134660676E-5</v>
+      </c>
+    </row>
+    <row r="305" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G305">
+        <v>694</v>
+      </c>
+      <c r="O305" s="43">
+        <f t="shared" si="12"/>
+        <v>9.9720967071448285E-5</v>
+      </c>
+    </row>
+    <row r="306" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G306">
+        <v>695</v>
+      </c>
+      <c r="O306" s="43">
+        <f t="shared" si="12"/>
+        <v>1.0230351561801854E-4</v>
+      </c>
+    </row>
+    <row r="307" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G307">
+        <v>696</v>
+      </c>
+      <c r="O307" s="43">
+        <f t="shared" si="12"/>
+        <v>1.0532127348028553E-4</v>
+      </c>
+    </row>
+    <row r="308" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G308">
+        <v>697</v>
+      </c>
+      <c r="O308" s="43">
+        <f t="shared" si="12"/>
+        <v>1.088044038795033E-4</v>
+      </c>
+    </row>
+    <row r="309" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G309">
+        <v>698</v>
+      </c>
+      <c r="O309" s="43">
+        <f t="shared" si="12"/>
+        <v>1.1278441056106203E-4</v>
+      </c>
+    </row>
+    <row r="310" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G310">
+        <v>699</v>
+      </c>
+      <c r="O310" s="43">
+        <f t="shared" si="12"/>
+        <v>1.1729417745698356E-4</v>
+      </c>
+    </row>
+    <row r="311" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G311">
+        <v>700</v>
+      </c>
+      <c r="O311" s="43">
+        <f t="shared" si="12"/>
+        <v>1.2236800985476748E-4</v>
+      </c>
+    </row>
+    <row r="312" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G312">
+        <v>701</v>
+      </c>
+      <c r="O312" s="43">
+        <f t="shared" si="12"/>
+        <v>1.2804167559465895E-4</v>
+      </c>
+    </row>
+    <row r="313" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G313">
+        <v>702</v>
+      </c>
+      <c r="O313" s="43">
+        <f t="shared" si="12"/>
+        <v>1.3435244716220041E-4</v>
+      </c>
+    </row>
+    <row r="314" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G314">
+        <v>703</v>
+      </c>
+      <c r="O314" s="43">
+        <f t="shared" si="12"/>
+        <v>1.4133914478975385E-4</v>
+      </c>
+    </row>
+    <row r="315" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G315">
+        <v>704</v>
+      </c>
+      <c r="O315" s="43">
+        <f t="shared" si="12"/>
+        <v>1.4904218187439255E-4</v>
+      </c>
+    </row>
+    <row r="316" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G316">
+        <v>705</v>
+      </c>
+      <c r="O316" s="43">
+        <f t="shared" si="12"/>
+        <v>1.575036069283442E-4</v>
+      </c>
+    </row>
+    <row r="317" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G317">
+        <v>706</v>
+      </c>
+      <c r="O317" s="43">
+        <f t="shared" si="12"/>
+        <v>1.6676715048902224E-4</v>
+      </c>
+    </row>
+    <row r="318" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G318">
+        <v>707</v>
+      </c>
+      <c r="O318" s="43">
+        <f t="shared" si="12"/>
+        <v>1.7687827312329318E-4</v>
+      </c>
+    </row>
+    <row r="319" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G319">
+        <v>708</v>
+      </c>
+      <c r="O319" s="43">
+        <f t="shared" si="12"/>
+        <v>1.8788420942428274E-4</v>
+      </c>
+    </row>
+    <row r="320" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G320">
+        <v>709</v>
+      </c>
+      <c r="O320" s="43">
+        <f t="shared" si="12"/>
+        <v>1.9983401944045909E-4</v>
+      </c>
+    </row>
+    <row r="321" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G321">
+        <v>710</v>
+      </c>
+      <c r="O321" s="43">
+        <f t="shared" si="12"/>
+        <v>2.1277863541513398E-4</v>
+      </c>
+    </row>
+    <row r="322" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G322">
+        <v>711</v>
+      </c>
+      <c r="O322" s="43">
+        <f t="shared" si="12"/>
+        <v>2.2677091345713052E-4</v>
+      </c>
+    </row>
+    <row r="323" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G323">
+        <v>712</v>
+      </c>
+      <c r="O323" s="43">
+        <f t="shared" ref="O323:O386" si="13">$M$2+$M$3*G323+$M$4*G323^2+$M$5*G323^3+$M$6*G323^4+$M$7*G323^5+$M$8*G323^6+$M$9*G323^7+$M$10*G323^8</f>
+        <v>2.4186568174400236E-4</v>
+      </c>
+    </row>
+    <row r="324" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G324">
+        <v>713</v>
+      </c>
+      <c r="O324" s="43">
+        <f t="shared" si="13"/>
+        <v>2.5811979524803519E-4</v>
+      </c>
+    </row>
+    <row r="325" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G325">
+        <v>714</v>
+      </c>
+      <c r="O325" s="43">
+        <f t="shared" si="13"/>
+        <v>2.7559218740691449E-4</v>
+      </c>
+    </row>
+    <row r="326" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G326">
+        <v>715</v>
+      </c>
+      <c r="O326" s="43">
+        <f t="shared" si="13"/>
+        <v>2.9434392209282123E-4</v>
+      </c>
+    </row>
+    <row r="327" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G327">
+        <v>716</v>
+      </c>
+      <c r="O327" s="43">
+        <f t="shared" si="13"/>
+        <v>3.1443825005794679E-4</v>
+      </c>
+    </row>
+    <row r="328" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G328">
+        <v>717</v>
+      </c>
+      <c r="O328" s="43">
+        <f t="shared" si="13"/>
+        <v>3.3594066366049447E-4</v>
+      </c>
+    </row>
+    <row r="329" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G329">
+        <v>718</v>
+      </c>
+      <c r="O329" s="43">
+        <f t="shared" si="13"/>
+        <v>3.5891895377915262E-4</v>
+      </c>
+    </row>
+    <row r="330" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G330">
+        <v>719</v>
+      </c>
+      <c r="O330" s="43">
+        <f t="shared" si="13"/>
+        <v>3.8344326613071189E-4</v>
+      </c>
+    </row>
+    <row r="331" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G331">
+        <v>720</v>
+      </c>
+      <c r="O331" s="43">
+        <f t="shared" si="13"/>
+        <v>4.0958616114039614E-4</v>
+      </c>
+    </row>
+    <row r="332" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G332">
+        <v>721</v>
+      </c>
+      <c r="O332" s="43">
+        <f t="shared" si="13"/>
+        <v>4.374226710979201E-4</v>
+      </c>
+    </row>
+    <row r="333" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G333">
+        <v>722</v>
+      </c>
+      <c r="O333" s="43">
+        <f t="shared" si="13"/>
+        <v>4.6703036373685336E-4</v>
+      </c>
+    </row>
+    <row r="334" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G334">
+        <v>723</v>
+      </c>
+      <c r="O334" s="43">
+        <f t="shared" si="13"/>
+        <v>4.9848940007279907E-4</v>
+      </c>
+    </row>
+    <row r="335" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G335">
+        <v>724</v>
+      </c>
+      <c r="O335" s="43">
+        <f t="shared" si="13"/>
+        <v>5.3188259938963256E-4</v>
+      </c>
+    </row>
+    <row r="336" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G336">
+        <v>725</v>
+      </c>
+      <c r="O336" s="43">
+        <f t="shared" si="13"/>
+        <v>5.6729550136935813E-4</v>
+      </c>
+    </row>
+    <row r="337" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G337">
+        <v>726</v>
+      </c>
+      <c r="O337" s="43">
+        <f t="shared" si="13"/>
+        <v>6.0481643187415557E-4</v>
+      </c>
+    </row>
+    <row r="338" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G338">
+        <v>727</v>
+      </c>
+      <c r="O338" s="43">
+        <f t="shared" si="13"/>
+        <v>6.445365660852076E-4</v>
+      </c>
+    </row>
+    <row r="339" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G339">
+        <v>728</v>
+      </c>
+      <c r="O339" s="43">
+        <f t="shared" si="13"/>
+        <v>6.865499974821887E-4</v>
+      </c>
+    </row>
+    <row r="340" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G340">
+        <v>729</v>
+      </c>
+      <c r="O340" s="43">
+        <f t="shared" si="13"/>
+        <v>7.3095380501797536E-4</v>
+      </c>
+    </row>
+    <row r="341" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G341">
+        <v>730</v>
+      </c>
+      <c r="O341" s="43">
+        <f t="shared" si="13"/>
+        <v>7.7784812049230823E-4</v>
+      </c>
+    </row>
+    <row r="342" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G342">
+        <v>731</v>
+      </c>
+      <c r="O342" s="43">
+        <f t="shared" si="13"/>
+        <v>8.2733619984765028E-4</v>
+      </c>
+    </row>
+    <row r="343" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G343">
+        <v>732</v>
+      </c>
+      <c r="O343" s="43">
+        <f t="shared" si="13"/>
+        <v>8.7952449365502616E-4</v>
+      </c>
+    </row>
+    <row r="344" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G344">
+        <v>733</v>
+      </c>
+      <c r="O344" s="43">
+        <f t="shared" si="13"/>
+        <v>9.3452271919147734E-4</v>
+      </c>
+    </row>
+    <row r="345" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G345">
+        <v>734</v>
+      </c>
+      <c r="O345" s="43">
+        <f t="shared" si="13"/>
+        <v>9.9244393278752341E-4</v>
+      </c>
+    </row>
+    <row r="346" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G346">
+        <v>735</v>
+      </c>
+      <c r="O346" s="43">
+        <f t="shared" si="13"/>
+        <v>1.0534046064236691E-3</v>
+      </c>
+    </row>
+    <row r="347" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G347">
+        <v>736</v>
+      </c>
+      <c r="O347" s="43">
+        <f t="shared" si="13"/>
+        <v>1.1175247009163058E-3</v>
+      </c>
+    </row>
+    <row r="348" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G348">
+        <v>737</v>
+      </c>
+      <c r="O348" s="43">
+        <f t="shared" si="13"/>
+        <v>1.1849277435658223E-3</v>
+      </c>
+    </row>
+    <row r="349" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G349">
+        <v>738</v>
+      </c>
+      <c r="O349" s="43">
+        <f t="shared" si="13"/>
+        <v>1.2557409053499669E-3</v>
+      </c>
+    </row>
+    <row r="350" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G350">
+        <v>739</v>
+      </c>
+      <c r="O350" s="43">
+        <f t="shared" si="13"/>
+        <v>1.3300950820109847E-3</v>
+      </c>
+    </row>
+    <row r="351" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G351">
+        <v>740</v>
+      </c>
+      <c r="O351" s="43">
+        <f t="shared" si="13"/>
+        <v>1.4081249707516008E-3</v>
+      </c>
+    </row>
+    <row r="352" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G352">
+        <v>741</v>
+      </c>
+      <c r="O352" s="43">
+        <f t="shared" si="13"/>
+        <v>1.4899691557843653E-3</v>
+      </c>
+    </row>
+    <row r="353" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G353">
+        <v>742</v>
+      </c>
+      <c r="O353" s="43">
+        <f t="shared" si="13"/>
+        <v>1.5757701864771434E-3</v>
+      </c>
+    </row>
+    <row r="354" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G354">
+        <v>743</v>
+      </c>
+      <c r="O354" s="43">
+        <f t="shared" si="13"/>
+        <v>1.6656746653751497E-3</v>
+      </c>
+    </row>
+    <row r="355" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G355">
+        <v>744</v>
+      </c>
+      <c r="O355" s="43">
+        <f t="shared" si="13"/>
+        <v>1.7598333305386404E-3</v>
+      </c>
+    </row>
+    <row r="356" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G356">
+        <v>745</v>
+      </c>
+      <c r="O356" s="43">
+        <f t="shared" si="13"/>
+        <v>1.858401142996513E-3</v>
+      </c>
+    </row>
+    <row r="357" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G357">
+        <v>746</v>
+      </c>
+      <c r="O357" s="43">
+        <f t="shared" si="13"/>
+        <v>1.961537375123612E-3</v>
+      </c>
+    </row>
+    <row r="358" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G358">
+        <v>747</v>
+      </c>
+      <c r="O358" s="43">
+        <f t="shared" si="13"/>
+        <v>2.069405697483262E-3</v>
+      </c>
+    </row>
+    <row r="359" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G359">
+        <v>748</v>
+      </c>
+      <c r="O359" s="43">
+        <f t="shared" si="13"/>
+        <v>2.1821742709562386E-3</v>
+      </c>
+    </row>
+    <row r="360" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G360">
+        <v>749</v>
+      </c>
+      <c r="O360" s="43">
+        <f t="shared" si="13"/>
+        <v>2.3000158375481305E-3</v>
+      </c>
+    </row>
+    <row r="361" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G361">
+        <v>750</v>
+      </c>
+      <c r="O361" s="43">
+        <f t="shared" si="13"/>
+        <v>2.4231078125609429E-3</v>
+      </c>
+    </row>
+    <row r="362" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G362">
+        <v>751</v>
+      </c>
+      <c r="O362" s="43">
+        <f t="shared" si="13"/>
+        <v>2.5516323795216067E-3</v>
+      </c>
+    </row>
+    <row r="363" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G363">
+        <v>752</v>
+      </c>
+      <c r="O363" s="43">
+        <f t="shared" si="13"/>
+        <v>2.6857765859347182E-3</v>
+      </c>
+    </row>
+    <row r="364" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G364">
+        <v>753</v>
+      </c>
+      <c r="O364" s="43">
+        <f t="shared" si="13"/>
+        <v>2.8257324393905492E-3</v>
+      </c>
+    </row>
+    <row r="365" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G365">
+        <v>754</v>
+      </c>
+      <c r="O365" s="43">
+        <f t="shared" si="13"/>
+        <v>2.9716970055062575E-3</v>
+      </c>
+    </row>
+    <row r="366" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G366">
+        <v>755</v>
+      </c>
+      <c r="O366" s="43">
+        <f t="shared" si="13"/>
+        <v>3.1238725093487574E-3</v>
+      </c>
+    </row>
+    <row r="367" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G367">
+        <v>756</v>
+      </c>
+      <c r="O367" s="43">
+        <f t="shared" si="13"/>
+        <v>3.282466433489617E-3</v>
+      </c>
+    </row>
+    <row r="368" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G368">
+        <v>757</v>
+      </c>
+      <c r="O368" s="43">
+        <f t="shared" si="13"/>
+        <v>3.4476916223411536E-3</v>
+      </c>
+    </row>
+    <row r="369" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G369">
+        <v>758</v>
+      </c>
+      <c r="O369" s="43">
+        <f t="shared" si="13"/>
+        <v>3.6197663861514684E-3</v>
+      </c>
+    </row>
+    <row r="370" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G370">
+        <v>759</v>
+      </c>
+      <c r="O370" s="43">
+        <f t="shared" si="13"/>
+        <v>3.7989146036920829E-3</v>
+      </c>
+    </row>
+    <row r="371" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G371">
+        <v>760</v>
+      </c>
+      <c r="O371" s="43">
+        <f t="shared" si="13"/>
+        <v>3.9853658330741837E-3</v>
+      </c>
+    </row>
+    <row r="372" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G372">
+        <v>761</v>
+      </c>
+      <c r="O372" s="43">
+        <f t="shared" si="13"/>
+        <v>4.1793554152320667E-3</v>
+      </c>
+    </row>
+    <row r="373" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G373">
+        <v>762</v>
+      </c>
+      <c r="O373" s="43">
+        <f t="shared" si="13"/>
+        <v>4.3811245868710103E-3</v>
+      </c>
+    </row>
+    <row r="374" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G374">
+        <v>763</v>
+      </c>
+      <c r="O374" s="43">
+        <f t="shared" si="13"/>
+        <v>4.5909205885266147E-3</v>
+      </c>
+    </row>
+    <row r="375" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G375">
+        <v>764</v>
+      </c>
+      <c r="O375" s="43">
+        <f t="shared" si="13"/>
+        <v>4.8089967807243283E-3</v>
+      </c>
+    </row>
+    <row r="376" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G376">
+        <v>765</v>
+      </c>
+      <c r="O376" s="43">
+        <f t="shared" si="13"/>
+        <v>5.035612754312524E-3</v>
+      </c>
+    </row>
+    <row r="377" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G377">
+        <v>766</v>
+      </c>
+      <c r="O377" s="43">
+        <f t="shared" si="13"/>
+        <v>5.2710344473325677E-3</v>
+      </c>
+    </row>
+    <row r="378" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G378">
+        <v>767</v>
+      </c>
+      <c r="O378" s="43">
+        <f t="shared" si="13"/>
+        <v>5.5155342633099735E-3</v>
+      </c>
+    </row>
+    <row r="379" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G379">
+        <v>768</v>
+      </c>
+      <c r="O379" s="43">
+        <f t="shared" si="13"/>
+        <v>5.7693911880676296E-3</v>
+      </c>
+    </row>
+    <row r="380" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G380">
+        <v>769</v>
+      </c>
+      <c r="O380" s="43">
+        <f t="shared" si="13"/>
+        <v>6.0328909094948813E-3</v>
+      </c>
+    </row>
+    <row r="381" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G381">
+        <v>770</v>
+      </c>
+      <c r="O381" s="43">
+        <f t="shared" si="13"/>
+        <v>6.306325940613533E-3</v>
+      </c>
+    </row>
+    <row r="382" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G382">
+        <v>771</v>
+      </c>
+      <c r="O382" s="43">
+        <f t="shared" si="13"/>
+        <v>6.5899957434112366E-3</v>
+      </c>
+    </row>
+    <row r="383" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G383">
+        <v>772</v>
+      </c>
+      <c r="O383" s="43">
+        <f t="shared" si="13"/>
+        <v>6.8842068493211173E-3</v>
+      </c>
+    </row>
+    <row r="384" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G384">
+        <v>773</v>
+      </c>
+      <c r="O384" s="43">
+        <f t="shared" si="13"/>
+        <v>7.1892729920932652E-3</v>
+      </c>
+    </row>
+    <row r="385" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G385">
+        <v>774</v>
+      </c>
+      <c r="O385" s="43">
+        <f t="shared" si="13"/>
+        <v>7.5055152299228212E-3</v>
+      </c>
+    </row>
+    <row r="386" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G386">
+        <v>775</v>
+      </c>
+      <c r="O386" s="43">
+        <f t="shared" si="13"/>
+        <v>7.8332620790320107E-3</v>
+      </c>
+    </row>
+    <row r="387" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G387">
+        <v>776</v>
+      </c>
+      <c r="O387" s="43">
+        <f t="shared" ref="O387:O411" si="14">$M$2+$M$3*G387+$M$4*G387^2+$M$5*G387^3+$M$6*G387^4+$M$7*G387^5+$M$8*G387^6+$M$9*G387^7+$M$10*G387^8</f>
+        <v>8.1728496427615482E-3</v>
+      </c>
+    </row>
+    <row r="388" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G388">
+        <v>777</v>
+      </c>
+      <c r="O388" s="43">
+        <f t="shared" si="14"/>
+        <v>8.5246217449537198E-3</v>
+      </c>
+    </row>
+    <row r="389" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G389">
+        <v>778</v>
+      </c>
+      <c r="O389" s="43">
+        <f t="shared" si="14"/>
+        <v>8.8889300652112979E-3</v>
+      </c>
+    </row>
+    <row r="390" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G390">
+        <v>779</v>
+      </c>
+      <c r="O390" s="43">
+        <f t="shared" si="14"/>
+        <v>9.2661342749806863E-3</v>
+      </c>
+    </row>
+    <row r="391" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G391">
+        <v>780</v>
+      </c>
+      <c r="O391" s="43">
+        <f t="shared" si="14"/>
+        <v>9.6566021752551023E-3</v>
+      </c>
+    </row>
+    <row r="392" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G392">
+        <v>781</v>
+      </c>
+      <c r="O392" s="43">
+        <f t="shared" si="14"/>
+        <v>1.0060709834220916E-2</v>
+      </c>
+    </row>
+    <row r="393" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G393">
+        <v>782</v>
+      </c>
+      <c r="O393" s="43">
+        <f t="shared" si="14"/>
+        <v>1.0478841733316813E-2</v>
+      </c>
+    </row>
+    <row r="394" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G394">
+        <v>783</v>
+      </c>
+      <c r="O394" s="43">
+        <f t="shared" si="14"/>
+        <v>1.0911390905988583E-2</v>
+      </c>
+    </row>
+    <row r="395" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G395">
+        <v>784</v>
+      </c>
+      <c r="O395" s="43">
+        <f t="shared" si="14"/>
+        <v>1.1358759085254633E-2</v>
+      </c>
+    </row>
+    <row r="396" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G396">
+        <v>785</v>
+      </c>
+      <c r="O396" s="43">
+        <f t="shared" si="14"/>
+        <v>1.1821356848372488E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G397">
+        <v>786</v>
+      </c>
+      <c r="O397" s="43">
+        <f t="shared" si="14"/>
+        <v>1.229960376673489E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G398">
+        <v>787</v>
+      </c>
+      <c r="O398" s="43">
+        <f t="shared" si="14"/>
+        <v>1.2793928554827971E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G399">
+        <v>788</v>
+      </c>
+      <c r="O399" s="43">
+        <f t="shared" si="14"/>
+        <v>1.3304769223651647E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G400">
+        <v>789</v>
+      </c>
+      <c r="O400" s="43">
+        <f t="shared" si="14"/>
+        <v>1.3832573231866263E-2</v>
+      </c>
+    </row>
+    <row r="401" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G401">
+        <v>790</v>
+      </c>
+      <c r="O401" s="43">
+        <f t="shared" si="14"/>
+        <v>1.4377797646289991E-2</v>
+      </c>
+    </row>
+    <row r="402" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G402">
+        <v>791</v>
+      </c>
+      <c r="O402" s="43">
+        <f t="shared" si="14"/>
+        <v>1.4940909293187588E-2</v>
+      </c>
+    </row>
+    <row r="403" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G403">
+        <v>792</v>
+      </c>
+      <c r="O403" s="43">
+        <f t="shared" si="14"/>
+        <v>1.5522384923457366E-2</v>
+      </c>
+    </row>
+    <row r="404" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G404">
+        <v>793</v>
+      </c>
+      <c r="O404" s="43">
+        <f t="shared" si="14"/>
+        <v>1.6122711367927423E-2</v>
+      </c>
+    </row>
+    <row r="405" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G405">
+        <v>794</v>
+      </c>
+      <c r="O405" s="43">
+        <f t="shared" si="14"/>
+        <v>1.6742385705413199E-2</v>
+      </c>
+    </row>
+    <row r="406" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G406">
+        <v>795</v>
+      </c>
+      <c r="O406" s="43">
+        <f t="shared" si="14"/>
+        <v>1.7381915426057049E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G407">
+        <v>796</v>
+      </c>
+      <c r="O407" s="43">
+        <f t="shared" si="14"/>
+        <v>1.8041818598135251E-2</v>
+      </c>
+    </row>
+    <row r="408" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G408">
+        <v>797</v>
+      </c>
+      <c r="O408" s="43">
+        <f t="shared" si="14"/>
+        <v>1.8722624035007129E-2</v>
+      </c>
+    </row>
+    <row r="409" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G409">
+        <v>798</v>
+      </c>
+      <c r="O409" s="43">
+        <f t="shared" si="14"/>
+        <v>1.9424871468004312E-2</v>
+      </c>
+    </row>
+    <row r="410" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G410">
+        <v>799</v>
+      </c>
+      <c r="O410" s="43">
+        <f t="shared" si="14"/>
+        <v>2.0149111721138979E-2</v>
+      </c>
+    </row>
+    <row r="411" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G411">
+        <v>800</v>
+      </c>
+      <c r="O411" s="43">
+        <f t="shared" si="14"/>
+        <v>2.0895906880127768E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G11:I11"/>
-  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -35435,7 +40345,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -37008,7 +41918,7 @@
         <v>15000000</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P4" s="36">
         <v>286.15826960426</v>
@@ -37029,7 +41939,7 @@
         <v>15000000</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P5" s="36">
         <v>285.98182658753598</v>
@@ -37050,7 +41960,7 @@
         <v>15000000</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P6" s="36">
         <v>285.42898904592198</v>

--- a/csenergy/auxiliary calculations/propiedades fluidos.xlsx
+++ b/csenergy/auxiliary calculations/propiedades fluidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paco\0_TFG\csenergy\auxiliary calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C8A71B-99C9-4442-84AD-91EC91A18E58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370357A0-9AE8-49F5-BC9B-EAF0D25DF3BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1470" windowWidth="16620" windowHeight="8715" tabRatio="761" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="761" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM" sheetId="2" r:id="rId1"/>
@@ -26,11 +26,12 @@
     <sheet name="kt_S800" sheetId="24" r:id="rId11"/>
     <sheet name="H_T_DOWA" sheetId="25" r:id="rId12"/>
     <sheet name="mu_DOWA" sheetId="26" r:id="rId13"/>
-    <sheet name="CpDowthermA" sheetId="13" r:id="rId14"/>
-    <sheet name="Cp" sheetId="1" r:id="rId15"/>
-    <sheet name="visco_DowtherA" sheetId="14" r:id="rId16"/>
-    <sheet name="aire" sheetId="7" r:id="rId17"/>
-    <sheet name="densidadDowthermA)" sheetId="10" r:id="rId18"/>
+    <sheet name="Kt" sheetId="27" r:id="rId14"/>
+    <sheet name="CpDowthermA" sheetId="13" r:id="rId15"/>
+    <sheet name="Cp" sheetId="1" r:id="rId16"/>
+    <sheet name="visco_DowtherA" sheetId="14" r:id="rId17"/>
+    <sheet name="aire" sheetId="7" r:id="rId18"/>
+    <sheet name="densidadDowthermA)" sheetId="10" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="11" hidden="1">H_T_DOWA!$N$2</definedName>
@@ -185,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -416,6 +417,15 @@
   <si>
     <t>MU5</t>
   </si>
+  <si>
+    <t>T (K)</t>
+  </si>
+  <si>
+    <t>ec. 4.22</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
 </sst>
 </file>
 
@@ -431,9 +441,9 @@
     <numFmt numFmtId="170" formatCode="0.0000000000"/>
     <numFmt numFmtId="171" formatCode="0.0"/>
     <numFmt numFmtId="172" formatCode="0.0000000"/>
-    <numFmt numFmtId="181" formatCode="0.000000E+00"/>
-    <numFmt numFmtId="200" formatCode="0.00000000000E+00"/>
-    <numFmt numFmtId="215" formatCode="#,##0.0000000000000000000000000000000"/>
+    <numFmt numFmtId="173" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="174" formatCode="0.00000000000E+00"/>
+    <numFmt numFmtId="175" formatCode="#,##0.0000000000000000000000000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -623,10 +633,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="215" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -32865,8 +32875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:X411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="D389" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37684,6 +37694,5245 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE0577A-03B0-4322-BD38-51DFFBE878BB}">
+  <dimension ref="A1:C402"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>400</v>
+      </c>
+      <c r="B2">
+        <f>0.0153*(A2-273.15) + 14.77</f>
+        <v>16.710805000000001</v>
+      </c>
+      <c r="C2">
+        <f>100*(0.1241+0.00003279*A2)</f>
+        <v>13.7216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>401</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">0.0153*(A3-273.15) + 14.77</f>
+        <v>16.726105</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="1">100*(0.1241+0.00003279*A3)</f>
+        <v>13.724879000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>402</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>16.741405</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>13.728158000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>403</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>16.756705</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>13.731437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>404</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>16.772005</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>13.734715999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>405</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>16.787305</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>13.737995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>406</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>16.802605</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>13.741274000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>407</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>16.817905</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>13.744553000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>408</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>16.833205</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>13.747832000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>409</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>16.848504999999999</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>13.751111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>410</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>16.863804999999999</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>13.754389999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>411</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>16.879104999999999</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>13.757669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>412</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>16.894404999999999</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>13.760948000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>413</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>16.909704999999999</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>13.764227000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>414</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>16.925004999999999</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>13.767506000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>415</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>16.940304999999999</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>13.770785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>416</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>16.955604999999998</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>13.774063999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>417</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>16.970904999999998</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>13.777343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>418</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>16.986204999999998</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>13.780622000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>419</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>17.001505000000002</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>13.783901000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>420</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>17.016804999999998</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>13.787179999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>421</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>17.032105000000001</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>13.790458999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>422</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>17.047405000000001</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>13.793737999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>423</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>17.062705000000001</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>13.797017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>424</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>17.078005000000001</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>13.800296000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>425</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>17.093305000000001</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>13.803575000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>426</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>17.108605000000001</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>13.806854000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>427</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>17.123905000000001</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>13.810132999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>428</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>17.139205</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>13.813412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>429</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>17.154505</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>13.816691</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>430</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>17.169805</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>13.819970000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>431</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>17.185105</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>13.823249000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>432</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>17.200405</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>13.826528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>433</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>17.215705</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>13.829806999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>434</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>17.231005</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>13.833086</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>435</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>17.246305</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>13.836365000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>436</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>17.261604999999999</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>13.839644000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>437</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>17.276904999999999</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>13.842923000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>438</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>17.292204999999999</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>13.846202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>439</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>17.307504999999999</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>13.849480999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>440</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>17.322804999999999</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>13.85276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>441</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>17.338104999999999</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>13.856039000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>442</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>17.353404999999999</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>13.859318000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>443</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>17.368704999999999</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>13.862597000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>444</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>17.384004999999998</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>13.865876</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>445</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>17.399304999999998</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>13.869154999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>446</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>17.414605000000002</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>13.872434</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>447</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>17.429904999999998</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>13.875713000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>448</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>17.445205000000001</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>13.878992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>449</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>17.460505000000001</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>13.882271000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>450</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>17.475805000000001</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>13.885549999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>451</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>17.491105000000001</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>13.888828999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>452</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>17.506405000000001</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>13.892108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>453</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>17.521705000000001</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>13.895387000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>454</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>17.537005000000001</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>13.898666</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>455</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>17.552305</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>13.901945</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>456</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>17.567605</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>13.905223999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>457</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>17.582905</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>13.908503</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>458</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>17.598205</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>13.911782000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>459</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>17.613505</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>13.915061000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>460</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>17.628805</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>13.918340000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>461</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>17.644105</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>13.921619000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>462</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>17.659405</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>13.924897999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>463</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>17.674704999999999</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>13.928177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>464</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>17.690004999999999</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>13.931456000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>465</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B130" si="2">0.0153*(A67-273.15) + 14.77</f>
+        <v>17.705304999999999</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C130" si="3">100*(0.1241+0.00003279*A67)</f>
+        <v>13.934735000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>466</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="2"/>
+        <v>17.720604999999999</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>13.938014000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>467</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="2"/>
+        <v>17.735904999999999</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>13.941292999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>468</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="2"/>
+        <v>17.751204999999999</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>13.944571999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>469</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>17.766504999999999</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>13.947851</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>470</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>17.781804999999999</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>13.951130000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>471</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>17.797104999999998</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>13.954409000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>472</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>17.812404999999998</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>13.957688000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>473</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="2"/>
+        <v>17.827705000000002</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>13.960966999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>474</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="2"/>
+        <v>17.843004999999998</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>13.964245999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>475</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="2"/>
+        <v>17.858305000000001</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>13.967525</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>476</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="2"/>
+        <v>17.873605000000001</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>13.970804000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>477</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="2"/>
+        <v>17.888905000000001</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>13.974083</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>478</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="2"/>
+        <v>17.904205000000001</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>13.977362000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>479</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="2"/>
+        <v>17.919505000000001</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>13.980640999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>480</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="2"/>
+        <v>17.934805000000001</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>13.983919999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>481</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="2"/>
+        <v>17.950105000000001</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>13.987199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>482</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="2"/>
+        <v>17.965405000000001</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>13.990478000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>483</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="2"/>
+        <v>17.980705</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>13.993757</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>484</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="2"/>
+        <v>17.996005</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>13.997036000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>485</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="2"/>
+        <v>18.011305</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>14.000314999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>486</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="2"/>
+        <v>18.026605</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>14.003594</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>487</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="2"/>
+        <v>18.041905</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>14.006873000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>488</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="2"/>
+        <v>18.057205</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>14.010152000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>489</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="2"/>
+        <v>18.072505</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>14.013431000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>490</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="2"/>
+        <v>18.087804999999999</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>14.01671</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>491</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="2"/>
+        <v>18.103104999999999</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>14.019988999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>492</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="2"/>
+        <v>18.118404999999999</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>14.023268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>493</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="2"/>
+        <v>18.133704999999999</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>14.026547000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>494</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="2"/>
+        <v>18.149004999999999</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>14.029826</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>495</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="2"/>
+        <v>18.164304999999999</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>14.033105000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>496</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="2"/>
+        <v>18.179604999999999</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>14.036384000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>497</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="2"/>
+        <v>18.194904999999999</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>14.039662999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>498</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="2"/>
+        <v>18.210204999999998</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>14.042942</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>499</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="2"/>
+        <v>18.225504999999998</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>14.046221000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>500</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="2"/>
+        <v>18.240805000000002</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="3"/>
+        <v>14.0495</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>501</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="2"/>
+        <v>18.256104999999998</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="3"/>
+        <v>14.052779000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>502</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="2"/>
+        <v>18.271405000000001</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="3"/>
+        <v>14.056057999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>503</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="2"/>
+        <v>18.286705000000001</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="3"/>
+        <v>14.059336999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>504</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="2"/>
+        <v>18.302005000000001</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="3"/>
+        <v>14.062616</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>505</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="2"/>
+        <v>18.317305000000001</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="3"/>
+        <v>14.065895000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>506</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="2"/>
+        <v>18.332605000000001</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="3"/>
+        <v>14.069174</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>507</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="2"/>
+        <v>18.347905000000001</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="3"/>
+        <v>14.072453000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>508</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="2"/>
+        <v>18.363205000000001</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="3"/>
+        <v>14.075731999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>509</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="2"/>
+        <v>18.378505000000001</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="3"/>
+        <v>14.079010999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>510</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="2"/>
+        <v>18.393805</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="3"/>
+        <v>14.08229</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>511</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="2"/>
+        <v>18.409105</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="3"/>
+        <v>14.085569000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>512</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="2"/>
+        <v>18.424405</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="3"/>
+        <v>14.088848</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>513</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="2"/>
+        <v>18.439705</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="3"/>
+        <v>14.092127000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>514</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="2"/>
+        <v>18.455005</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="3"/>
+        <v>14.095405999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>515</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="2"/>
+        <v>18.470305</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="3"/>
+        <v>14.098685</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>516</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="2"/>
+        <v>18.485605</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="3"/>
+        <v>14.101964000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>517</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="2"/>
+        <v>18.500904999999999</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="3"/>
+        <v>14.105243000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>518</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="2"/>
+        <v>18.516204999999999</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="3"/>
+        <v>14.108522000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>519</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="2"/>
+        <v>18.531504999999999</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="3"/>
+        <v>14.111801000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>520</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="2"/>
+        <v>18.546804999999999</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="3"/>
+        <v>14.115079999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>521</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="2"/>
+        <v>18.562104999999999</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="3"/>
+        <v>14.118359</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>522</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="2"/>
+        <v>18.577404999999999</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="3"/>
+        <v>14.121638000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>523</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="2"/>
+        <v>18.592704999999999</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="3"/>
+        <v>14.124917</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>524</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="2"/>
+        <v>18.608004999999999</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="3"/>
+        <v>14.128196000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>525</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="2"/>
+        <v>18.623304999999998</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="3"/>
+        <v>14.131474999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>526</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="2"/>
+        <v>18.638604999999998</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="3"/>
+        <v>14.134753999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>527</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="2"/>
+        <v>18.653905000000002</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="3"/>
+        <v>14.138033</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>528</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="2"/>
+        <v>18.669204999999998</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="3"/>
+        <v>14.141312000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>529</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ref="B131:B194" si="4">0.0153*(A131-273.15) + 14.77</f>
+        <v>18.684505000000001</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ref="C131:C194" si="5">100*(0.1241+0.00003279*A131)</f>
+        <v>14.144591</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>530</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="4"/>
+        <v>18.699804999999998</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="5"/>
+        <v>14.147870000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>531</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="4"/>
+        <v>18.715105000000001</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="5"/>
+        <v>14.151149000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>532</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="4"/>
+        <v>18.730405000000001</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="5"/>
+        <v>14.154427999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>533</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="4"/>
+        <v>18.745705000000001</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="5"/>
+        <v>14.157707</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>534</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="4"/>
+        <v>18.761005000000001</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="5"/>
+        <v>14.160986000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>535</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="4"/>
+        <v>18.776305000000001</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="5"/>
+        <v>14.164265</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>536</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="4"/>
+        <v>18.791605000000001</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="5"/>
+        <v>14.167544000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>537</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="4"/>
+        <v>18.806905</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="5"/>
+        <v>14.170822999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>538</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="4"/>
+        <v>18.822205</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="5"/>
+        <v>14.174102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>539</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="4"/>
+        <v>18.837505</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="5"/>
+        <v>14.177381</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>540</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="4"/>
+        <v>18.852805</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="5"/>
+        <v>14.18066</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>541</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="4"/>
+        <v>18.868105</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="5"/>
+        <v>14.183939000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>542</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="4"/>
+        <v>18.883405</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="5"/>
+        <v>14.187218000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>543</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="4"/>
+        <v>18.898705</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="5"/>
+        <v>14.190496999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>544</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="4"/>
+        <v>18.914005</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="5"/>
+        <v>14.193776</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>545</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="4"/>
+        <v>18.929304999999999</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="5"/>
+        <v>14.197055000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>546</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="4"/>
+        <v>18.944604999999999</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="5"/>
+        <v>14.200334</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>547</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="4"/>
+        <v>18.959904999999999</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="5"/>
+        <v>14.203613000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>548</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="4"/>
+        <v>18.975204999999999</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="5"/>
+        <v>14.206892000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>549</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="4"/>
+        <v>18.990504999999999</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="5"/>
+        <v>14.210170999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>550</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="4"/>
+        <v>19.005804999999999</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="5"/>
+        <v>14.21345</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>551</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="4"/>
+        <v>19.021104999999999</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="5"/>
+        <v>14.216729000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>552</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="4"/>
+        <v>19.036404999999998</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="5"/>
+        <v>14.220008</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>553</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="4"/>
+        <v>19.051704999999998</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="5"/>
+        <v>14.223287000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>554</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="4"/>
+        <v>19.067005000000002</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="5"/>
+        <v>14.226566000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>555</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="4"/>
+        <v>19.082304999999998</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="5"/>
+        <v>14.229844999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>556</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="4"/>
+        <v>19.097605000000001</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="5"/>
+        <v>14.233124</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>557</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="4"/>
+        <v>19.112904999999998</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="5"/>
+        <v>14.236403000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>558</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="4"/>
+        <v>19.128205000000001</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="5"/>
+        <v>14.239682</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>559</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="4"/>
+        <v>19.143504999999998</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="5"/>
+        <v>14.242961000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>560</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="4"/>
+        <v>19.158805000000001</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="5"/>
+        <v>14.246239999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>561</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="4"/>
+        <v>19.174105000000001</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="5"/>
+        <v>14.249518999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>562</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="4"/>
+        <v>19.189405000000001</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="5"/>
+        <v>14.252798</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>563</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="4"/>
+        <v>19.204705000000001</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="5"/>
+        <v>14.256077000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>564</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="4"/>
+        <v>19.220005</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="5"/>
+        <v>14.259356</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>565</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="4"/>
+        <v>19.235305</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="5"/>
+        <v>14.262635000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>566</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="4"/>
+        <v>19.250605</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="5"/>
+        <v>14.265914000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>567</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="4"/>
+        <v>19.265905</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="5"/>
+        <v>14.269193</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>568</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="4"/>
+        <v>19.281205</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="5"/>
+        <v>14.272472</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>569</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="4"/>
+        <v>19.296505</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="5"/>
+        <v>14.275751</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>570</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="4"/>
+        <v>19.311805</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="5"/>
+        <v>14.279030000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>571</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="4"/>
+        <v>19.327105</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="5"/>
+        <v>14.282309000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>572</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="4"/>
+        <v>19.342404999999999</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="5"/>
+        <v>14.285587999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>573</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="4"/>
+        <v>19.357704999999999</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="5"/>
+        <v>14.288867</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>574</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="4"/>
+        <v>19.373004999999999</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="5"/>
+        <v>14.292146000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>575</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="4"/>
+        <v>19.388304999999999</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="5"/>
+        <v>14.295425</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>576</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="4"/>
+        <v>19.403604999999999</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="5"/>
+        <v>14.298704000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>577</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="4"/>
+        <v>19.418904999999999</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="5"/>
+        <v>14.301983000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>578</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="4"/>
+        <v>19.434204999999999</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="5"/>
+        <v>14.305262000000003</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>579</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="4"/>
+        <v>19.449504999999998</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="5"/>
+        <v>14.308541</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>580</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="4"/>
+        <v>19.464804999999998</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="5"/>
+        <v>14.311820000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>581</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="4"/>
+        <v>19.480105000000002</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="5"/>
+        <v>14.315099</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>582</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="4"/>
+        <v>19.495404999999998</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="5"/>
+        <v>14.318378000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>583</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="4"/>
+        <v>19.510705000000002</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="5"/>
+        <v>14.321657000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>584</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="4"/>
+        <v>19.526004999999998</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="5"/>
+        <v>14.324935999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>585</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="4"/>
+        <v>19.541305000000001</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="5"/>
+        <v>14.328215</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>586</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="4"/>
+        <v>19.556604999999998</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="5"/>
+        <v>14.331493999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>587</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="4"/>
+        <v>19.571905000000001</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="5"/>
+        <v>14.334773</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>588</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="4"/>
+        <v>19.587205000000001</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="5"/>
+        <v>14.338052000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>589</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="4"/>
+        <v>19.602505000000001</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="5"/>
+        <v>14.341331000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>590</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="4"/>
+        <v>19.617805000000001</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="5"/>
+        <v>14.344609999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>591</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="4"/>
+        <v>19.633105</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="5"/>
+        <v>14.347889</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>592</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="4"/>
+        <v>19.648405</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="5"/>
+        <v>14.351167999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>593</v>
+      </c>
+      <c r="B195">
+        <f t="shared" ref="B195:B258" si="6">0.0153*(A195-273.15) + 14.77</f>
+        <v>19.663705</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ref="C195:C258" si="7">100*(0.1241+0.00003279*A195)</f>
+        <v>14.354447</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>594</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="6"/>
+        <v>19.679005</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="7"/>
+        <v>14.357726000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>595</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="6"/>
+        <v>19.694305</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="7"/>
+        <v>14.361004999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>596</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="6"/>
+        <v>19.709605</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="7"/>
+        <v>14.364284</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>597</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="6"/>
+        <v>19.724905</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="7"/>
+        <v>14.367563000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>598</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="6"/>
+        <v>19.740205</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="7"/>
+        <v>14.370842</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>599</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="6"/>
+        <v>19.755504999999999</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="7"/>
+        <v>14.374121000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>600</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="6"/>
+        <v>19.770804999999999</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="7"/>
+        <v>14.377400000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>601</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="6"/>
+        <v>19.786104999999999</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="7"/>
+        <v>14.380679000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>602</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="6"/>
+        <v>19.801404999999999</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="7"/>
+        <v>14.383958</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>603</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="6"/>
+        <v>19.816704999999999</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="7"/>
+        <v>14.387237000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>604</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="6"/>
+        <v>19.832004999999999</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="7"/>
+        <v>14.390516</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>605</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="6"/>
+        <v>19.847304999999999</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="7"/>
+        <v>14.393795000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>606</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="6"/>
+        <v>19.862604999999999</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="7"/>
+        <v>14.397074000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>607</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="6"/>
+        <v>19.877904999999998</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="7"/>
+        <v>14.400352999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>608</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="6"/>
+        <v>19.893205000000002</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="7"/>
+        <v>14.403632</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>609</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="6"/>
+        <v>19.908504999999998</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="7"/>
+        <v>14.406911000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>610</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="6"/>
+        <v>19.923805000000002</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="7"/>
+        <v>14.41019</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>611</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="6"/>
+        <v>19.939104999999998</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="7"/>
+        <v>14.413469000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>612</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="6"/>
+        <v>19.954405000000001</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="7"/>
+        <v>14.416748000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>613</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="6"/>
+        <v>19.969704999999998</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="7"/>
+        <v>14.420027000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>614</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="6"/>
+        <v>19.985005000000001</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="7"/>
+        <v>14.423306</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>615</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="6"/>
+        <v>20.000305000000001</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="7"/>
+        <v>14.426584999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>616</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="6"/>
+        <v>20.015605000000001</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="7"/>
+        <v>14.429864</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>617</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="6"/>
+        <v>20.030905000000001</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="7"/>
+        <v>14.433143000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>618</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="6"/>
+        <v>20.046205</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="7"/>
+        <v>14.436422000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>619</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="6"/>
+        <v>20.061505</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="7"/>
+        <v>14.439700999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>620</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="6"/>
+        <v>20.076805</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="7"/>
+        <v>14.44298</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>621</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="6"/>
+        <v>20.092105</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="7"/>
+        <v>14.446259</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>622</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="6"/>
+        <v>20.107405</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="7"/>
+        <v>14.449538</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>623</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="6"/>
+        <v>20.122705</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="7"/>
+        <v>14.452817000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>624</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="6"/>
+        <v>20.138005</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="7"/>
+        <v>14.456096000000002</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>625</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="6"/>
+        <v>20.153305</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="7"/>
+        <v>14.459375</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>626</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="6"/>
+        <v>20.168604999999999</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="7"/>
+        <v>14.462654000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>627</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="6"/>
+        <v>20.183904999999999</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="7"/>
+        <v>14.465933</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>628</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="6"/>
+        <v>20.199204999999999</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="7"/>
+        <v>14.469212000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>629</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="6"/>
+        <v>20.214504999999999</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="7"/>
+        <v>14.472491000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>630</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="6"/>
+        <v>20.229804999999999</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="7"/>
+        <v>14.475769999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>631</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="6"/>
+        <v>20.245104999999999</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="7"/>
+        <v>14.479049</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>632</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="6"/>
+        <v>20.260404999999999</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="7"/>
+        <v>14.482327999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>633</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="6"/>
+        <v>20.275704999999999</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="7"/>
+        <v>14.485607</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>634</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="6"/>
+        <v>20.291004999999998</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="7"/>
+        <v>14.488886000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>635</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="6"/>
+        <v>20.306305000000002</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="7"/>
+        <v>14.492165000000002</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>636</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="6"/>
+        <v>20.321604999999998</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="7"/>
+        <v>14.495444000000003</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>637</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="6"/>
+        <v>20.336905000000002</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="7"/>
+        <v>14.498723</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>638</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="6"/>
+        <v>20.352204999999998</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="7"/>
+        <v>14.502001999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>639</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="6"/>
+        <v>20.367505000000001</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="7"/>
+        <v>14.505281</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>640</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="6"/>
+        <v>20.382804999999998</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="7"/>
+        <v>14.508560000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>641</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="6"/>
+        <v>20.398105000000001</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="7"/>
+        <v>14.511839000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>642</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="6"/>
+        <v>20.413405000000001</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="7"/>
+        <v>14.515117999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>643</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="6"/>
+        <v>20.428705000000001</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="7"/>
+        <v>14.518397</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>644</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="6"/>
+        <v>20.444005000000001</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="7"/>
+        <v>14.521675999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>645</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="6"/>
+        <v>20.459305000000001</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="7"/>
+        <v>14.524955</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>646</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="6"/>
+        <v>20.474605</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="7"/>
+        <v>14.528234000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>647</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="6"/>
+        <v>20.489905</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="7"/>
+        <v>14.531513000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>648</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="6"/>
+        <v>20.505205</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="7"/>
+        <v>14.534792000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>649</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="6"/>
+        <v>20.520505</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="7"/>
+        <v>14.538071</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>650</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="6"/>
+        <v>20.535805</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="7"/>
+        <v>14.54135</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>651</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="6"/>
+        <v>20.551105</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="7"/>
+        <v>14.544629</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>652</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="6"/>
+        <v>20.566405</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="7"/>
+        <v>14.547908000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>653</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="6"/>
+        <v>20.581704999999999</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="7"/>
+        <v>14.551187000000002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>654</v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="6"/>
+        <v>20.597004999999999</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="7"/>
+        <v>14.554466</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>655</v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="6"/>
+        <v>20.612304999999999</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="7"/>
+        <v>14.557745000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>656</v>
+      </c>
+      <c r="B258">
+        <f t="shared" si="6"/>
+        <v>20.627604999999999</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="7"/>
+        <v>14.561024</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>657</v>
+      </c>
+      <c r="B259">
+        <f t="shared" ref="B259:B322" si="8">0.0153*(A259-273.15) + 14.77</f>
+        <v>20.642904999999999</v>
+      </c>
+      <c r="C259">
+        <f t="shared" ref="C259:C322" si="9">100*(0.1241+0.00003279*A259)</f>
+        <v>14.564303000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>658</v>
+      </c>
+      <c r="B260">
+        <f t="shared" si="8"/>
+        <v>20.658204999999999</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="9"/>
+        <v>14.567582000000002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>659</v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="8"/>
+        <v>20.673504999999999</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="9"/>
+        <v>14.570861000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>660</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="8"/>
+        <v>20.688804999999999</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="9"/>
+        <v>14.57414</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>661</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="8"/>
+        <v>20.704104999999998</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="9"/>
+        <v>14.577418999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>662</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="8"/>
+        <v>20.719405000000002</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="9"/>
+        <v>14.580698</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>663</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="8"/>
+        <v>20.734704999999998</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="9"/>
+        <v>14.583977000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>664</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="8"/>
+        <v>20.750005000000002</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="9"/>
+        <v>14.587256000000002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>665</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="8"/>
+        <v>20.765304999999998</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="9"/>
+        <v>14.590534999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>666</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="8"/>
+        <v>20.780605000000001</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="9"/>
+        <v>14.593814</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>667</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="8"/>
+        <v>20.795904999999998</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="9"/>
+        <v>14.597092999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>668</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="8"/>
+        <v>20.811205000000001</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="9"/>
+        <v>14.600372</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>669</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="8"/>
+        <v>20.826505000000001</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="9"/>
+        <v>14.603651000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>670</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="8"/>
+        <v>20.841805000000001</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="9"/>
+        <v>14.606930000000002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>671</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="8"/>
+        <v>20.857105000000001</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="9"/>
+        <v>14.610209000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>672</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="8"/>
+        <v>20.872405000000001</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="9"/>
+        <v>14.613488</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>673</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="8"/>
+        <v>20.887705</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="9"/>
+        <v>14.616766999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>674</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="8"/>
+        <v>20.903005</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="9"/>
+        <v>14.620046</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>675</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="8"/>
+        <v>20.918305</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="9"/>
+        <v>14.623325000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>676</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="8"/>
+        <v>20.933605</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="9"/>
+        <v>14.626604000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>677</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="8"/>
+        <v>20.948905</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="9"/>
+        <v>14.629883</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>678</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="8"/>
+        <v>20.964205</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="9"/>
+        <v>14.633161999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>679</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="8"/>
+        <v>20.979505</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="9"/>
+        <v>14.636441</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>680</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="8"/>
+        <v>20.994804999999999</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="9"/>
+        <v>14.639720000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>681</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="8"/>
+        <v>21.010104999999999</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="9"/>
+        <v>14.642999000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>682</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="8"/>
+        <v>21.025404999999999</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="9"/>
+        <v>14.646278000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>683</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="8"/>
+        <v>21.040704999999999</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="9"/>
+        <v>14.649557000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>684</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="8"/>
+        <v>21.056004999999999</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="9"/>
+        <v>14.652835999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>685</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="8"/>
+        <v>21.071304999999999</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="9"/>
+        <v>14.656115</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>686</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="8"/>
+        <v>21.086604999999999</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="9"/>
+        <v>14.659394000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>687</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="8"/>
+        <v>21.101904999999999</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="9"/>
+        <v>14.662673000000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>688</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="8"/>
+        <v>21.117204999999998</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="9"/>
+        <v>14.665952000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>689</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="8"/>
+        <v>21.132505000000002</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="9"/>
+        <v>14.669231</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>690</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="8"/>
+        <v>21.147804999999998</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="9"/>
+        <v>14.672509999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>691</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="8"/>
+        <v>21.163105000000002</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="9"/>
+        <v>14.675789</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>692</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="8"/>
+        <v>21.178404999999998</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="9"/>
+        <v>14.679068000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>693</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="8"/>
+        <v>21.193705000000001</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="9"/>
+        <v>14.682347000000002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>694</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="8"/>
+        <v>21.209004999999998</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="9"/>
+        <v>14.685626000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>695</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="8"/>
+        <v>21.224305000000001</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="9"/>
+        <v>14.688905</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>696</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="8"/>
+        <v>21.239605000000001</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="9"/>
+        <v>14.692183999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>697</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="8"/>
+        <v>21.254905000000001</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="9"/>
+        <v>14.695463</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>698</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="8"/>
+        <v>21.270205000000001</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="9"/>
+        <v>14.698742000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>699</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="8"/>
+        <v>21.285505000000001</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="9"/>
+        <v>14.702021000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>700</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="8"/>
+        <v>21.300805</v>
+      </c>
+      <c r="C302">
+        <f t="shared" si="9"/>
+        <v>14.705299999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>701</v>
+      </c>
+      <c r="B303">
+        <f t="shared" si="8"/>
+        <v>21.316105</v>
+      </c>
+      <c r="C303">
+        <f t="shared" si="9"/>
+        <v>14.708579</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>702</v>
+      </c>
+      <c r="B304">
+        <f t="shared" si="8"/>
+        <v>21.331405</v>
+      </c>
+      <c r="C304">
+        <f t="shared" si="9"/>
+        <v>14.711857999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>703</v>
+      </c>
+      <c r="B305">
+        <f t="shared" si="8"/>
+        <v>21.346705</v>
+      </c>
+      <c r="C305">
+        <f t="shared" si="9"/>
+        <v>14.715137</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>704</v>
+      </c>
+      <c r="B306">
+        <f t="shared" si="8"/>
+        <v>21.362005</v>
+      </c>
+      <c r="C306">
+        <f t="shared" si="9"/>
+        <v>14.718416000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>705</v>
+      </c>
+      <c r="B307">
+        <f t="shared" si="8"/>
+        <v>21.377305</v>
+      </c>
+      <c r="C307">
+        <f t="shared" si="9"/>
+        <v>14.721695</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>706</v>
+      </c>
+      <c r="B308">
+        <f t="shared" si="8"/>
+        <v>21.392605</v>
+      </c>
+      <c r="C308">
+        <f t="shared" si="9"/>
+        <v>14.724974000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>707</v>
+      </c>
+      <c r="B309">
+        <f t="shared" si="8"/>
+        <v>21.407905</v>
+      </c>
+      <c r="C309">
+        <f t="shared" si="9"/>
+        <v>14.728252999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>708</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="8"/>
+        <v>21.423204999999999</v>
+      </c>
+      <c r="C310">
+        <f t="shared" si="9"/>
+        <v>14.731532</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>709</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="8"/>
+        <v>21.438504999999999</v>
+      </c>
+      <c r="C311">
+        <f t="shared" si="9"/>
+        <v>14.734811000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>710</v>
+      </c>
+      <c r="B312">
+        <f t="shared" si="8"/>
+        <v>21.453804999999999</v>
+      </c>
+      <c r="C312">
+        <f t="shared" si="9"/>
+        <v>14.738090000000001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>711</v>
+      </c>
+      <c r="B313">
+        <f t="shared" si="8"/>
+        <v>21.469104999999999</v>
+      </c>
+      <c r="C313">
+        <f t="shared" si="9"/>
+        <v>14.741369000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>712</v>
+      </c>
+      <c r="B314">
+        <f t="shared" si="8"/>
+        <v>21.484404999999999</v>
+      </c>
+      <c r="C314">
+        <f t="shared" si="9"/>
+        <v>14.744648</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>713</v>
+      </c>
+      <c r="B315">
+        <f t="shared" si="8"/>
+        <v>21.499704999999999</v>
+      </c>
+      <c r="C315">
+        <f t="shared" si="9"/>
+        <v>14.747926999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>714</v>
+      </c>
+      <c r="B316">
+        <f t="shared" si="8"/>
+        <v>21.515004999999999</v>
+      </c>
+      <c r="C316">
+        <f t="shared" si="9"/>
+        <v>14.751206</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>715</v>
+      </c>
+      <c r="B317">
+        <f t="shared" si="8"/>
+        <v>21.530304999999998</v>
+      </c>
+      <c r="C317">
+        <f t="shared" si="9"/>
+        <v>14.754485000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>716</v>
+      </c>
+      <c r="B318">
+        <f t="shared" si="8"/>
+        <v>21.545604999999998</v>
+      </c>
+      <c r="C318">
+        <f t="shared" si="9"/>
+        <v>14.757764000000002</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>717</v>
+      </c>
+      <c r="B319">
+        <f t="shared" si="8"/>
+        <v>21.560904999999998</v>
+      </c>
+      <c r="C319">
+        <f t="shared" si="9"/>
+        <v>14.761043000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>718</v>
+      </c>
+      <c r="B320">
+        <f t="shared" si="8"/>
+        <v>21.576205000000002</v>
+      </c>
+      <c r="C320">
+        <f t="shared" si="9"/>
+        <v>14.764322000000002</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>719</v>
+      </c>
+      <c r="B321">
+        <f t="shared" si="8"/>
+        <v>21.591504999999998</v>
+      </c>
+      <c r="C321">
+        <f t="shared" si="9"/>
+        <v>14.767600999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>720</v>
+      </c>
+      <c r="B322">
+        <f t="shared" si="8"/>
+        <v>21.606805000000001</v>
+      </c>
+      <c r="C322">
+        <f t="shared" si="9"/>
+        <v>14.77088</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>721</v>
+      </c>
+      <c r="B323">
+        <f t="shared" ref="B323:B386" si="10">0.0153*(A323-273.15) + 14.77</f>
+        <v>21.622104999999998</v>
+      </c>
+      <c r="C323">
+        <f t="shared" ref="C323:C386" si="11">100*(0.1241+0.00003279*A323)</f>
+        <v>14.774159000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>722</v>
+      </c>
+      <c r="B324">
+        <f t="shared" si="10"/>
+        <v>21.637405000000001</v>
+      </c>
+      <c r="C324">
+        <f t="shared" si="11"/>
+        <v>14.777438000000002</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>723</v>
+      </c>
+      <c r="B325">
+        <f t="shared" si="10"/>
+        <v>21.652704999999997</v>
+      </c>
+      <c r="C325">
+        <f t="shared" si="11"/>
+        <v>14.780717000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>724</v>
+      </c>
+      <c r="B326">
+        <f t="shared" si="10"/>
+        <v>21.668005000000001</v>
+      </c>
+      <c r="C326">
+        <f t="shared" si="11"/>
+        <v>14.783995999999998</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>725</v>
+      </c>
+      <c r="B327">
+        <f t="shared" si="10"/>
+        <v>21.683305000000001</v>
+      </c>
+      <c r="C327">
+        <f t="shared" si="11"/>
+        <v>14.787274999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>726</v>
+      </c>
+      <c r="B328">
+        <f t="shared" si="10"/>
+        <v>21.698605000000001</v>
+      </c>
+      <c r="C328">
+        <f t="shared" si="11"/>
+        <v>14.790554</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>727</v>
+      </c>
+      <c r="B329">
+        <f t="shared" si="10"/>
+        <v>21.713905</v>
+      </c>
+      <c r="C329">
+        <f t="shared" si="11"/>
+        <v>14.793833000000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>728</v>
+      </c>
+      <c r="B330">
+        <f t="shared" si="10"/>
+        <v>21.729205</v>
+      </c>
+      <c r="C330">
+        <f t="shared" si="11"/>
+        <v>14.797112000000002</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>729</v>
+      </c>
+      <c r="B331">
+        <f t="shared" si="10"/>
+        <v>21.744505</v>
+      </c>
+      <c r="C331">
+        <f t="shared" si="11"/>
+        <v>14.800391000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>730</v>
+      </c>
+      <c r="B332">
+        <f t="shared" si="10"/>
+        <v>21.759805</v>
+      </c>
+      <c r="C332">
+        <f t="shared" si="11"/>
+        <v>14.803669999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>731</v>
+      </c>
+      <c r="B333">
+        <f t="shared" si="10"/>
+        <v>21.775105</v>
+      </c>
+      <c r="C333">
+        <f t="shared" si="11"/>
+        <v>14.806948999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>732</v>
+      </c>
+      <c r="B334">
+        <f t="shared" si="10"/>
+        <v>21.790405</v>
+      </c>
+      <c r="C334">
+        <f t="shared" si="11"/>
+        <v>14.810228</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>733</v>
+      </c>
+      <c r="B335">
+        <f t="shared" si="10"/>
+        <v>21.805705</v>
+      </c>
+      <c r="C335">
+        <f t="shared" si="11"/>
+        <v>14.813507000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>734</v>
+      </c>
+      <c r="B336">
+        <f t="shared" si="10"/>
+        <v>21.821005</v>
+      </c>
+      <c r="C336">
+        <f t="shared" si="11"/>
+        <v>14.816786</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>735</v>
+      </c>
+      <c r="B337">
+        <f t="shared" si="10"/>
+        <v>21.836304999999999</v>
+      </c>
+      <c r="C337">
+        <f t="shared" si="11"/>
+        <v>14.820065</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>736</v>
+      </c>
+      <c r="B338">
+        <f t="shared" si="10"/>
+        <v>21.851604999999999</v>
+      </c>
+      <c r="C338">
+        <f t="shared" si="11"/>
+        <v>14.823343999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>737</v>
+      </c>
+      <c r="B339">
+        <f t="shared" si="10"/>
+        <v>21.866904999999999</v>
+      </c>
+      <c r="C339">
+        <f t="shared" si="11"/>
+        <v>14.826623</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>738</v>
+      </c>
+      <c r="B340">
+        <f t="shared" si="10"/>
+        <v>21.882204999999999</v>
+      </c>
+      <c r="C340">
+        <f t="shared" si="11"/>
+        <v>14.829902000000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>739</v>
+      </c>
+      <c r="B341">
+        <f t="shared" si="10"/>
+        <v>21.897504999999999</v>
+      </c>
+      <c r="C341">
+        <f t="shared" si="11"/>
+        <v>14.833181000000002</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>740</v>
+      </c>
+      <c r="B342">
+        <f t="shared" si="10"/>
+        <v>21.912804999999999</v>
+      </c>
+      <c r="C342">
+        <f t="shared" si="11"/>
+        <v>14.836460000000001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>741</v>
+      </c>
+      <c r="B343">
+        <f t="shared" si="10"/>
+        <v>21.928104999999999</v>
+      </c>
+      <c r="C343">
+        <f t="shared" si="11"/>
+        <v>14.839739000000002</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>742</v>
+      </c>
+      <c r="B344">
+        <f t="shared" si="10"/>
+        <v>21.943404999999998</v>
+      </c>
+      <c r="C344">
+        <f t="shared" si="11"/>
+        <v>14.843017999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>743</v>
+      </c>
+      <c r="B345">
+        <f t="shared" si="10"/>
+        <v>21.958704999999998</v>
+      </c>
+      <c r="C345">
+        <f t="shared" si="11"/>
+        <v>14.846297</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>744</v>
+      </c>
+      <c r="B346">
+        <f t="shared" si="10"/>
+        <v>21.974004999999998</v>
+      </c>
+      <c r="C346">
+        <f t="shared" si="11"/>
+        <v>14.849576000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>745</v>
+      </c>
+      <c r="B347">
+        <f t="shared" si="10"/>
+        <v>21.989305000000002</v>
+      </c>
+      <c r="C347">
+        <f t="shared" si="11"/>
+        <v>14.852855000000002</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>746</v>
+      </c>
+      <c r="B348">
+        <f t="shared" si="10"/>
+        <v>22.004604999999998</v>
+      </c>
+      <c r="C348">
+        <f t="shared" si="11"/>
+        <v>14.856134000000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>747</v>
+      </c>
+      <c r="B349">
+        <f t="shared" si="10"/>
+        <v>22.019905000000001</v>
+      </c>
+      <c r="C349">
+        <f t="shared" si="11"/>
+        <v>14.859413</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>748</v>
+      </c>
+      <c r="B350">
+        <f t="shared" si="10"/>
+        <v>22.035204999999998</v>
+      </c>
+      <c r="C350">
+        <f t="shared" si="11"/>
+        <v>14.862691999999999</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>749</v>
+      </c>
+      <c r="B351">
+        <f t="shared" si="10"/>
+        <v>22.050505000000001</v>
+      </c>
+      <c r="C351">
+        <f t="shared" si="11"/>
+        <v>14.865971</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>750</v>
+      </c>
+      <c r="B352">
+        <f t="shared" si="10"/>
+        <v>22.065804999999997</v>
+      </c>
+      <c r="C352">
+        <f t="shared" si="11"/>
+        <v>14.869250000000001</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>751</v>
+      </c>
+      <c r="B353">
+        <f t="shared" si="10"/>
+        <v>22.081105000000001</v>
+      </c>
+      <c r="C353">
+        <f t="shared" si="11"/>
+        <v>14.872529</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>752</v>
+      </c>
+      <c r="B354">
+        <f t="shared" si="10"/>
+        <v>22.096405000000001</v>
+      </c>
+      <c r="C354">
+        <f t="shared" si="11"/>
+        <v>14.875808000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>753</v>
+      </c>
+      <c r="B355">
+        <f t="shared" si="10"/>
+        <v>22.111705000000001</v>
+      </c>
+      <c r="C355">
+        <f t="shared" si="11"/>
+        <v>14.879087000000002</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>754</v>
+      </c>
+      <c r="B356">
+        <f t="shared" si="10"/>
+        <v>22.127005</v>
+      </c>
+      <c r="C356">
+        <f t="shared" si="11"/>
+        <v>14.882365999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>755</v>
+      </c>
+      <c r="B357">
+        <f t="shared" si="10"/>
+        <v>22.142305</v>
+      </c>
+      <c r="C357">
+        <f t="shared" si="11"/>
+        <v>14.885645</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>756</v>
+      </c>
+      <c r="B358">
+        <f t="shared" si="10"/>
+        <v>22.157605</v>
+      </c>
+      <c r="C358">
+        <f t="shared" si="11"/>
+        <v>14.888924000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>757</v>
+      </c>
+      <c r="B359">
+        <f t="shared" si="10"/>
+        <v>22.172905</v>
+      </c>
+      <c r="C359">
+        <f t="shared" si="11"/>
+        <v>14.892203</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>758</v>
+      </c>
+      <c r="B360">
+        <f t="shared" si="10"/>
+        <v>22.188205</v>
+      </c>
+      <c r="C360">
+        <f t="shared" si="11"/>
+        <v>14.895482000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>759</v>
+      </c>
+      <c r="B361">
+        <f t="shared" si="10"/>
+        <v>22.203505</v>
+      </c>
+      <c r="C361">
+        <f t="shared" si="11"/>
+        <v>14.898760999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>760</v>
+      </c>
+      <c r="B362">
+        <f t="shared" si="10"/>
+        <v>22.218805</v>
+      </c>
+      <c r="C362">
+        <f t="shared" si="11"/>
+        <v>14.90204</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>761</v>
+      </c>
+      <c r="B363">
+        <f t="shared" si="10"/>
+        <v>22.234105</v>
+      </c>
+      <c r="C363">
+        <f t="shared" si="11"/>
+        <v>14.905319</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>762</v>
+      </c>
+      <c r="B364">
+        <f t="shared" si="10"/>
+        <v>22.249404999999999</v>
+      </c>
+      <c r="C364">
+        <f t="shared" si="11"/>
+        <v>14.908598000000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>763</v>
+      </c>
+      <c r="B365">
+        <f t="shared" si="10"/>
+        <v>22.264704999999999</v>
+      </c>
+      <c r="C365">
+        <f t="shared" si="11"/>
+        <v>14.911877</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>764</v>
+      </c>
+      <c r="B366">
+        <f t="shared" si="10"/>
+        <v>22.280004999999999</v>
+      </c>
+      <c r="C366">
+        <f t="shared" si="11"/>
+        <v>14.915156000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>765</v>
+      </c>
+      <c r="B367">
+        <f t="shared" si="10"/>
+        <v>22.295304999999999</v>
+      </c>
+      <c r="C367">
+        <f t="shared" si="11"/>
+        <v>14.918434999999999</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>766</v>
+      </c>
+      <c r="B368">
+        <f t="shared" si="10"/>
+        <v>22.310604999999999</v>
+      </c>
+      <c r="C368">
+        <f t="shared" si="11"/>
+        <v>14.921714</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>767</v>
+      </c>
+      <c r="B369">
+        <f t="shared" si="10"/>
+        <v>22.325904999999999</v>
+      </c>
+      <c r="C369">
+        <f t="shared" si="11"/>
+        <v>14.924993000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>768</v>
+      </c>
+      <c r="B370">
+        <f t="shared" si="10"/>
+        <v>22.341204999999999</v>
+      </c>
+      <c r="C370">
+        <f t="shared" si="11"/>
+        <v>14.928272000000002</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>769</v>
+      </c>
+      <c r="B371">
+        <f t="shared" si="10"/>
+        <v>22.356504999999999</v>
+      </c>
+      <c r="C371">
+        <f t="shared" si="11"/>
+        <v>14.931551000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>770</v>
+      </c>
+      <c r="B372">
+        <f t="shared" si="10"/>
+        <v>22.371804999999998</v>
+      </c>
+      <c r="C372">
+        <f t="shared" si="11"/>
+        <v>14.934829999999998</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>771</v>
+      </c>
+      <c r="B373">
+        <f t="shared" si="10"/>
+        <v>22.387104999999998</v>
+      </c>
+      <c r="C373">
+        <f t="shared" si="11"/>
+        <v>14.938108999999999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>772</v>
+      </c>
+      <c r="B374">
+        <f t="shared" si="10"/>
+        <v>22.402405000000002</v>
+      </c>
+      <c r="C374">
+        <f t="shared" si="11"/>
+        <v>14.941388</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>773</v>
+      </c>
+      <c r="B375">
+        <f t="shared" si="10"/>
+        <v>22.417704999999998</v>
+      </c>
+      <c r="C375">
+        <f t="shared" si="11"/>
+        <v>14.944667000000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>774</v>
+      </c>
+      <c r="B376">
+        <f t="shared" si="10"/>
+        <v>22.433005000000001</v>
+      </c>
+      <c r="C376">
+        <f t="shared" si="11"/>
+        <v>14.947946000000002</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>775</v>
+      </c>
+      <c r="B377">
+        <f t="shared" si="10"/>
+        <v>22.448304999999998</v>
+      </c>
+      <c r="C377">
+        <f t="shared" si="11"/>
+        <v>14.951225000000001</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>776</v>
+      </c>
+      <c r="B378">
+        <f t="shared" si="10"/>
+        <v>22.463605000000001</v>
+      </c>
+      <c r="C378">
+        <f t="shared" si="11"/>
+        <v>14.954504000000002</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>777</v>
+      </c>
+      <c r="B379">
+        <f t="shared" si="10"/>
+        <v>22.478904999999997</v>
+      </c>
+      <c r="C379">
+        <f t="shared" si="11"/>
+        <v>14.957782999999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>778</v>
+      </c>
+      <c r="B380">
+        <f t="shared" si="10"/>
+        <v>22.494205000000001</v>
+      </c>
+      <c r="C380">
+        <f t="shared" si="11"/>
+        <v>14.961062</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>779</v>
+      </c>
+      <c r="B381">
+        <f t="shared" si="10"/>
+        <v>22.509505000000001</v>
+      </c>
+      <c r="C381">
+        <f t="shared" si="11"/>
+        <v>14.964341000000001</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>780</v>
+      </c>
+      <c r="B382">
+        <f t="shared" si="10"/>
+        <v>22.524805000000001</v>
+      </c>
+      <c r="C382">
+        <f t="shared" si="11"/>
+        <v>14.96762</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>781</v>
+      </c>
+      <c r="B383">
+        <f t="shared" si="10"/>
+        <v>22.540105000000001</v>
+      </c>
+      <c r="C383">
+        <f t="shared" si="11"/>
+        <v>14.970899000000001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>782</v>
+      </c>
+      <c r="B384">
+        <f t="shared" si="10"/>
+        <v>22.555405</v>
+      </c>
+      <c r="C384">
+        <f t="shared" si="11"/>
+        <v>14.974177999999998</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>783</v>
+      </c>
+      <c r="B385">
+        <f t="shared" si="10"/>
+        <v>22.570705</v>
+      </c>
+      <c r="C385">
+        <f t="shared" si="11"/>
+        <v>14.977456999999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>784</v>
+      </c>
+      <c r="B386">
+        <f t="shared" si="10"/>
+        <v>22.586005</v>
+      </c>
+      <c r="C386">
+        <f t="shared" si="11"/>
+        <v>14.980736</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>785</v>
+      </c>
+      <c r="B387">
+        <f t="shared" ref="B387:B402" si="12">0.0153*(A387-273.15) + 14.77</f>
+        <v>22.601305</v>
+      </c>
+      <c r="C387">
+        <f t="shared" ref="C387:C402" si="13">100*(0.1241+0.00003279*A387)</f>
+        <v>14.984015000000001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>786</v>
+      </c>
+      <c r="B388">
+        <f t="shared" si="12"/>
+        <v>22.616605</v>
+      </c>
+      <c r="C388">
+        <f t="shared" si="13"/>
+        <v>14.987294</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>787</v>
+      </c>
+      <c r="B389">
+        <f t="shared" si="12"/>
+        <v>22.631905</v>
+      </c>
+      <c r="C389">
+        <f t="shared" si="13"/>
+        <v>14.990573000000001</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>788</v>
+      </c>
+      <c r="B390">
+        <f t="shared" si="12"/>
+        <v>22.647205</v>
+      </c>
+      <c r="C390">
+        <f t="shared" si="13"/>
+        <v>14.993852000000002</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>789</v>
+      </c>
+      <c r="B391">
+        <f t="shared" si="12"/>
+        <v>22.662504999999999</v>
+      </c>
+      <c r="C391">
+        <f t="shared" si="13"/>
+        <v>14.997131</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>790</v>
+      </c>
+      <c r="B392">
+        <f t="shared" si="12"/>
+        <v>22.677804999999999</v>
+      </c>
+      <c r="C392">
+        <f t="shared" si="13"/>
+        <v>15.00041</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>791</v>
+      </c>
+      <c r="B393">
+        <f t="shared" si="12"/>
+        <v>22.693104999999999</v>
+      </c>
+      <c r="C393">
+        <f t="shared" si="13"/>
+        <v>15.003689000000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>792</v>
+      </c>
+      <c r="B394">
+        <f t="shared" si="12"/>
+        <v>22.708404999999999</v>
+      </c>
+      <c r="C394">
+        <f t="shared" si="13"/>
+        <v>15.006968000000001</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>793</v>
+      </c>
+      <c r="B395">
+        <f t="shared" si="12"/>
+        <v>22.723704999999999</v>
+      </c>
+      <c r="C395">
+        <f t="shared" si="13"/>
+        <v>15.010247000000001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>794</v>
+      </c>
+      <c r="B396">
+        <f t="shared" si="12"/>
+        <v>22.739004999999999</v>
+      </c>
+      <c r="C396">
+        <f t="shared" si="13"/>
+        <v>15.013525999999999</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>795</v>
+      </c>
+      <c r="B397">
+        <f t="shared" si="12"/>
+        <v>22.754304999999999</v>
+      </c>
+      <c r="C397">
+        <f t="shared" si="13"/>
+        <v>15.016805</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>796</v>
+      </c>
+      <c r="B398">
+        <f t="shared" si="12"/>
+        <v>22.769604999999999</v>
+      </c>
+      <c r="C398">
+        <f t="shared" si="13"/>
+        <v>15.020084000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>797</v>
+      </c>
+      <c r="B399">
+        <f t="shared" si="12"/>
+        <v>22.784905000000002</v>
+      </c>
+      <c r="C399">
+        <f t="shared" si="13"/>
+        <v>15.023363</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>798</v>
+      </c>
+      <c r="B400">
+        <f t="shared" si="12"/>
+        <v>22.800204999999998</v>
+      </c>
+      <c r="C400">
+        <f t="shared" si="13"/>
+        <v>15.026642000000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>799</v>
+      </c>
+      <c r="B401">
+        <f t="shared" si="12"/>
+        <v>22.815505000000002</v>
+      </c>
+      <c r="C401">
+        <f t="shared" si="13"/>
+        <v>15.029921000000002</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>800</v>
+      </c>
+      <c r="B402">
+        <f t="shared" si="12"/>
+        <v>22.830804999999998</v>
+      </c>
+      <c r="C402">
+        <f t="shared" si="13"/>
+        <v>15.033199999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:R61"/>
   <sheetViews>
@@ -38482,7 +43731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:S79"/>
   <sheetViews>
@@ -39659,7 +44908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
@@ -40281,7 +45530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A2:K30"/>
   <sheetViews>
@@ -41056,7 +46305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:R61"/>
   <sheetViews>

--- a/csenergy/auxiliary calculations/propiedades fluidos.xlsx
+++ b/csenergy/auxiliary calculations/propiedades fluidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paco\0_TFG\csenergy\auxiliary calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C3E588-6B71-4D06-9DFA-451718842409}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03DD2A7-A8A2-499C-8F7B-42851A831954}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="761" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="761" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM" sheetId="2" r:id="rId1"/>
@@ -29,9 +29,6 @@
     <sheet name=" Kt ACERO" sheetId="27" r:id="rId14"/>
     <sheet name="aire" sheetId="7" r:id="rId15"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId16"/>
-  </externalReferences>
   <definedNames>
     <definedName name="solver_adj" localSheetId="7" hidden="1">H_T_S800!$T$2</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">H_T_VP1!$P$2</definedName>
@@ -326,9 +323,9 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -472,14 +469,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -488,20 +485,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -23467,1398 +23464,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ViscoDinDowA"/>
-      <sheetName val="H_T_DOWA"/>
-      <sheetName val="CpDowA"/>
-      <sheetName val="KtDowA"/>
-      <sheetName val="densidadDowA"/>
-      <sheetName val="visco_DowtherA"/>
-      <sheetName val="CURVAS DOW-A"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>T [K]</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>H[T]</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>286</v>
-          </cell>
-          <cell r="C3">
-            <v>1381.6995939020817</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>296</v>
-          </cell>
-          <cell r="C4">
-            <v>17737.391657753869</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>306</v>
-          </cell>
-          <cell r="C5">
-            <v>34199.440621686124</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>316</v>
-          </cell>
-          <cell r="C6">
-            <v>50793.66116857373</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>326</v>
-          </cell>
-          <cell r="C7">
-            <v>67543.264516091265</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>336</v>
-          </cell>
-          <cell r="C8">
-            <v>84468.99109664376</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>346</v>
-          </cell>
-          <cell r="C9">
-            <v>101589.24323730025</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>356</v>
-          </cell>
-          <cell r="C10">
-            <v>118920.21783972502</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>366</v>
-          </cell>
-          <cell r="C11">
-            <v>136476.03906010895</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>376</v>
-          </cell>
-          <cell r="C12">
-            <v>154268.89098910202</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>386</v>
-          </cell>
-          <cell r="C13">
-            <v>172309.15033174632</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>396</v>
-          </cell>
-          <cell r="C14">
-            <v>190605.51908740663</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>406</v>
-          </cell>
-          <cell r="C15">
-            <v>209165.15722970269</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>416</v>
-          </cell>
-          <cell r="C16">
-            <v>227993.81538644168</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>426</v>
-          </cell>
-          <cell r="C17">
-            <v>247095.96751954971</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>436</v>
-          </cell>
-          <cell r="C18">
-            <v>266474.94360500493</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>446</v>
-          </cell>
-          <cell r="C19">
-            <v>286133.06231276749</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>456</v>
-          </cell>
-          <cell r="C20">
-            <v>306071.76368671405</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>466</v>
-          </cell>
-          <cell r="C21">
-            <v>326291.74182456674</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>476</v>
-          </cell>
-          <cell r="C22">
-            <v>346793.07755782898</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>486</v>
-          </cell>
-          <cell r="C23">
-            <v>367575.37113171379</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>496</v>
-          </cell>
-          <cell r="C24">
-            <v>388637.87488507846</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>506</v>
-          </cell>
-          <cell r="C25">
-            <v>409979.62593035394</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>516</v>
-          </cell>
-          <cell r="C26">
-            <v>431599.57883348066</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>526</v>
-          </cell>
-          <cell r="C27">
-            <v>453496.73829383531</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>536</v>
-          </cell>
-          <cell r="C28">
-            <v>475670.29182416905</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>546</v>
-          </cell>
-          <cell r="C29">
-            <v>498119.74243053363</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>556</v>
-          </cell>
-          <cell r="C30">
-            <v>520845.04129221791</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>566</v>
-          </cell>
-          <cell r="C31">
-            <v>543846.72044167644</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>576</v>
-          </cell>
-          <cell r="C32">
-            <v>567126.02544446359</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>586</v>
-          </cell>
-          <cell r="C33">
-            <v>590685.04807916458</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>596</v>
-          </cell>
-          <cell r="C34">
-            <v>614526.85901732964</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>606</v>
-          </cell>
-          <cell r="C35">
-            <v>638655.64050340024</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>616</v>
-          </cell>
-          <cell r="C36">
-            <v>663076.81903465092</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>626</v>
-          </cell>
-          <cell r="C37">
-            <v>687797.19804110774</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>636</v>
-          </cell>
-          <cell r="C38">
-            <v>712825.09056549589</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>646</v>
-          </cell>
-          <cell r="C39">
-            <v>738170.4519431598</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>656</v>
-          </cell>
-          <cell r="C40">
-            <v>763845.01248199726</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>666</v>
-          </cell>
-          <cell r="C41">
-            <v>789862.41014239611</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>Cp [J/kgK]</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>14.850000000000023</v>
-          </cell>
-          <cell r="C2">
-            <v>1556.24090127008</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>24.850000000000023</v>
-          </cell>
-          <cell r="C3">
-            <v>1586.7167975260568</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>34.850000000000023</v>
-          </cell>
-          <cell r="C4">
-            <v>1616.2995417314517</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>44.850000000000023</v>
-          </cell>
-          <cell r="C5">
-            <v>1645.2066964943494</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>54.850000000000023</v>
-          </cell>
-          <cell r="C6">
-            <v>1673.6228608861936</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>64.850000000000023</v>
-          </cell>
-          <cell r="C7">
-            <v>1701.7020455404531</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>74.850000000000023</v>
-          </cell>
-          <cell r="C8">
-            <v>1729.5700477512869</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>84.850000000000023</v>
-          </cell>
-          <cell r="C9">
-            <v>1757.3268265722495</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>94.850000000000023</v>
-          </cell>
-          <cell r="C10">
-            <v>1785.048877914963</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>104.85000000000002</v>
-          </cell>
-          <cell r="C11">
-            <v>1812.7916096477761</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>114.85000000000002</v>
-          </cell>
-          <cell r="C12">
-            <v>1840.5917166944757</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>124.85000000000002</v>
-          </cell>
-          <cell r="C13">
-            <v>1868.4695561329515</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>134.85000000000002</v>
-          </cell>
-          <cell r="C14">
-            <v>1896.4315222938799</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>144.85000000000002</v>
-          </cell>
-          <cell r="C15">
-            <v>1924.4724218593938</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>154.85000000000002</v>
-          </cell>
-          <cell r="C16">
-            <v>1952.5778489617678</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>164.85000000000002</v>
-          </cell>
-          <cell r="C17">
-            <v>1980.7265602821026</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>174.85000000000002</v>
-          </cell>
-          <cell r="C18">
-            <v>2008.8928501490186</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>184.85000000000002</v>
-          </cell>
-          <cell r="C19">
-            <v>2037.0489256373007</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>194.85000000000002</v>
-          </cell>
-          <cell r="C20">
-            <v>2065.1672816665978</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>204.85000000000002</v>
-          </cell>
-          <cell r="C21">
-            <v>2093.223076100121</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>214.85000000000002</v>
-          </cell>
-          <cell r="C22">
-            <v>2121.196504843294</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>224.85000000000002</v>
-          </cell>
-          <cell r="C23">
-            <v>2149.0751769424378</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>234.85000000000002</v>
-          </cell>
-          <cell r="C24">
-            <v>2176.8564896834541</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>244.85000000000002</v>
-          </cell>
-          <cell r="C25">
-            <v>2204.5500036905314</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>254.85000000000002</v>
-          </cell>
-          <cell r="C26">
-            <v>2232.1798180247915</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>264.85000000000002</v>
-          </cell>
-          <cell r="C27">
-            <v>2259.7869452829764</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>274.85000000000002</v>
-          </cell>
-          <cell r="C28">
-            <v>2287.4316866961362</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>284.85000000000002</v>
-          </cell>
-          <cell r="C29">
-            <v>2315.1960072282945</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>294.85000000000002</v>
-          </cell>
-          <cell r="C30">
-            <v>2343.1859106751326</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>304.85000000000002</v>
-          </cell>
-          <cell r="C31">
-            <v>2371.5338147627208</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>314.85000000000002</v>
-          </cell>
-          <cell r="C32">
-            <v>2400.4009262461259</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>324.85000000000002</v>
-          </cell>
-          <cell r="C33">
-            <v>2429.9796160080805</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>334.85</v>
-          </cell>
-          <cell r="C34">
-            <v>2460.4957941577559</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>344.85</v>
-          </cell>
-          <cell r="C35">
-            <v>2492.2112851293714</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>354.85</v>
-          </cell>
-          <cell r="C36">
-            <v>2525.4262027808873</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>364.85</v>
-          </cell>
-          <cell r="C37">
-            <v>2560.4813254926594</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>374.85</v>
-          </cell>
-          <cell r="C38">
-            <v>2597.7604712662251</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>384.85</v>
-          </cell>
-          <cell r="C39">
-            <v>2637.6928728228013</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>394.85</v>
-          </cell>
-          <cell r="C40">
-            <v>2680.7555527021614</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>Densidad [kg/m3]</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>14.850000000000023</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>24.850000000000023</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>34.850000000000023</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>44.850000000000023</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>54.850000000000023</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>64.850000000000023</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>74.850000000000023</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>84.850000000000023</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>94.850000000000023</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>104.85000000000002</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>114.85000000000002</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>124.85000000000002</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>134.85000000000002</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>144.85000000000002</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>154.85000000000002</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>164.85000000000002</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>174.85000000000002</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>184.85000000000002</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>194.85000000000002</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>204.85000000000002</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>214.85000000000002</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>224.85000000000002</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>234.85000000000002</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>244.85000000000002</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>254.85000000000002</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>264.85000000000002</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>274.85000000000002</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>284.85000000000002</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>294.85000000000002</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>304.85000000000002</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>314.85000000000002</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>324.85000000000002</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>334.85</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>344.85</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>354.85</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>364.85</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>374.85</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>384.85</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>394.85</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="A2">
-            <v>14.850000000000023</v>
-          </cell>
-          <cell r="B2">
-            <v>1.3736319945288941E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>24.850000000000023</v>
-          </cell>
-          <cell r="B3">
-            <v>1.3082110411881231E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>34.850000000000023</v>
-          </cell>
-          <cell r="B4">
-            <v>1.2824561283083527E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>44.850000000000023</v>
-          </cell>
-          <cell r="B5">
-            <v>1.2850852577466598E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>54.850000000000023</v>
-          </cell>
-          <cell r="B6">
-            <v>1.3077177650571842E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>64.850000000000023</v>
-          </cell>
-          <cell r="B7">
-            <v>1.3442670081274199E-2</v>
-          </cell>
-          <cell r="E7">
-            <v>15</v>
-          </cell>
-          <cell r="F7">
-            <v>288.14999999999998</v>
-          </cell>
-          <cell r="G7">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>74.850000000000023</v>
-          </cell>
-          <cell r="B8">
-            <v>1.3904286176480096E-2</v>
-          </cell>
-          <cell r="E8">
-            <v>65</v>
-          </cell>
-          <cell r="F8">
-            <v>338.15</v>
-          </cell>
-          <cell r="G8">
-            <v>1.58E-3</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>84.850000000000023</v>
-          </cell>
-          <cell r="B9">
-            <v>1.4432543836584821E-2</v>
-          </cell>
-          <cell r="E9">
-            <v>105</v>
-          </cell>
-          <cell r="F9">
-            <v>378.15</v>
-          </cell>
-          <cell r="G9">
-            <v>9.1E-4</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>94.850000000000023</v>
-          </cell>
-          <cell r="B10">
-            <v>1.5008023664554337E-2</v>
-          </cell>
-          <cell r="E10">
-            <v>155</v>
-          </cell>
-          <cell r="F10">
-            <v>428.15</v>
-          </cell>
-          <cell r="G10">
-            <v>5.6000000000000006E-4</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>104.85000000000002</v>
-          </cell>
-          <cell r="B11">
-            <v>1.5618543342558411E-2</v>
-          </cell>
-          <cell r="E11">
-            <v>205</v>
-          </cell>
-          <cell r="F11">
-            <v>478.15</v>
-          </cell>
-          <cell r="G11">
-            <v>3.8000000000000002E-4</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>114.85000000000002</v>
-          </cell>
-          <cell r="B12">
-            <v>1.6256921440849559E-2</v>
-          </cell>
-          <cell r="E12">
-            <v>255</v>
-          </cell>
-          <cell r="F12">
-            <v>528.15</v>
-          </cell>
-          <cell r="G12">
-            <v>2.7E-4</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>124.85000000000002</v>
-          </cell>
-          <cell r="B13">
-            <v>1.6919251964069071E-2</v>
-          </cell>
-          <cell r="E13">
-            <v>305</v>
-          </cell>
-          <cell r="F13">
-            <v>578.15</v>
-          </cell>
-          <cell r="G13">
-            <v>2.0000000000000001E-4</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>134.85000000000002</v>
-          </cell>
-          <cell r="B14">
-            <v>1.7603616081710349E-2</v>
-          </cell>
-          <cell r="E14">
-            <v>355</v>
-          </cell>
-          <cell r="F14">
-            <v>628.15</v>
-          </cell>
-          <cell r="G14">
-            <v>1.6000000000000001E-4</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>144.85000000000002</v>
-          </cell>
-          <cell r="B15">
-            <v>1.8309162629110087E-2</v>
-          </cell>
-          <cell r="E15">
-            <v>405</v>
-          </cell>
-          <cell r="F15">
-            <v>678.15</v>
-          </cell>
-          <cell r="G15">
-            <v>1.1999999999999999E-4</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>154.85000000000002</v>
-          </cell>
-          <cell r="B16">
-            <v>1.9035494107488171E-2</v>
-          </cell>
-          <cell r="E16">
-            <v>415</v>
-          </cell>
-          <cell r="F16">
-            <v>688.15</v>
-          </cell>
-          <cell r="G16">
-            <v>0.11796600000000002</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>164.85000000000002</v>
-          </cell>
-          <cell r="B17">
-            <v>1.9782300051386814E-2</v>
-          </cell>
-          <cell r="E17">
-            <v>425</v>
-          </cell>
-          <cell r="F17">
-            <v>698.15</v>
-          </cell>
-          <cell r="G17">
-            <v>9.4403000000000065E-5</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>174.85000000000002</v>
-          </cell>
-          <cell r="B18">
-            <v>2.0549184772362672E-2</v>
-          </cell>
-          <cell r="E18">
-            <v>435</v>
-          </cell>
-          <cell r="F18">
-            <v>708.15</v>
-          </cell>
-          <cell r="G18">
-            <v>8.4603000000000044E-5</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>184.85000000000002</v>
-          </cell>
-          <cell r="B19">
-            <v>2.1335641630611857E-2</v>
-          </cell>
-          <cell r="E19">
-            <v>445</v>
-          </cell>
-          <cell r="F19">
-            <v>718.15</v>
-          </cell>
-          <cell r="G19">
-            <v>7.4803000000000131E-5</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>194.85000000000002</v>
-          </cell>
-          <cell r="B20">
-            <v>2.2141131124030267E-2</v>
-          </cell>
-          <cell r="E20">
-            <v>455</v>
-          </cell>
-          <cell r="F20">
-            <v>728.15</v>
-          </cell>
-          <cell r="G20">
-            <v>6.5003000000000109E-5</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>204.85000000000002</v>
-          </cell>
-          <cell r="B21">
-            <v>2.2965225227264519E-2</v>
-          </cell>
-          <cell r="E21">
-            <v>465</v>
-          </cell>
-          <cell r="F21">
-            <v>738.15</v>
-          </cell>
-          <cell r="G21">
-            <v>5.5203000000000088E-5</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>214.85000000000002</v>
-          </cell>
-          <cell r="B22">
-            <v>2.3807785553821681E-2</v>
-          </cell>
-          <cell r="E22">
-            <v>475</v>
-          </cell>
-          <cell r="F22">
-            <v>748.15</v>
-          </cell>
-          <cell r="G22">
-            <v>4.5403000000000067E-5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>224.85000000000002</v>
-          </cell>
-          <cell r="B23">
-            <v>2.4669148053602541E-2</v>
-          </cell>
-          <cell r="E23">
-            <v>485</v>
-          </cell>
-          <cell r="F23">
-            <v>758.15</v>
-          </cell>
-          <cell r="G23">
-            <v>3.5603000000000045E-5</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>234.85000000000002</v>
-          </cell>
-          <cell r="B24">
-            <v>2.5550292101174321E-2</v>
-          </cell>
-          <cell r="E24">
-            <v>495</v>
-          </cell>
-          <cell r="F24">
-            <v>768.15</v>
-          </cell>
-          <cell r="G24">
-            <v>2.5803000000000132E-5</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>244.85000000000002</v>
-          </cell>
-          <cell r="B25">
-            <v>2.6452976968921682E-2</v>
-          </cell>
-          <cell r="E25">
-            <v>505</v>
-          </cell>
-          <cell r="F25">
-            <v>778.15</v>
-          </cell>
-          <cell r="G25">
-            <v>1.6003000000000111E-5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>254.85000000000002</v>
-          </cell>
-          <cell r="B26">
-            <v>2.7379833821430388E-2</v>
-          </cell>
-          <cell r="E26">
-            <v>515</v>
-          </cell>
-          <cell r="F26">
-            <v>788.15</v>
-          </cell>
-          <cell r="G26">
-            <v>6.2030000000000895E-6</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>264.85000000000002</v>
-          </cell>
-          <cell r="B27">
-            <v>2.8334406507923404E-2</v>
-          </cell>
-          <cell r="E27">
-            <v>525</v>
-          </cell>
-          <cell r="F27">
-            <v>798.15</v>
-          </cell>
-          <cell r="G27">
-            <v>-3.5969999999999318E-6</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>274.85000000000002</v>
-          </cell>
-          <cell r="B28">
-            <v>2.9321139570042121E-2</v>
-          </cell>
-          <cell r="E28">
-            <v>535</v>
-          </cell>
-          <cell r="F28">
-            <v>808.15</v>
-          </cell>
-          <cell r="G28">
-            <v>-1.3396999999999953E-5</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>284.85000000000002</v>
-          </cell>
-          <cell r="B29">
-            <v>3.0345317022140605E-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>294.85000000000002</v>
-          </cell>
-          <cell r="B30">
-            <v>3.1412960605141649E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>304.85000000000002</v>
-          </cell>
-          <cell r="B31">
-            <v>3.2530701352149194E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>314.85000000000002</v>
-          </cell>
-          <cell r="B32">
-            <v>3.3705643447145661E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>324.85000000000002</v>
-          </cell>
-          <cell r="B33">
-            <v>3.4945244498295835E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>334.85</v>
-          </cell>
-          <cell r="B34">
-            <v>3.6257241487707148E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>344.85</v>
-          </cell>
-          <cell r="B35">
-            <v>3.7649656800635256E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>354.85</v>
-          </cell>
-          <cell r="B36">
-            <v>3.9130923879575619E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>364.85</v>
-          </cell>
-          <cell r="B37">
-            <v>4.0710177183406415E-2</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>374.85</v>
-          </cell>
-          <cell r="B38">
-            <v>4.2397756284870525E-2</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>384.85</v>
-          </cell>
-          <cell r="B39">
-            <v>4.420597906290169E-2</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>394.85</v>
-          </cell>
-          <cell r="B40">
-            <v>4.6150244105390925E-2</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>384.85</v>
-          </cell>
-          <cell r="B41">
-            <v>4.420597906290169E-2</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>394.85</v>
-          </cell>
-          <cell r="B42">
-            <v>4.6150244105390925E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -35577,7 +34182,7 @@
         <v>288.14999999999998</v>
       </c>
       <c r="P37" s="8">
-        <f>$G$46+$H$46*N37+$I$46*N37^2+$J$46*N37^3+$K$46*N37^4+$L$46*N37^5</f>
+        <f t="shared" ref="P37:P44" si="1">$G$46+$H$46*N37+$I$46*N37^2+$J$46*N37^3+$K$46*N37^4+$L$46*N37^5</f>
         <v>3029.5539691152117</v>
       </c>
     </row>
@@ -35599,7 +34204,7 @@
         <v>338.15</v>
       </c>
       <c r="P38" s="8">
-        <f>$G$46+$H$46*N38+$I$46*N38^2+$J$46*N38^3+$K$46*N38^4+$L$46*N38^5</f>
+        <f t="shared" si="1"/>
         <v>83048.068636052529</v>
       </c>
     </row>
@@ -35621,7 +34226,7 @@
         <v>378.15</v>
       </c>
       <c r="P39" s="8">
-        <f>$G$46+$H$46*N39+$I$46*N39^2+$J$46*N39^3+$K$46*N39^4+$L$46*N39^5</f>
+        <f t="shared" si="1"/>
         <v>152202.43140067905</v>
       </c>
     </row>
@@ -35643,7 +34248,7 @@
         <v>428.15</v>
       </c>
       <c r="P40" s="8">
-        <f>$G$46+$H$46*N40+$I$46*N40^2+$J$46*N40^3+$K$46*N40^4+$L$46*N40^5</f>
+        <f t="shared" si="1"/>
         <v>244581.36180692527</v>
       </c>
     </row>
@@ -35652,14 +34257,14 @@
         <v>676</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" ref="C41:C48" si="1">$G$46+$H$46*A41+$I$46*A41^2+$J$46*A41^3+$K$46*A41^4+$L$46*A41^5</f>
+        <f t="shared" ref="C41:C48" si="2">$G$46+$H$46*A41+$I$46*A41^2+$J$46*A41^3+$K$46*A41^4+$L$46*A41^5</f>
         <v>788400.80464726815</v>
       </c>
       <c r="N41">
         <v>478.15</v>
       </c>
       <c r="P41" s="8">
-        <f>$G$46+$H$46*N41+$I$46*N41^2+$J$46*N41^3+$K$46*N41^4+$L$46*N41^5</f>
+        <f t="shared" si="1"/>
         <v>343202.39910151763</v>
       </c>
     </row>
@@ -35668,14 +34273,14 @@
         <v>686</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>812861.89154369943</v>
       </c>
       <c r="N42">
         <v>528.15</v>
       </c>
       <c r="P42" s="8">
-        <f>$G$46+$H$46*N42+$I$46*N42^2+$J$46*N42^3+$K$46*N42^4+$L$46*N42^5</f>
+        <f t="shared" si="1"/>
         <v>447784.03679769288</v>
       </c>
     </row>
@@ -35684,14 +34289,14 @@
         <v>696</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>837460.04217489518</v>
       </c>
       <c r="N43">
         <v>578.15</v>
       </c>
       <c r="P43" s="8">
-        <f>$G$46+$H$46*N43+$I$46*N43^2+$J$46*N43^3+$K$46*N43^4+$L$46*N43^5</f>
+        <f t="shared" si="1"/>
         <v>558035.80790331308</v>
       </c>
     </row>
@@ -35700,14 +34305,14 @@
         <v>706</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>862184.49137708207</v>
       </c>
       <c r="N44">
         <v>628.15</v>
       </c>
       <c r="P44" s="8">
-        <f>$G$46+$H$46*N44+$I$46*N44^2+$J$46*N44^3+$K$46*N44^4+$L$46*N44^5</f>
+        <f t="shared" si="1"/>
         <v>673542.4147958653</v>
       </c>
     </row>
@@ -35716,7 +34321,7 @@
         <v>716</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>887023.65189586347</v>
       </c>
       <c r="G45">
@@ -35743,7 +34348,7 @@
         <v>726</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>911965.07730777806</v>
       </c>
       <c r="G46" s="7">
@@ -35770,7 +34375,7 @@
         <v>736</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>936995.42494186014</v>
       </c>
     </row>
@@ -35779,7 +34384,7 @@
         <v>746</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>962100.41880120093</v>
       </c>
     </row>
@@ -35788,7 +34393,7 @@
         <v>756</v>
       </c>
       <c r="C49" s="8">
-        <f>$G$46+$H$46*A49+$I$46*A49^2+$J$46*A49^3+$K$46*A49^4+$L$46*A49^5</f>
+        <f t="shared" ref="C49:C70" si="3">$G$46+$H$46*A49+$I$46*A49^2+$J$46*A49^3+$K$46*A49^4+$L$46*A49^5</f>
         <v>987264.8124845064</v>
       </c>
     </row>
@@ -35797,7 +34402,7 @@
         <v>766</v>
       </c>
       <c r="C50" s="8">
-        <f>$G$46+$H$46*A50+$I$46*A50^2+$J$46*A50^3+$K$46*A50^4+$L$46*A50^5</f>
+        <f t="shared" si="3"/>
         <v>1012472.3521076605</v>
       </c>
     </row>
@@ -35806,7 +34411,7 @@
         <v>776</v>
       </c>
       <c r="C51" s="8">
-        <f>$G$46+$H$46*A51+$I$46*A51^2+$J$46*A51^3+$K$46*A51^4+$L$46*A51^5</f>
+        <f t="shared" si="3"/>
         <v>1037705.739225282</v>
       </c>
     </row>
@@ -35815,7 +34420,7 @@
         <v>786</v>
       </c>
       <c r="C52" s="8">
-        <f>$G$46+$H$46*A52+$I$46*A52^2+$J$46*A52^3+$K$46*A52^4+$L$46*A52^5</f>
+        <f t="shared" si="3"/>
         <v>1062946.5937522848</v>
       </c>
     </row>
@@ -35824,7 +34429,7 @@
         <v>796</v>
       </c>
       <c r="C53" s="8">
-        <f>$G$46+$H$46*A53+$I$46*A53^2+$J$46*A53^3+$K$46*A53^4+$L$46*A53^5</f>
+        <f t="shared" si="3"/>
         <v>1088175.4168854402</v>
       </c>
     </row>
@@ -35833,7 +34438,7 @@
         <v>806</v>
       </c>
       <c r="C54" s="8">
-        <f>$G$46+$H$46*A54+$I$46*A54^2+$J$46*A54^3+$K$46*A54^4+$L$46*A54^5</f>
+        <f t="shared" si="3"/>
         <v>1113371.5540249345</v>
       </c>
     </row>
@@ -35842,7 +34447,7 @@
         <v>816</v>
       </c>
       <c r="C55" s="8">
-        <f>$G$46+$H$46*A55+$I$46*A55^2+$J$46*A55^3+$K$46*A55^4+$L$46*A55^5</f>
+        <f t="shared" si="3"/>
         <v>1138513.1576959321</v>
       </c>
     </row>
@@ -35851,7 +34456,7 @@
         <v>826</v>
       </c>
       <c r="C56" s="8">
-        <f>$G$46+$H$46*A56+$I$46*A56^2+$J$46*A56^3+$K$46*A56^4+$L$46*A56^5</f>
+        <f t="shared" si="3"/>
         <v>1163577.1504701299</v>
       </c>
     </row>
@@ -35860,7 +34465,7 @@
         <v>836</v>
       </c>
       <c r="C57" s="8">
-        <f>$G$46+$H$46*A57+$I$46*A57^2+$J$46*A57^3+$K$46*A57^4+$L$46*A57^5</f>
+        <f t="shared" si="3"/>
         <v>1188539.1878873229</v>
       </c>
     </row>
@@ -35869,7 +34474,7 @@
         <v>846</v>
       </c>
       <c r="C58" s="8">
-        <f>$G$46+$H$46*A58+$I$46*A58^2+$J$46*A58^3+$K$46*A58^4+$L$46*A58^5</f>
+        <f t="shared" si="3"/>
         <v>1213373.6213769631</v>
       </c>
     </row>
@@ -35878,7 +34483,7 @@
         <v>856</v>
       </c>
       <c r="C59" s="8">
-        <f>$G$46+$H$46*A59+$I$46*A59^2+$J$46*A59^3+$K$46*A59^4+$L$46*A59^5</f>
+        <f t="shared" si="3"/>
         <v>1238053.4611797167</v>
       </c>
     </row>
@@ -35887,7 +34492,7 @@
         <v>866</v>
       </c>
       <c r="C60" s="8">
-        <f>$G$46+$H$46*A60+$I$46*A60^2+$J$46*A60^3+$K$46*A60^4+$L$46*A60^5</f>
+        <f t="shared" si="3"/>
         <v>1262550.3392690262</v>
       </c>
     </row>
@@ -35896,7 +34501,7 @@
         <v>876</v>
       </c>
       <c r="C61" s="8">
-        <f>$G$46+$H$46*A61+$I$46*A61^2+$J$46*A61^3+$K$46*A61^4+$L$46*A61^5</f>
+        <f t="shared" si="3"/>
         <v>1286834.4722726713</v>
       </c>
     </row>
@@ -35905,7 +34510,7 @@
         <v>886</v>
       </c>
       <c r="C62" s="8">
-        <f>$G$46+$H$46*A62+$I$46*A62^2+$J$46*A62^3+$K$46*A62^4+$L$46*A62^5</f>
+        <f t="shared" si="3"/>
         <v>1310874.6243943248</v>
       </c>
     </row>
@@ -35914,7 +34519,7 @@
         <v>818.15</v>
       </c>
       <c r="C63" s="8">
-        <f>$G$46+$H$46*A63+$I$46*A63^2+$J$46*A63^3+$K$46*A63^4+$L$46*A63^5</f>
+        <f t="shared" si="3"/>
         <v>1143909.2779764319</v>
       </c>
     </row>
@@ -35923,7 +34528,7 @@
         <v>828.15</v>
       </c>
       <c r="C64" s="8">
-        <f>$G$46+$H$46*A64+$I$46*A64^2+$J$46*A64^3+$K$46*A64^4+$L$46*A64^5</f>
+        <f t="shared" si="3"/>
         <v>1168953.4487220063</v>
       </c>
     </row>
@@ -35932,7 +34537,7 @@
         <v>838.15</v>
       </c>
       <c r="C65" s="8">
-        <f>$G$46+$H$46*A65+$I$46*A65^2+$J$46*A65^3+$K$46*A65^4+$L$46*A65^5</f>
+        <f t="shared" si="3"/>
         <v>1193890.2609857491</v>
       </c>
     </row>
@@ -35941,7 +34546,7 @@
         <v>848.15</v>
       </c>
       <c r="C66" s="8">
-        <f>$G$46+$H$46*A66+$I$46*A66^2+$J$46*A66^3+$K$46*A66^4+$L$46*A66^5</f>
+        <f t="shared" si="3"/>
         <v>1218693.7809704766</v>
       </c>
     </row>
@@ -35950,7 +34555,7 @@
         <v>858.15</v>
       </c>
       <c r="C67" s="8">
-        <f>$G$46+$H$46*A67+$I$46*A67^2+$J$46*A67^3+$K$46*A67^4+$L$46*A67^5</f>
+        <f t="shared" si="3"/>
         <v>1243336.7257183604</v>
       </c>
     </row>
@@ -35959,7 +34564,7 @@
         <v>868.15</v>
       </c>
       <c r="C68" s="8">
-        <f>$G$46+$H$46*A68+$I$46*A68^2+$J$46*A68^3+$K$46*A68^4+$L$46*A68^5</f>
+        <f t="shared" si="3"/>
         <v>1267790.4260324831</v>
       </c>
     </row>
@@ -35968,7 +34573,7 @@
         <v>878.15</v>
       </c>
       <c r="C69" s="8">
-        <f>$G$46+$H$46*A69+$I$46*A69^2+$J$46*A69^3+$K$46*A69^4+$L$46*A69^5</f>
+        <f t="shared" si="3"/>
         <v>1292024.7893983962</v>
       </c>
     </row>
@@ -35977,7 +34582,7 @@
         <v>888.15</v>
       </c>
       <c r="C70" s="8">
-        <f>$G$46+$H$46*A70+$I$46*A70^2+$J$46*A70^3+$K$46*A70^4+$L$46*A70^5</f>
+        <f t="shared" si="3"/>
         <v>1316008.262905688</v>
       </c>
     </row>
@@ -38727,7 +37332,7 @@
         <v>15000000</v>
       </c>
       <c r="E2" s="23">
-        <f t="shared" ref="E2:E66" si="1" xml:space="preserve"> -7.91778E-15*A2^5 + 0.0000000000205132*A2^4 - 0.000000021081*A2^3 + 0.000010752*A2^2 - 0.00272677*A2^1 + 0.276215</f>
+        <f t="shared" ref="E2:E40" si="1" xml:space="preserve"> -7.91778E-15*A2^5 + 0.0000000000205132*A2^4 - 0.000000021081*A2^3 + 0.000010752*A2^2 - 0.00272677*A2^1 + 0.276215</f>
         <v>4.5757686108190976E-3</v>
       </c>
       <c r="F2" s="32">
@@ -39766,7 +38371,7 @@
         <v>1.4040298392091087E-4</v>
       </c>
       <c r="E43" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A41^5 + 0.0000000000205132*A41^4 - 0.000000021081*A41^3 + 0.000010752*A41^2 - 0.00272677*A41^1 + 0.276215</f>
+        <f t="shared" ref="E43:E75" si="6" xml:space="preserve"> -7.91778E-15*A41^5 + 0.0000000000205132*A41^4 - 0.000000021081*A41^3 + 0.000010752*A41^2 - 0.00272677*A41^1 + 0.276215</f>
         <v>3.0559800728968689E-5</v>
       </c>
       <c r="F43" s="32">
@@ -39789,7 +38394,7 @@
         <v>1.3618279319075428E-4</v>
       </c>
       <c r="E44" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A42^5 + 0.0000000000205132*A42^4 - 0.000000021081*A42^3 + 0.000010752*A42^2 - 0.00272677*A42^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-1.0708764655220637E-4</v>
       </c>
       <c r="F44" s="32">
@@ -39812,7 +38417,7 @@
         <v>1.3202319054367523E-4</v>
       </c>
       <c r="E45" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A43^5 + 0.0000000000205132*A43^4 - 0.000000021081*A43^3 + 0.000010752*A43^2 - 0.00272677*A43^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-3.0196531523418724E-4</v>
       </c>
       <c r="F45" s="32">
@@ -39835,7 +38440,7 @@
         <v>1.2787066184977722E-4</v>
       </c>
       <c r="E46" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A44^5 + 0.0000000000205132*A44^4 - 0.000000021081*A44^3 + 0.000010752*A44^2 - 0.00272677*A44^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-5.6754589521978982E-4</v>
       </c>
       <c r="F46" s="32">
@@ -39858,7 +38463,7 @@
         <v>1.2367169297915767E-4</v>
       </c>
       <c r="E47" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A45^5 + 0.0000000000205132*A45^4 - 0.000000021081*A45^3 + 0.000010752*A45^2 - 0.00272677*A45^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-9.1901084093992669E-4</v>
       </c>
       <c r="F47" s="32">
@@ -39881,7 +38486,7 @@
         <v>1.1937276980192183E-4</v>
       </c>
       <c r="E48" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A46^5 + 0.0000000000205132*A46^4 - 0.000000021081*A46^3 + 0.000010752*A46^2 - 0.00272677*A46^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-1.3733453847138977E-3</v>
       </c>
       <c r="F48" s="32">
@@ -39904,7 +38509,7 @@
         <v>1.149203781881645E-4</v>
       </c>
       <c r="E49" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A47^5 + 0.0000000000205132*A47^4 - 0.000000021081*A47^3 + 0.000010752*A47^2 - 0.00272677*A47^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-1.9494335501099025E-3</v>
       </c>
       <c r="F49" s="32">
@@ -39927,7 +38532,7 @@
         <v>1.1026100400798487E-4</v>
       </c>
       <c r="E50" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A48^5 + 0.0000000000205132*A48^4 - 0.000000021081*A48^3 + 0.000010752*A48^2 - 0.00272677*A48^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-2.6681531652995583E-3</v>
       </c>
       <c r="F50" s="32">
@@ -39950,7 +38555,7 @@
         <v>1.0534113313148902E-4</v>
       </c>
       <c r="E51" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A49^5 + 0.0000000000205132*A49^4 - 0.000000021081*A49^3 + 0.000010752*A49^2 - 0.00272677*A49^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-3.552470876433067E-3</v>
       </c>
       <c r="F51" s="32">
@@ -39973,7 +38578,7 @@
         <v>1.0010725142877005E-4</v>
       </c>
       <c r="E52" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A50^5 + 0.0000000000205132*A50^4 - 0.000000021081*A50^3 + 0.000010752*A50^2 - 0.00272677*A50^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-4.6275371609750815E-3</v>
       </c>
       <c r="F52" s="32">
@@ -39996,7 +38601,7 @@
         <v>9.4505844769930594E-5</v>
       </c>
       <c r="E53" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A51^5 + 0.0000000000205132*A51^4 - 0.000000021081*A51^3 + 0.000010752*A51^2 - 0.00272677*A51^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-5.9207813410858678E-3</v>
       </c>
       <c r="F53" s="32">
@@ -40019,7 +38624,7 @@
         <v>8.848339902507241E-5</v>
       </c>
       <c r="E54" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A52^5 + 0.0000000000205132*A52^4 - 0.000000021081*A52^3 + 0.000010752*A52^2 - 0.00272677*A52^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-7.4620065969744909E-3</v>
       </c>
       <c r="F54" s="32">
@@ -40042,7 +38647,7 @@
         <v>8.1986400064297266E-5</v>
       </c>
       <c r="E55" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A53^5 + 0.0000000000205132*A53^4 - 0.000000021081*A53^3 + 0.000010752*A53^2 - 0.00272677*A53^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-9.2834849802555519E-3</v>
       </c>
       <c r="F55" s="32">
@@ -40065,7 +38670,7 @@
         <v>7.4961333757697386E-5</v>
       </c>
       <c r="E56" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A54^5 + 0.0000000000205132*A54^4 - 0.000000021081*A54^3 + 0.000010752*A54^2 - 0.00272677*A54^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-1.1420052427312588E-2</v>
       </c>
       <c r="F56" s="32">
@@ -40088,7 +38693,7 @@
         <v>6.7354685975379736E-5</v>
       </c>
       <c r="E57" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A55^5 + 0.0000000000205132*A55^4 - 0.000000021081*A55^3 + 0.000010752*A55^2 - 0.00272677*A55^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-1.3909203772656142E-2</v>
       </c>
       <c r="F57" s="32">
@@ -40111,7 +38716,7 @@
         <v>5.9112942587442614E-5</v>
       </c>
       <c r="E58" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A56^5 + 0.0000000000205132*A56^4 - 0.000000021081*A56^3 + 0.000010752*A56^2 - 0.00272677*A56^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-1.6791187762286275E-2</v>
       </c>
       <c r="F58" s="32">
@@ -40134,7 +38739,7 @@
         <v>5.0182589463982578E-5</v>
       </c>
       <c r="E59" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A57^5 + 0.0000000000205132*A57^4 - 0.000000021081*A57^3 + 0.000010752*A57^2 - 0.00272677*A57^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-2.0109102067047968E-2</v>
       </c>
       <c r="F59" s="32">
@@ -40157,7 +38762,7 @@
         <v>4.0510112475104863E-5</v>
       </c>
       <c r="E60" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A58^5 + 0.0000000000205132*A58^4 - 0.000000021081*A58^3 + 0.000010752*A58^2 - 0.00272677*A58^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-2.3908988295998967E-2</v>
       </c>
       <c r="F60" s="32">
@@ -40180,7 +38785,7 @@
         <v>3.0041997490906028E-5</v>
       </c>
       <c r="E61" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A59^5 + 0.0000000000205132*A59^4 - 0.000000021081*A59^3 + 0.000010752*A59^2 - 0.00272677*A59^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-2.8239927009761634E-2</v>
       </c>
       <c r="F61" s="32">
@@ -40203,7 +38808,7 @@
         <v>1.8724730381489574E-5</v>
       </c>
       <c r="E62" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A60^5 + 0.0000000000205132*A60^4 - 0.000000021081*A60^3 + 0.000010752*A60^2 - 0.00272677*A60^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-3.3154132733885455E-2</v>
       </c>
       <c r="F62" s="32">
@@ -40226,7 +38831,7 @@
         <v>6.5047970169503262E-6</v>
       </c>
       <c r="E63" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A61^5 + 0.0000000000205132*A61^4 - 0.000000021081*A61^3 + 0.000010752*A61^2 - 0.00272677*A61^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-3.8707048972213998E-2</v>
       </c>
       <c r="F63" s="32">
@@ -40249,7 +38854,7 @@
         <v>1.9610906409024036E-4</v>
       </c>
       <c r="E64" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A62^5 + 0.0000000000205132*A62^4 - 0.000000021081*A62^3 + 0.000010752*A62^2 - 0.00272677*A62^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-4.495744322023143E-2</v>
       </c>
       <c r="F64" s="32">
@@ -40257,7 +38862,7 @@
         <v>23024.714586136663</v>
       </c>
       <c r="G64" s="28">
-        <f t="shared" ref="G30:G73" si="6">-8.91902165E-12*A64^3+0.0000000192469424*A64^2  -0.0000142594148*A64+0.00374936454</f>
+        <f t="shared" ref="G64:G73" si="7">-8.91902165E-12*A64^3+0.0000000192469424*A64^2  -0.0000142594148*A64+0.00374936454</f>
         <v>-6.6713167326082172E-6</v>
       </c>
     </row>
@@ -40269,7 +38874,7 @@
         <v>2.0447185645584018E-4</v>
       </c>
       <c r="E65" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A63^5 + 0.0000000000205132*A63^4 - 0.000000021081*A63^3 + 0.000010752*A63^2 - 0.00272677*A63^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-5.1967501978429476E-2</v>
       </c>
       <c r="F65" s="32">
@@ -40277,7 +38882,7 @@
         <v>25515.479117368366</v>
       </c>
       <c r="G65" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.0857124997086026E-5</v>
       </c>
     </row>
@@ -40289,7 +38894,7 @@
         <v>2.1339650441344008E-4</v>
       </c>
       <c r="E66" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A64^5 + 0.0000000000205132*A64^4 - 0.000000021081*A64^3 + 0.000010752*A64^2 - 0.00272677*A64^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-5.9802925765678805E-2</v>
       </c>
       <c r="F66" s="32">
@@ -40297,7 +38902,7 @@
         <v>28124.323045992835</v>
       </c>
       <c r="G66" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.6106141906384805E-5</v>
       </c>
     </row>
@@ -40309,15 +38914,15 @@
         <v>2.2288300796304006E-4</v>
       </c>
       <c r="E67" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A65^5 + 0.0000000000205132*A65^4 - 0.000000021081*A65^3 + 0.000010752*A65^2 - 0.00272677*A65^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-6.853302413256579E-2</v>
       </c>
       <c r="F67" s="32">
-        <f t="shared" ref="F67:F84" si="7">100*(C67-E67)/C67</f>
+        <f t="shared" ref="F67:F84" si="8">100*(C67-E67)/C67</f>
         <v>30848.429303291883</v>
       </c>
       <c r="G67" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-5.2471881590401056E-5</v>
       </c>
     </row>
@@ -40329,15 +38934,15 @@
         <v>2.3293136710464011E-4</v>
       </c>
       <c r="E68" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A66^5 + 0.0000000000205132*A66^4 - 0.000000021081*A66^3 + 0.000010752*A66^2 - 0.00272677*A66^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-7.8230810674767448E-2</v>
       </c>
       <c r="F68" s="32">
+        <f t="shared" si="8"/>
+        <v>33685.348185254807</v>
+      </c>
+      <c r="G68" s="28">
         <f t="shared" si="7"/>
-        <v>33685.348185254807</v>
-      </c>
-      <c r="G68" s="28">
-        <f t="shared" si="6"/>
         <v>-7.0007858179039952E-5</v>
       </c>
     </row>
@@ -40349,15 +38954,15 @@
         <v>2.4354158183823981E-4</v>
       </c>
       <c r="E69" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A67^5 + 0.0000000000205132*A67^4 - 0.000000021081*A67^3 + 0.000010752*A67^2 - 0.00272677*A67^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-8.8973098046420174E-2</v>
       </c>
       <c r="F69" s="32">
+        <f t="shared" si="8"/>
+        <v>36633.021332478682</v>
+      </c>
+      <c r="G69" s="28">
         <f t="shared" si="7"/>
-        <v>36633.021332478682</v>
-      </c>
-      <c r="G69" s="28">
-        <f t="shared" si="6"/>
         <v>-8.876758580219626E-5</v>
       </c>
     </row>
@@ -40369,15 +38974,15 @@
         <v>2.5471365216384002E-4</v>
       </c>
       <c r="E70" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A68^5 + 0.0000000000205132*A68^4 - 0.000000021081*A68^3 + 0.000010752*A68^2 - 0.00272677*A68^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-0.10084059297344672</v>
       </c>
       <c r="F70" s="32">
+        <f t="shared" si="8"/>
+        <v>39689.787244141437</v>
+      </c>
+      <c r="G70" s="28">
         <f t="shared" si="7"/>
-        <v>39689.787244141437</v>
-      </c>
-      <c r="G70" s="28">
-        <f t="shared" si="6"/>
         <v>-1.0880457858977515E-4</v>
       </c>
     </row>
@@ -40389,15 +38994,15 @@
         <v>2.6644757808144074E-4</v>
       </c>
       <c r="E71" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A69^5 + 0.0000000000205132*A69^4 - 0.000000021081*A69^3 + 0.000010752*A69^2 - 0.00272677*A69^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-0.11391799126696001</v>
       </c>
       <c r="F71" s="32">
+        <f t="shared" si="8"/>
+        <v>42854.37295667237</v>
+      </c>
+      <c r="G71" s="28">
         <f t="shared" si="7"/>
-        <v>42854.37295667237</v>
-      </c>
-      <c r="G71" s="28">
-        <f t="shared" si="6"/>
         <v>-1.3017235067167487E-4</v>
       </c>
     </row>
@@ -40409,15 +39014,15 @@
         <v>2.7874335959104024E-4</v>
       </c>
       <c r="E72" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A70^5 + 0.0000000000205132*A70^4 - 0.000000021081*A70^3 + 0.000010752*A70^2 - 0.00272677*A70^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-0.12829407283659056</v>
       </c>
       <c r="F72" s="32">
+        <f t="shared" si="8"/>
+        <v>46125.8759257325</v>
+      </c>
+      <c r="G72" s="28">
         <f t="shared" si="7"/>
-        <v>46125.8759257325</v>
-      </c>
-      <c r="G72" s="28">
-        <f t="shared" si="6"/>
         <v>-1.5292441617779191E-4</v>
       </c>
     </row>
@@ -40429,15 +39034,15 @@
         <v>2.9160099669264068E-4</v>
       </c>
       <c r="E73" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A71^5 + 0.0000000000205132*A71^4 - 0.000000021081*A71^3 + 0.000010752*A71^2 - 0.00272677*A71^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-0.14406179670385433</v>
       </c>
       <c r="F73" s="32">
+        <f t="shared" si="8"/>
+        <v>49503.739472022906</v>
+      </c>
+      <c r="G73" s="28">
         <f t="shared" si="7"/>
-        <v>49503.739472022906</v>
-      </c>
-      <c r="G73" s="28">
-        <f t="shared" si="6"/>
         <v>-1.7711428923802798E-4</v>
       </c>
     </row>
@@ -40446,11 +39051,11 @@
         <v>3.050204893862399E-4</v>
       </c>
       <c r="E74" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A72^5 + 0.0000000000205132*A72^4 - 0.000000021081*A72^3 + 0.000010752*A72^2 - 0.00272677*A72^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-0.16131839601551434</v>
       </c>
       <c r="F74" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>52987.724473892922</v>
       </c>
       <c r="G74" s="28">
@@ -40463,11 +39068,11 @@
         <v>3.1900183767184049E-4</v>
       </c>
       <c r="E75" s="23">
-        <f xml:space="preserve"> -7.91778E-15*A73^5 + 0.0000000000205132*A73^4 - 0.000000021081*A73^3 + 0.000010752*A73^2 - 0.00272677*A73^1 + 0.276215</f>
+        <f t="shared" si="6"/>
         <v>-0.1801654730569574</v>
       </c>
       <c r="F75" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>56577.879366417605</v>
       </c>
       <c r="G75" s="28">
@@ -40483,15 +39088,15 @@
         <v>7.2215287665873833E-4</v>
       </c>
       <c r="E76" s="23">
-        <f t="shared" ref="E67:E84" si="8" xml:space="preserve"> -7.91778E-15*A76^5 + 0.0000000000205132*A76^4 - 0.000000021081*A76^3 + 0.000010752*A76^2 - 0.00272677*A76^1 + 0.276215</f>
+        <f t="shared" ref="E76:E84" si="9" xml:space="preserve"> -7.91778E-15*A76^5 + 0.0000000000205132*A76^4 - 0.000000021081*A76^3 + 0.000010752*A76^2 - 0.00272677*A76^1 + 0.276215</f>
         <v>4.5620570447669762E-3</v>
       </c>
       <c r="F76" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-531.73009375448748</v>
       </c>
       <c r="G76" s="28">
-        <f t="shared" ref="G30:G84" si="9">0.00000000280927796*A76^2 -0.0000041810912*A76+0.00169367877</f>
+        <f t="shared" ref="G76:G84" si="10">0.00000000280927796*A76^2 -0.0000041810912*A76+0.00169367877</f>
         <v>7.2215287665873833E-4</v>
       </c>
     </row>
@@ -40503,15 +39108,15 @@
         <v>6.0107085597613827E-4</v>
       </c>
       <c r="E77" s="23">
+        <f t="shared" si="9"/>
+        <v>1.684674230151062E-3</v>
+      </c>
+      <c r="F77" s="32">
         <f t="shared" si="8"/>
-        <v>1.684674230151062E-3</v>
-      </c>
-      <c r="F77" s="32">
-        <f t="shared" si="7"/>
         <v>-180.27880796435443</v>
       </c>
       <c r="G77" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.0107085597613827E-4</v>
       </c>
     </row>
@@ -40523,15 +39128,15 @@
         <v>5.1431864008605831E-4</v>
       </c>
       <c r="E78" s="23">
+        <f t="shared" si="9"/>
+        <v>8.8618462900169614E-4</v>
+      </c>
+      <c r="F78" s="32">
         <f t="shared" si="8"/>
-        <v>8.8618462900169614E-4</v>
-      </c>
-      <c r="F78" s="32">
-        <f t="shared" si="7"/>
         <v>-72.302646634276257</v>
       </c>
       <c r="G78" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.1431864008605831E-4</v>
       </c>
     </row>
@@ -40543,15 +39148,15 @@
         <v>4.1852012104345816E-4</v>
       </c>
       <c r="E79" s="23">
+        <f t="shared" si="9"/>
+        <v>5.7538158197789624E-4</v>
+      </c>
+      <c r="F79" s="32">
         <f t="shared" si="8"/>
-        <v>5.7538158197789624E-4</v>
-      </c>
-      <c r="F79" s="32">
-        <f t="shared" si="7"/>
         <v>-37.480028569080417</v>
       </c>
       <c r="G79" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.1852012104345816E-4</v>
       </c>
     </row>
@@ -40563,15 +39168,15 @@
         <v>3.3676799180085842E-4</v>
       </c>
       <c r="E80" s="23">
+        <f t="shared" si="9"/>
+        <v>4.1996523372056505E-4</v>
+      </c>
+      <c r="F80" s="32">
         <f t="shared" si="8"/>
-        <v>4.1996523372056505E-4</v>
-      </c>
-      <c r="F80" s="32">
-        <f t="shared" si="7"/>
         <v>-24.704616811951588</v>
       </c>
       <c r="G80" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.3676799180085842E-4</v>
       </c>
     </row>
@@ -40583,15 +39188,15 @@
         <v>2.6906225235825824E-4</v>
       </c>
       <c r="E81" s="23">
+        <f t="shared" si="9"/>
+        <v>2.6467132693863693E-4</v>
+      </c>
+      <c r="F81" s="32">
         <f t="shared" si="8"/>
-        <v>2.6467132693863693E-4</v>
-      </c>
-      <c r="F81" s="32">
-        <f t="shared" si="7"/>
         <v>1.631936617320352</v>
       </c>
       <c r="G81" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.6906225235825824E-4</v>
       </c>
     </row>
@@ -40603,15 +39208,15 @@
         <v>2.1540290271565826E-4</v>
       </c>
       <c r="E82" s="23">
+        <f t="shared" si="9"/>
+        <v>1.9180072409186177E-4</v>
+      </c>
+      <c r="F82" s="32">
         <f t="shared" si="8"/>
-        <v>1.9180072409186177E-4</v>
-      </c>
-      <c r="F82" s="32">
-        <f t="shared" si="7"/>
         <v>10.957224032840655</v>
       </c>
       <c r="G82" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.1540290271565826E-4</v>
       </c>
     </row>
@@ -40623,15 +39228,15 @@
         <v>1.7578994287305847E-4</v>
       </c>
       <c r="E83" s="23">
+        <f t="shared" si="9"/>
+        <v>2.2430265739037392E-4</v>
+      </c>
+      <c r="F83" s="32">
         <f t="shared" si="8"/>
-        <v>2.2430265739037392E-4</v>
-      </c>
-      <c r="F83" s="32">
-        <f t="shared" si="7"/>
         <v>-27.596979511135896</v>
       </c>
       <c r="G83" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.7578994287305847E-4</v>
       </c>
     </row>
@@ -40643,15 +39248,15 @@
         <v>1.5022337283045824E-4</v>
       </c>
       <c r="E84" s="23">
+        <f t="shared" si="9"/>
+        <v>2.8857978792262706E-5</v>
+      </c>
+      <c r="F84" s="32">
         <f t="shared" si="8"/>
-        <v>2.8857978792262706E-5</v>
-      </c>
-      <c r="F84" s="32">
-        <f t="shared" si="7"/>
         <v>80.789954153917336</v>
       </c>
       <c r="G84" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5022337283045824E-4</v>
       </c>
     </row>
@@ -42972,7 +41577,7 @@
         <v>758.15</v>
       </c>
       <c r="E67" s="23">
-        <f t="shared" ref="E67:E81" si="3" xml:space="preserve"> 4.91279E-19*A67^5 - 1.00061E-15*A67^4 - 0.00000193107*A67^3 + 0.00213784*A67^2 - 1.61326*A67^1 + 1402.71</f>
+        <f t="shared" ref="E67:E80" si="3" xml:space="preserve"> 4.91279E-19*A67^5 - 1.00061E-15*A67^4 - 0.00000193107*A67^3 + 0.00213784*A67^2 - 1.61326*A67^1 + 1402.71</f>
         <v>566.91076981287858</v>
       </c>
       <c r="F67">
